--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64440720-D5B2-4BD9-B3C4-CBC51FCDA9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABA6A1-8C91-41BB-AD76-4A3885F62CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="185">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,15 @@
   </si>
   <si>
     <t>Find:139,TP:2,FP:137</t>
+  </si>
+  <si>
+    <t>25776 bytes :Top-1024 with size 9328 bytes+ CMS with size 16448 bytes</t>
+  </si>
+  <si>
+    <t>1616.876</t>
+  </si>
+  <si>
+    <t>Find:24,TP:0,FP:24</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B6C7F-E5C2-4BC8-9861-32CEF9F20B2E}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1999,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D19FA86-1EAC-4440-B008-0B63060B8872}">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2572,9 +2581,15 @@
       <c r="D46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="E46" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4"/>
@@ -2603,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3849A4-B929-4FF4-9940-B117DA84AE54}">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABA6A1-8C91-41BB-AD76-4A3885F62CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16500" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="AMD" sheetId="6" r:id="rId4"/>
     <sheet name="Intel" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="220">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,11 +695,128 @@
   <si>
     <t>Find:24,TP:0,FP:24</t>
   </si>
+  <si>
+    <t>494.329</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004.215</t>
+  </si>
+  <si>
+    <t>10160 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:1792 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:432,TP:49,FP:383</t>
+  </si>
+  <si>
+    <t>Find:435,TP:54,FP:381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41856 bytes=Top-1024 with size 9024 bytes+ CMS with size 32832 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>286.479</t>
+  </si>
+  <si>
+    <t>estimate after count all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>597.104</t>
+  </si>
+  <si>
+    <t>Find:433,TP:45,FP:388</t>
+  </si>
+  <si>
+    <t>345.049</t>
+  </si>
+  <si>
+    <t>Find:213,TP:14,FP:199</t>
+  </si>
+  <si>
+    <t>ARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:434,TP:48,FP:386</t>
+  </si>
+  <si>
+    <t>506.687</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8592 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>554.513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:429,TP:66,FP:363</t>
+  </si>
+  <si>
+    <t>904.4977</t>
+  </si>
+  <si>
+    <t>10160 bytesTop:9024 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:864,TP:108,FP:756</t>
+  </si>
+  <si>
+    <t>922.276</t>
+  </si>
+  <si>
+    <t>Find:893,TP:124,FP:769</t>
+  </si>
+  <si>
+    <t>980.414</t>
+  </si>
+  <si>
+    <t>Find:885,TP:118,FP:767</t>
+  </si>
+  <si>
+    <t>Find:878,TP:111,FP:767</t>
+  </si>
+  <si>
+    <t>922.731</t>
+  </si>
+  <si>
+    <t>904.003</t>
+  </si>
+  <si>
+    <t>Find:876,TP:129,FP:747</t>
+  </si>
+  <si>
+    <t>949.291</t>
+  </si>
+  <si>
+    <t>17664 bytes=Top:9024 bytes, Sketch:8192 bytes, Sketch_head:448 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:864,TP:146,FP:718</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1195,6 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1467,31 +1579,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B6C7F-E5C2-4BC8-9861-32CEF9F20B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.92578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.35546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
@@ -1531,7 +1642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1547,7 +1658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
       <c r="D4" s="9" t="s">
@@ -1563,7 +1674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -1579,7 +1690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1589,7 +1700,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="27" t="s">
@@ -1605,7 +1716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="27" t="s">
@@ -1615,7 +1726,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1623,7 +1734,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>60</v>
@@ -1635,7 +1746,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -1651,7 +1762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1661,7 +1772,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -1671,7 +1782,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="27" t="s">
@@ -1687,7 +1798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1697,7 +1808,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>72</v>
@@ -1715,7 +1826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1723,9 +1834,9 @@
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
     </row>
-    <row r="18" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -1761,7 +1872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
         <v>43</v>
@@ -1777,7 +1888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="26" t="s">
         <v>12</v>
@@ -1793,7 +1904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -1809,7 +1920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
         <v>14</v>
@@ -1825,7 +1936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1833,9 +1944,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -1873,7 +1984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="33" t="s">
@@ -1889,7 +2000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -1905,7 +2016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="10" t="s">
@@ -1921,7 +2032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -1931,7 +2042,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10"/>
@@ -1939,7 +2050,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -1951,7 +2062,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
@@ -1961,7 +2072,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -1971,7 +2082,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -1981,7 +2092,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13" t="s">
@@ -1997,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,25 +2116,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D19FA86-1EAC-4440-B008-0B63060B8872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.92578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.35546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2046,7 +2156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="20">
         <v>512</v>
@@ -2065,7 +2175,7 @@
       </c>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
@@ -2081,7 +2191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="37" t="s">
@@ -2097,7 +2207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="37" t="s">
@@ -2113,7 +2223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="s">
@@ -2129,7 +2239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
@@ -2145,7 +2255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="42" t="s">
@@ -2161,7 +2271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -2169,7 +2279,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36" t="s">
         <v>60</v>
@@ -2187,7 +2297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
@@ -2203,7 +2313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2219,7 +2329,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2235,7 +2345,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26" t="s">
@@ -2251,7 +2361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -2267,7 +2377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2275,7 +2385,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36" t="s">
         <v>72</v>
@@ -2293,7 +2403,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11"/>
@@ -2301,9 +2411,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -2339,7 +2449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>43</v>
@@ -2355,7 +2465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -2371,7 +2481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -2387,7 +2497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
         <v>14</v>
@@ -2403,7 +2513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
         <v>25</v>
@@ -2413,9 +2523,9 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2453,7 +2563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
@@ -2469,7 +2579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2485,7 +2595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2501,7 +2611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -2517,7 +2627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
@@ -2525,7 +2635,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -2543,7 +2653,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -2559,7 +2669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -2575,7 +2685,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -2591,7 +2701,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
@@ -2607,7 +2717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,25 +2725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3849A4-B929-4FF4-9940-B117DA84AE54}">
-  <dimension ref="B1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.92578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
@@ -2672,8 +2781,12 @@
       <c r="G3" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I3">
+        <f>433/512</f>
+        <v>0.845703125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
@@ -2688,8 +2801,12 @@
       <c r="G4" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4">
+        <f>436/512</f>
+        <v>0.8515625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
@@ -2698,22 +2815,44 @@
       <c r="E5" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5">
+        <f>435/512</f>
+        <v>0.849609375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="21"/>
       <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>188</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6">
+        <f>432/512</f>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="s">
@@ -2722,22 +2861,44 @@
       <c r="E7" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F7" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7">
+        <f>433/512</f>
+        <v>0.845703125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>203</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8">
+        <f>434/512</f>
+        <v>0.84765625</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="42" t="s">
@@ -2746,10 +2907,21 @@
       <c r="E9" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F9" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9">
+        <f>439/512</f>
+        <v>0.857421875</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -2757,7 +2929,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36" t="s">
         <v>60</v>
@@ -2766,12 +2938,19 @@
         <v>65</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>207</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2780,10 +2959,17 @@
       <c r="E12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F12" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2792,10 +2978,17 @@
       <c r="E13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
@@ -2804,10 +2997,17 @@
       <c r="E14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="26" t="s">
@@ -2816,30 +3016,47 @@
       <c r="E15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F15" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H17" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="36" t="s">
         <v>72</v>
@@ -2850,10 +3067,17 @@
       <c r="E18" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F18" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
       <c r="D19" s="11"/>
@@ -2861,9 +3085,9 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2883,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -2899,7 +3123,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>174</v>
@@ -2915,7 +3139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -2927,7 +3151,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -2939,7 +3163,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
         <v>14</v>
@@ -2951,7 +3175,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
         <v>25</v>
@@ -2961,9 +3185,13 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>19</v>
       </c>
@@ -2982,8 +3210,11 @@
       <c r="G36" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H36" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2994,22 +3225,24 @@
       <c r="E37" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -3020,8 +3253,9 @@
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -3032,8 +3266,9 @@
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -3042,16 +3277,18 @@
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -3062,8 +3299,9 @@
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -3072,8 +3310,9 @@
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -3082,8 +3321,9 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -3092,39 +3332,46 @@
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="E47" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7501D235-A66E-4F3C-95CB-00C0A4FA93EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>145</v>
       </c>
@@ -3132,7 +3379,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -3147,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -3161,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -3176,7 +3423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -3190,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -3204,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -3215,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -3229,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>160</v>
       </c>
@@ -3243,8 +3490,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>162</v>
       </c>
@@ -3258,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -3269,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>SUM(D2:D12)</f>
         <v>62993</v>
@@ -3282,19 +3529,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3CB976-DCF4-478D-BADF-1C68791B4E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>145</v>
       </c>
@@ -3302,7 +3549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>137</v>
       </c>
@@ -3316,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>138</v>
       </c>
@@ -3330,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -3345,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>148</v>
       </c>
@@ -3359,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>150</v>
       </c>
@@ -3373,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -3381,7 +3628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3395,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -3409,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -3423,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -3431,7 +3678,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>55223</v>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAAE4C-C227-4D7B-9818-4AD8B84A451D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16500" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="AMD" sheetId="6" r:id="rId4"/>
     <sheet name="Intel" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,11 +818,71 @@
   <si>
     <t>Find:864,TP:146,FP:718</t>
   </si>
+  <si>
+    <t>540.7576</t>
+  </si>
+  <si>
+    <t>Find:327,TP:13,FP:314</t>
+  </si>
+  <si>
+    <t>808.931</t>
+  </si>
+  <si>
+    <t>Find:559,TP:34,FP:525</t>
+  </si>
+  <si>
+    <t>1146.814</t>
+  </si>
+  <si>
+    <t>16560 bytes :Top-2048 with size 16560 bytes.</t>
+  </si>
+  <si>
+    <t>Find:811,TP:60,FP:751</t>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>221.847</t>
+  </si>
+  <si>
+    <t>6536 bytes=Top:2216 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.81640625</t>
+  </si>
+  <si>
+    <t>0.00018</t>
+  </si>
+  <si>
+    <t>0.2412</t>
+  </si>
+  <si>
+    <t>Find:209, TP:21, FP:235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,7 +931,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1251,11 +1317,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1307,6 +1393,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1579,21 +1669,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1602,7 +1692,7 @@
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
@@ -1642,7 +1732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1658,7 +1748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
       <c r="D4" s="9" t="s">
@@ -1674,7 +1764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -1690,7 +1780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1700,7 +1790,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="27" t="s">
@@ -1716,7 +1806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="27" t="s">
@@ -1726,7 +1816,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1734,7 +1824,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>60</v>
@@ -1746,7 +1836,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -1762,7 +1852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1772,7 +1862,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -1782,7 +1872,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="27" t="s">
@@ -1798,7 +1888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1808,7 +1898,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>72</v>
@@ -1826,7 +1916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1834,9 +1924,9 @@
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -1872,7 +1962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
         <v>43</v>
@@ -1888,7 +1978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="26" t="s">
         <v>12</v>
@@ -1904,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -1920,7 +2010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
         <v>14</v>
@@ -1936,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -1944,9 +2034,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +2056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -1984,7 +2074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="33" t="s">
@@ -2000,7 +2090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -2016,7 +2106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="10" t="s">
@@ -2032,7 +2122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -2042,7 +2132,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10"/>
@@ -2050,7 +2140,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -2062,7 +2152,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
@@ -2072,7 +2162,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2082,7 +2172,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2092,7 +2182,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13" t="s">
@@ -2108,7 +2198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,14 +2206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -2133,7 +2223,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="18"/>
       <c r="C2" s="20">
         <v>512</v>
@@ -2175,7 +2265,7 @@
       </c>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
@@ -2191,7 +2281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="37" t="s">
@@ -2207,7 +2297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="37" t="s">
@@ -2223,7 +2313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="s">
@@ -2239,7 +2329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
@@ -2255,7 +2345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="42" t="s">
@@ -2271,7 +2361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -2279,7 +2369,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="36" t="s">
         <v>60</v>
@@ -2297,7 +2387,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
@@ -2313,7 +2403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2329,7 +2419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2345,7 +2435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26" t="s">
@@ -2361,7 +2451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -2377,7 +2467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2385,7 +2475,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="36" t="s">
         <v>72</v>
@@ -2403,7 +2493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11"/>
@@ -2411,9 +2501,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -2449,7 +2539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>43</v>
@@ -2465,7 +2555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -2481,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -2497,7 +2587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
         <v>14</v>
@@ -2513,7 +2603,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
         <v>25</v>
@@ -2523,9 +2613,9 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="19" t="s">
         <v>19</v>
       </c>
@@ -2545,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2563,7 +2653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
@@ -2579,7 +2669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2595,7 +2685,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2611,7 +2701,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -2627,7 +2717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
@@ -2635,7 +2725,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -2653,7 +2743,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -2669,7 +2759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -2685,7 +2775,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -2701,7 +2791,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
@@ -2717,7 +2807,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,24 +2815,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.35546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2761,8 +2852,17 @@
       <c r="G2" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
@@ -2781,12 +2881,12 @@
       <c r="G3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="49">
         <f>433/512</f>
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
@@ -2801,12 +2901,12 @@
       <c r="G4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="49">
         <f>436/512</f>
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
@@ -2824,12 +2924,12 @@
       <c r="H5" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="49">
         <f>435/512</f>
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="21"/>
       <c r="D6" s="37" t="s">
@@ -2847,12 +2947,12 @@
       <c r="H6" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="49">
         <f>432/512</f>
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="s">
@@ -2867,15 +2967,15 @@
       <c r="G7" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="49">
         <f>433/512</f>
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
@@ -2893,12 +2993,12 @@
       <c r="H8" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="49">
         <f>434/512</f>
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="42" t="s">
@@ -2916,12 +3016,12 @@
       <c r="H9" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="49">
         <f>439/512</f>
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -2929,7 +3029,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="36" t="s">
         <v>60</v>
@@ -2950,7 +3050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2969,7 +3069,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2988,7 +3088,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
@@ -3007,7 +3107,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="26" t="s">
@@ -3026,7 +3126,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
@@ -3045,7 +3145,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -3056,7 +3156,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="36" t="s">
         <v>72</v>
@@ -3076,18 +3176,44 @@
       <c r="H18" s="25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="49">
+        <v>0.83203125</v>
+      </c>
+      <c r="J18" s="49">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -3106,8 +3232,11 @@
       <c r="G24" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -3122,8 +3251,9 @@
       <c r="G25" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>174</v>
@@ -3138,8 +3268,9 @@
       <c r="G26" s="32" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -3148,10 +3279,15 @@
       <c r="E27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -3160,196 +3296,200 @@
       <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="21" t="s">
+      <c r="F28" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0.3639</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="4"/>
+      <c r="C29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="51">
+        <v>0.39599609375</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+    <row r="35" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H35" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>125</v>
+        <v>3</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>128</v>
+      <c r="D38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>86</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
-      <c r="C43" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,20 +3498,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D1" t="s">
         <v>145</v>
       </c>
@@ -3379,7 +3519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -3394,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -3408,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -3423,7 +3563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -3437,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -3451,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -3462,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -3476,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>160</v>
       </c>
@@ -3490,8 +3630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>162</v>
       </c>
@@ -3505,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -3516,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <f>SUM(D2:D12)</f>
         <v>62993</v>
@@ -3529,19 +3669,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>145</v>
       </c>
@@ -3549,7 +3689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>137</v>
       </c>
@@ -3563,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>138</v>
       </c>
@@ -3577,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -3592,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>148</v>
       </c>
@@ -3606,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>150</v>
       </c>
@@ -3620,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -3628,7 +3768,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3642,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -3656,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -3670,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -3678,7 +3818,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>55223</v>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAAE4C-C227-4D7B-9818-4AD8B84A451D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16500" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1669,21 +1663,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1692,7 +1686,7 @@
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
@@ -1732,7 +1726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1748,7 +1742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
       <c r="D4" s="9" t="s">
@@ -1764,7 +1758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -1780,7 +1774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1790,7 +1784,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="27" t="s">
@@ -1806,7 +1800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="27" t="s">
@@ -1816,7 +1810,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1824,7 +1818,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>60</v>
@@ -1836,7 +1830,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -1852,7 +1846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1862,7 +1856,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -1872,7 +1866,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="27" t="s">
@@ -1888,7 +1882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1898,7 +1892,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>72</v>
@@ -1916,7 +1910,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1924,9 +1918,9 @@
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
     </row>
-    <row r="18" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -1962,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
         <v>43</v>
@@ -1978,7 +1972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="26" t="s">
         <v>12</v>
@@ -1994,7 +1988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -2010,7 +2004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
         <v>14</v>
@@ -2026,7 +2020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -2034,9 +2028,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
@@ -2056,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -2074,7 +2068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="33" t="s">
@@ -2090,7 +2084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -2106,7 +2100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="10" t="s">
@@ -2122,7 +2116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -2132,7 +2126,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10"/>
@@ -2140,7 +2134,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -2152,7 +2146,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
@@ -2162,7 +2156,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2172,7 +2166,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2182,7 +2176,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13" t="s">
@@ -2198,7 +2192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2206,14 +2200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -2223,7 +2217,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="20">
         <v>512</v>
@@ -2265,7 +2259,7 @@
       </c>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
@@ -2281,7 +2275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="37" t="s">
@@ -2297,7 +2291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="37" t="s">
@@ -2313,7 +2307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="s">
@@ -2329,7 +2323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
@@ -2345,7 +2339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="42" t="s">
@@ -2361,7 +2355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -2369,7 +2363,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36" t="s">
         <v>60</v>
@@ -2387,7 +2381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
@@ -2403,7 +2397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2419,7 +2413,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2435,7 +2429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26" t="s">
@@ -2451,7 +2445,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -2467,7 +2461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2475,7 +2469,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36" t="s">
         <v>72</v>
@@ -2493,7 +2487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11"/>
@@ -2501,9 +2495,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -2539,7 +2533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>43</v>
@@ -2555,7 +2549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -2571,7 +2565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -2587,7 +2581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
         <v>14</v>
@@ -2603,7 +2597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
         <v>25</v>
@@ -2613,9 +2607,9 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2653,7 +2647,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
@@ -2669,7 +2663,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2685,7 +2679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2701,7 +2695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -2717,7 +2711,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
@@ -2725,7 +2719,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -2743,7 +2737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -2759,7 +2753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -2775,7 +2769,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -2791,7 +2785,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
@@ -2807,7 +2801,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2815,25 +2809,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.35546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2880,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
@@ -2906,7 +2900,7 @@
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
@@ -2929,7 +2923,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="21"/>
       <c r="D6" s="37" t="s">
@@ -2952,7 +2946,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="s">
@@ -2975,7 +2969,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
@@ -2998,7 +2992,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="42" t="s">
@@ -3021,7 +3015,7 @@
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -3029,7 +3023,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36" t="s">
         <v>60</v>
@@ -3050,7 +3044,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -3069,7 +3063,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -3088,7 +3082,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
@@ -3107,7 +3101,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="26" t="s">
@@ -3126,7 +3120,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
@@ -3145,7 +3139,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -3156,7 +3150,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="36" t="s">
         <v>72</v>
@@ -3186,7 +3180,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
       <c r="D19" s="11" t="s">
@@ -3211,9 +3205,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3230,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -3253,7 +3247,7 @@
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>174</v>
@@ -3270,7 +3264,7 @@
       </c>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -3287,7 +3281,7 @@
       </c>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -3306,7 +3300,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="22" t="s">
         <v>14</v>
@@ -3325,13 +3319,13 @@
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>19</v>
       </c>
@@ -3354,7 +3348,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="C36" s="5" t="s">
         <v>7</v>
@@ -3369,7 +3363,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
       <c r="D37" s="33" t="s">
@@ -3382,7 +3376,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
@@ -3395,7 +3389,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -3408,7 +3402,7 @@
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -3419,7 +3413,7 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10"/>
@@ -3428,7 +3422,7 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8" t="s">
         <v>12</v>
@@ -3441,7 +3435,7 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
@@ -3452,7 +3446,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -3463,7 +3457,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -3474,7 +3468,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
       <c r="D46" s="13" t="s">
@@ -3489,7 +3483,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,20 +3492,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>145</v>
       </c>
@@ -3519,7 +3513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -3534,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -3548,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -3563,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -3577,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -3591,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -3602,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -3616,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>160</v>
       </c>
@@ -3630,8 +3624,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>162</v>
       </c>
@@ -3645,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>SUM(D2:D12)</f>
         <v>62993</v>
@@ -3669,19 +3663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>145</v>
       </c>
@@ -3689,7 +3683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>137</v>
       </c>
@@ -3703,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>138</v>
       </c>
@@ -3717,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -3732,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>148</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>150</v>
       </c>
@@ -3760,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -3768,7 +3762,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3782,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -3796,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -3810,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -3818,7 +3812,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>55223</v>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88354A-6227-491F-8B87-D035A220375D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16500" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="241">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,11 +878,22 @@
     <t>Find:209, TP:21, FP:235</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6536 bytes=Top:2216 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:186, TP:32, FP:224</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1335,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1391,6 +1408,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1663,21 +1681,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1686,7 +1704,7 @@
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="34" t="s">
         <v>110</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -1742,7 +1760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
       <c r="D4" s="9" t="s">
@@ -1758,7 +1776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -1774,7 +1792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -1784,7 +1802,7 @@
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="27" t="s">
@@ -1799,8 +1817,12 @@
       <c r="G7" s="28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>344/512</f>
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="27" t="s">
@@ -1810,7 +1832,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1818,7 +1840,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>60</v>
@@ -1830,7 +1852,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -1846,7 +1868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1856,7 +1878,7 @@
       <c r="F12" s="44"/>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -1866,7 +1888,7 @@
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="27" t="s">
@@ -1882,7 +1904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1892,7 +1914,7 @@
       <c r="F15" s="44"/>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>72</v>
@@ -1909,18 +1931,30 @@
       <c r="G16" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>188/256</f>
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="9">
+        <v>91.316000000000003</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +1974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -1956,7 +1990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
         <v>43</v>
@@ -1972,7 +2006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="26" t="s">
         <v>12</v>
@@ -1988,7 +2022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -2004,7 +2038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
         <v>14</v>
@@ -2020,7 +2054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -2028,9 +2062,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="19" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
         <v>7</v>
@@ -2068,7 +2102,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="33" t="s">
@@ -2084,7 +2118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -2100,7 +2134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="10" t="s">
@@ -2116,7 +2150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -2126,7 +2160,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10"/>
@@ -2134,7 +2168,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -2146,7 +2180,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="10" t="s">
@@ -2156,7 +2190,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2166,7 +2200,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2176,7 +2210,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13" t="s">
@@ -2192,7 +2226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2200,14 +2234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -2217,7 +2251,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2240,7 +2274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="18"/>
       <c r="C2" s="20">
         <v>512</v>
@@ -2259,7 +2293,7 @@
       </c>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
@@ -2275,7 +2309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="37" t="s">
@@ -2291,7 +2325,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="37" t="s">
@@ -2307,7 +2341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="s">
@@ -2323,7 +2357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
@@ -2339,7 +2373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="42" t="s">
@@ -2355,7 +2389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -2363,7 +2397,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="36" t="s">
         <v>60</v>
@@ -2381,7 +2415,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
@@ -2397,7 +2431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -2413,7 +2447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -2429,7 +2463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26" t="s">
@@ -2445,7 +2479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -2461,7 +2495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2469,7 +2503,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="36" t="s">
         <v>72</v>
@@ -2487,7 +2521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11"/>
@@ -2495,9 +2529,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2517,7 +2551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
@@ -2533,7 +2567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>43</v>
@@ -2549,7 +2583,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
         <v>12</v>
@@ -2565,7 +2599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
@@ -2581,7 +2615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
         <v>14</v>
@@ -2597,7 +2631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
         <v>25</v>
@@ -2607,9 +2641,9 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="19" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2647,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
@@ -2663,7 +2697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -2679,7 +2713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -2695,7 +2729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -2711,7 +2745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
@@ -2719,7 +2753,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -2737,7 +2771,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
@@ -2753,7 +2787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
@@ -2769,7 +2803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -2785,7 +2819,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
@@ -2801,7 +2835,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2809,14 +2843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -2826,8 +2860,8 @@
     <col min="8" max="11" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2856,7 +2890,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
@@ -2880,7 +2914,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
@@ -2900,7 +2934,7 @@
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
@@ -2923,7 +2957,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="21"/>
       <c r="D6" s="37" t="s">
@@ -2946,7 +2980,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="s">
@@ -2969,7 +3003,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
@@ -2992,7 +3026,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="42" t="s">
@@ -3015,7 +3049,7 @@
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -3023,7 +3057,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="36" t="s">
         <v>60</v>
@@ -3044,7 +3078,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -3063,7 +3097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -3082,7 +3116,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
@@ -3101,7 +3135,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="26" t="s">
@@ -3120,7 +3154,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
@@ -3139,7 +3173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -3150,7 +3184,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="36" t="s">
         <v>72</v>
@@ -3180,7 +3214,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
       <c r="D19" s="11" t="s">
@@ -3205,285 +3239,308 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+    <row r="20" spans="2:11" ht="14.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="53"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="53"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="53"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="20" t="s">
+    <row r="28" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="29" t="s">
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="30" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F29" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="24" t="s">
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="3"/>
+      <c r="C30" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G30" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="21" t="s">
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H31" s="50">
         <v>0.3639</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="22" t="s">
+    <row r="32" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="4"/>
+      <c r="C32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="11" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H32" s="51">
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
+    <row r="33" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+    <row r="38" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H38" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="5" t="s">
+    <row r="39" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="3"/>
+      <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D39" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E39" s="35" t="s">
         <v>125</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="21"/>
+      <c r="D40" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D45" s="10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>192</v>
-      </c>
+    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,20 +3549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D1" t="s">
         <v>145</v>
       </c>
@@ -3513,7 +3570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>137</v>
       </c>
@@ -3528,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>138</v>
       </c>
@@ -3542,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -3557,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -3585,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -3596,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>155</v>
       </c>
@@ -3610,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>160</v>
       </c>
@@ -3624,8 +3681,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>162</v>
       </c>
@@ -3639,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -3650,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D13">
         <f>SUM(D2:D12)</f>
         <v>62993</v>
@@ -3663,19 +3720,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>145</v>
       </c>
@@ -3683,7 +3740,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>137</v>
       </c>
@@ -3697,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>138</v>
       </c>
@@ -3711,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>139</v>
       </c>
@@ -3726,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>148</v>
       </c>
@@ -3740,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>150</v>
       </c>
@@ -3754,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>152</v>
       </c>
@@ -3762,7 +3819,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3776,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -3790,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -3804,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -3812,7 +3869,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>55223</v>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88354A-6227-491F-8B87-D035A220375D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16500" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -18,8 +12,9 @@
     <sheet name="Caida_0" sheetId="4" r:id="rId3"/>
     <sheet name="AMD" sheetId="6" r:id="rId4"/>
     <sheet name="Intel" sheetId="7" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="359">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sum in Other/(width*(ratio-1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4272</t>
   </si>
   <si>
@@ -98,16 +89,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>415.307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16560</t>
   </si>
   <si>
-    <t>Find:280,TP:52,FP:228</t>
-  </si>
-  <si>
     <t>32*32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,27 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:242,TP:39,FP:203</t>
-  </si>
-  <si>
-    <t>104.872</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:73,TP:15,FP:58</t>
-  </si>
-  <si>
-    <t>Find:158,TP:26,FP:132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>194.0536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>347.726</t>
-  </si>
-  <si>
     <t>4*384</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,19 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:618,TP:74,FP:544</t>
-  </si>
-  <si>
-    <t>Find:348,TP:46,FP:302</t>
-  </si>
-  <si>
     <t>6528=Top:4272 bytes, Sketch:2160 bytes, Sketch_head:384 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:345,TP:48,FP:297</t>
-  </si>
-  <si>
     <t>820</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,15 +162,6 @@
     <t>7056</t>
   </si>
   <si>
-    <t>183.335</t>
-  </si>
-  <si>
-    <t>Find:112,TP:19,FP:93</t>
-  </si>
-  <si>
-    <t>239.546</t>
-  </si>
-  <si>
     <t>11440=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:3072 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,23 +198,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124.343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:344,TP:44,FP:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>270.279</t>
-  </si>
-  <si>
     <t>1024</t>
   </si>
   <si>
-    <t>263.528</t>
-  </si>
-  <si>
     <t>13344=Top:9024 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,23 +209,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:604,TP:93,FP:511</t>
-  </si>
-  <si>
     <t>2*128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>134.827</t>
-  </si>
-  <si>
     <t>5408=Top:4272 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:333,TP:39,FP:294</t>
-  </si>
-  <si>
     <t>8880=Top-512 with size 4720 bytes+ CMS with size 4160 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,26 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find:188,TP:28,FP:160</t>
-  </si>
-  <si>
-    <t>84.152</t>
-  </si>
-  <si>
     <t>8*128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>145.381</t>
-  </si>
-  <si>
-    <t>Find:352,TP:41,FP:311</t>
-  </si>
-  <si>
-    <t>8816 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:448 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>321.641</t>
   </si>
   <si>
@@ -424,10 +330,6 @@
   </si>
   <si>
     <t>451.003</t>
-  </si>
-  <si>
-    <t>sum in Other/width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>479.974</t>
@@ -883,18 +785,472 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Find:186, TP:32, FP:224</t>
+  </si>
+  <si>
+    <t>8816 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:448 bytes.</t>
+  </si>
+  <si>
+    <t>4488 bytes=Top:2216 bytes, Sketch:2048 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
     <t>6536 bytes=Top:2216 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:186, TP:32, FP:224</t>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8680 bytes=Top:4360 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>Find:352, TP:28, FP:484</t>
+  </si>
+  <si>
+    <t>Find:188, TP:28, FP:228</t>
+  </si>
+  <si>
+    <t>0.000110</t>
+  </si>
+  <si>
+    <t>Find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10160 bytes=Top:9024 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
+  </si>
+  <si>
+    <t>Find:612, TP:67, FP:957</t>
+  </si>
+  <si>
+    <t>0.000726</t>
+  </si>
+  <si>
+    <t>11296 bytes=Top:9024 bytes, Sketch:2048 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>0.6035</t>
+  </si>
+  <si>
+    <t>Find:618, TP:75, FP:949</t>
+  </si>
+  <si>
+    <t>0.000723</t>
+  </si>
+  <si>
+    <t>13568 bytes=Top:9024 bytes, Sketch:4096 bytes, Sketch_head:448 bytes.</t>
+  </si>
+  <si>
+    <t>Find:606, TP:79, FP:945</t>
+  </si>
+  <si>
+    <t>0.000740</t>
+  </si>
+  <si>
+    <t>0.040640</t>
+  </si>
+  <si>
+    <t>(Sketch[r][c]*width)//distinct</t>
+  </si>
+  <si>
+    <t>hyperloglog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch*(Sketch/Total_count)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch[r][c] only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7266</t>
+  </si>
+  <si>
+    <t>Sort when exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1542.349270</t>
+  </si>
+  <si>
+    <t>1.230426</t>
+  </si>
+  <si>
+    <t>Precision(in Top-k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARE(All)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAE(All)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.230460</t>
+  </si>
+  <si>
+    <t>1.149743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.481 </t>
+  </si>
+  <si>
+    <t>79.822</t>
+  </si>
+  <si>
+    <t>91.589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.965450</t>
+  </si>
+  <si>
+    <t>65.475787</t>
+  </si>
+  <si>
+    <t>ARE(Top)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAE(Top)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>473.397</t>
+  </si>
+  <si>
+    <t>0.6875</t>
+  </si>
+  <si>
+    <t>0.000273</t>
+  </si>
+  <si>
+    <t>0.000274</t>
+  </si>
+  <si>
+    <t>0.024014</t>
+  </si>
+  <si>
+    <t>0.939715</t>
+  </si>
+  <si>
+    <t>40.525954</t>
+  </si>
+  <si>
+    <t>294.376</t>
+  </si>
+  <si>
+    <t>0.7461</t>
+  </si>
+  <si>
+    <t>6576 bytes=Top:2256 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>Find:191, TP:24, FP:232</t>
+  </si>
+  <si>
+    <t>0.015444</t>
+  </si>
+  <si>
+    <t>0.960124</t>
+  </si>
+  <si>
+    <t>65.605229</t>
+  </si>
+  <si>
+    <t>4272 bytes=Top-512 with size 4272 bytes.</t>
+  </si>
+  <si>
+    <t>191.570</t>
+  </si>
+  <si>
+    <t>Find:73, TP:15, FP:497</t>
+  </si>
+  <si>
+    <t>0.1426</t>
+  </si>
+  <si>
+    <t>4528 bytes=Top:2256 bytes, Sketch:2048 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>Find:190, TP:15, FP:241</t>
+  </si>
+  <si>
+    <t>7056 bytes=Top-820 with size 7056 bytes</t>
+  </si>
+  <si>
+    <t>Find:112, TP:19, FP:801</t>
+  </si>
+  <si>
+    <t>Execution time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision (Top-k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Sketch*width)//distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153.810</t>
+  </si>
+  <si>
+    <t>0.7344</t>
+  </si>
+  <si>
+    <t>9024 bytes=Top-1024 with size 9024 bytes.</t>
+  </si>
+  <si>
+    <t>Find:158, TP:26, FP:998</t>
+  </si>
+  <si>
+    <t>582.054</t>
+  </si>
+  <si>
+    <t>5496 bytes=Top:4360 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
+  </si>
+  <si>
+    <t>0.6953</t>
+  </si>
+  <si>
+    <t>Find:356, TP:28, FP:484</t>
+  </si>
+  <si>
+    <t>0.000278</t>
+  </si>
+  <si>
+    <t>5408 bytes=Top:4272 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
+  </si>
+  <si>
+    <t>Find:333, TP:39, FP:473</t>
+  </si>
+  <si>
+    <t>13008 bytes=Top-1536 with size 13008 bytes.</t>
+  </si>
+  <si>
+    <t>Find:242, TP:39, FP:1497</t>
+  </si>
+  <si>
+    <t>6544 bytes=Top:4272 bytes, Sketch:2048 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>0.6895</t>
+  </si>
+  <si>
+    <t>Find:353, TP:46, FP:466</t>
+  </si>
+  <si>
+    <t>0.024533</t>
+  </si>
+  <si>
+    <t>0.940231</t>
+  </si>
+  <si>
+    <t>40.237515</t>
+  </si>
+  <si>
+    <t>0.000111</t>
+  </si>
+  <si>
+    <t>0.015983</t>
+  </si>
+  <si>
+    <t>0.959445</t>
+  </si>
+  <si>
+    <t>66.594945</t>
+  </si>
+  <si>
+    <t>Find:352, TP:41, FP:471</t>
+  </si>
+  <si>
+    <t>0.6504</t>
+  </si>
+  <si>
+    <t>10160 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:1792 bytes.</t>
+  </si>
+  <si>
+    <t>0.6738</t>
+  </si>
+  <si>
+    <t>Find:345, TP:48, FP:464</t>
+  </si>
+  <si>
+    <t>16560 bytes=Top-2048 with size 16560 bytes.</t>
+  </si>
+  <si>
+    <t>Find:338, TP:52, FP:1996</t>
+  </si>
+  <si>
+    <t>4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6432 bytes=Top:4272 bytes, Sketch:2048 bytes, Sketch_head:112 bytes.</t>
+  </si>
+  <si>
+    <t>0.6836</t>
+  </si>
+  <si>
+    <t>Find:350, TP:42, FP:470</t>
+  </si>
+  <si>
+    <t>8592 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:224 bytes.</t>
+  </si>
+  <si>
+    <t>0.6719</t>
+  </si>
+  <si>
+    <t>Find:344, TP:44, FP:468</t>
+  </si>
+  <si>
+    <t>0.000281</t>
+  </si>
+  <si>
+    <t>0.024736</t>
+  </si>
+  <si>
+    <t>0.941056</t>
+  </si>
+  <si>
+    <t>40.677685</t>
+  </si>
+  <si>
+    <t>12912 bytes=Top:4272 bytes, Sketch:8192 bytes, Sketch_head:448 bytes.</t>
+  </si>
+  <si>
+    <t>Find:350, TP:67, FP:445</t>
+  </si>
+  <si>
+    <t>0.000269</t>
+  </si>
+  <si>
+    <t>0.022966</t>
+  </si>
+  <si>
+    <t>0.943981</t>
+  </si>
+  <si>
+    <t>41.224939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.774 </t>
+  </si>
+  <si>
+    <t>0.000282</t>
+  </si>
+  <si>
+    <t>0.025288</t>
+  </si>
+  <si>
+    <t>0.936636</t>
+  </si>
+  <si>
+    <t>39.737543</t>
+  </si>
+  <si>
+    <t>340.143</t>
+  </si>
+  <si>
+    <t>0.5977</t>
+  </si>
+  <si>
+    <t>0.040744</t>
+  </si>
+  <si>
+    <t>0.916848</t>
+  </si>
+  <si>
+    <t>24.330232</t>
+  </si>
+  <si>
+    <t>0.000289</t>
+  </si>
+  <si>
+    <t>0.025565</t>
+  </si>
+  <si>
+    <t>33928 bytes=Top-4096 with size 33928 bytes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1856.348 </t>
+  </si>
+  <si>
+    <t>Find:663, TP:103, FP:3993</t>
+  </si>
+  <si>
+    <t>0.1619</t>
+  </si>
+  <si>
+    <t>0.006221</t>
+  </si>
+  <si>
+    <t>1.202578</t>
+  </si>
+  <si>
+    <t>330.345</t>
+  </si>
+  <si>
+    <t>0.040447</t>
+  </si>
+  <si>
+    <t>0.910852</t>
+  </si>
+  <si>
+    <t>24.325042</t>
+  </si>
+  <si>
+    <t>235.702</t>
+  </si>
+  <si>
+    <t>0.5918</t>
+  </si>
+  <si>
+    <t>0.919504</t>
+  </si>
+  <si>
+    <t>25.240195</t>
+  </si>
+  <si>
+    <t>11184 bytes=Top:9024 bytes, Sketch:2048 bytes, Sketch_head:112 bytes.</t>
+  </si>
+  <si>
+    <t>0.5957</t>
+  </si>
+  <si>
+    <t>Find:610, TP:65, FP:959</t>
+  </si>
+  <si>
+    <t>0.000737</t>
+  </si>
+  <si>
+    <t>0.041462</t>
+  </si>
+  <si>
+    <t>0.915724</t>
+  </si>
+  <si>
+    <t>24.156463</t>
+  </si>
+  <si>
+    <t>281.471</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,6 +1289,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -942,7 +1304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1348,11 +1710,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1399,16 +1800,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1681,30 +2088,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="45" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
@@ -1718,530 +2130,1629 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>220</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="5">
+        <v>233</v>
+      </c>
+      <c r="C2" s="30">
         <v>512</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
+      <c r="D2" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="F2" s="9">
+        <v>201.08699999999999</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.5923999999999999E-2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.94013000000000002</v>
+      </c>
+      <c r="L2" s="9">
+        <v>39.927731999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>291</v>
+      </c>
+      <c r="F3" s="9">
+        <v>183.86199999999999</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.4532999999999999E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.94023100000000004</v>
+      </c>
+      <c r="L3" s="10">
+        <v>40.237515000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>212</v>
+      </c>
+      <c r="F4" s="9">
+        <v>244.09200000000001</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2.7300000000000002E-4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2.4291E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.94656499999999999</v>
+      </c>
+      <c r="L4" s="10">
+        <v>42.983353999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>303</v>
+      </c>
+      <c r="F5" s="9">
+        <v>446.61599999999999</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="27">
-        <v>124.628</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7">
-        <f>344/512</f>
-        <v>0.671875</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" s="9">
+        <v>223.15299999999999</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.94274500000000006</v>
+      </c>
+      <c r="L7" s="10">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="9">
+        <v>438.5</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7.2599999999999997E-4</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4.0744000000000002E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.916848</v>
+      </c>
+      <c r="L10" s="10">
+        <v>24.330231999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>358</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16">
-        <f>188/256</f>
-        <v>0.734375</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>213</v>
+      </c>
+      <c r="F16" s="9">
+        <v>151.25299999999999</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>239</v>
+        <v>210</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F17" s="9">
-        <v>91.316000000000003</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="20" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>154.83099999999999</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1.4951000000000001E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.96545000000000003</v>
+      </c>
+      <c r="L17" s="9">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="5">
+        <v>512</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="9">
+        <v>199.232</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2.5923999999999999E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.94013000000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>39.927731999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="9">
+        <v>199.79400000000001</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="9">
+        <v>253.59700000000001</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2.4291E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.94656499999999999</v>
+      </c>
+      <c r="L20" s="10">
+        <v>42.983353999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="9">
+        <v>375.07299999999998</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2.81E-4</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2.4736000000000001E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.941056</v>
+      </c>
+      <c r="L21" s="10">
+        <v>40.677684999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="9">
+        <v>207.05500000000001</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2.5288000000000001E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.93663600000000002</v>
+      </c>
+      <c r="L22" s="10">
+        <v>39.737543000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="9">
+        <v>225.036</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2.5565000000000001E-2</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.94274500000000006</v>
+      </c>
+      <c r="L23" s="10">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="9">
+        <v>246.417</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="3"/>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="3"/>
-      <c r="C25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="54">
+        <v>523.34699999999998</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="54">
+        <v>260.22300000000001</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="33" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="33" t="s">
+      <c r="E32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1.11E-4</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1.5983000000000001E-2</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.95944499999999999</v>
+      </c>
+      <c r="L32" s="9">
+        <v>66.594944999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="3"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E33" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="9">
+        <v>140.94499999999999</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1.4951000000000001E-2</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.96545000000000003</v>
+      </c>
+      <c r="L33" s="9">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="5">
+        <v>512</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2.4965000000000001E-2</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.94499</v>
+      </c>
+      <c r="L34" s="9">
+        <v>41.174384000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="26"/>
+      <c r="D36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
-      <c r="C37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D39" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="D40" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="12">
+        <v>276.767</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="I48" s="12">
+        <v>1.1E-4</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1.6150999999999999E-2</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0.95687900000000004</v>
+      </c>
+      <c r="L48" s="12">
+        <v>64.647738000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="49"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="49"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="49"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="54" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I56" s="6">
+        <v>7.8200000000000003E-4</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1.3097780000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="8">
+        <v>242.14699999999999</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.1366</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1.2620000000000001E-3</v>
+      </c>
+      <c r="J57" s="10">
+        <v>1.2964929999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="8">
+        <v>423.88099999999997</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1.5709999999999999E-3</v>
+      </c>
+      <c r="J58" s="10">
+        <v>1.281601</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="8">
+        <v>573.63199999999995</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="I59" s="9">
+        <v>2.3479999999999998E-3</v>
+      </c>
+      <c r="J59" s="10">
+        <v>1.256999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="8">
+        <v>774.40700000000004</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I60" s="9">
+        <v>3.1180000000000001E-3</v>
+      </c>
+      <c r="J60" s="10">
+        <v>1.2384729999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="31"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="C72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="G76" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="9"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="2:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -2251,7 +3762,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2268,128 +3779,128 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18"/>
       <c r="C2" s="20">
         <v>512</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="21"/>
       <c r="D5" s="37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="42" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -2397,105 +3908,105 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -2503,25 +4014,25 @@
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="22"/>
       <c r="D18" s="11"/>
@@ -2529,9 +4040,9 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="24" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>9</v>
       </c>
@@ -2551,101 +4062,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="30" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>0</v>
@@ -2663,7 +4174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
@@ -2672,80 +4183,80 @@
         <v>2</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
@@ -2753,89 +4264,89 @@
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
       <c r="D45" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2843,25 +4354,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="49"/>
+    <col min="8" max="11" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2878,178 +4389,176 @@
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
       <c r="C3" s="20">
         <v>512</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="49">
+        <v>151</v>
+      </c>
+      <c r="I3" s="45">
         <f>433/512</f>
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="49">
+        <v>143</v>
+      </c>
+      <c r="I4" s="45">
         <f>436/512</f>
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="49">
+        <v>158</v>
+      </c>
+      <c r="I5" s="45">
         <f>435/512</f>
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="21"/>
       <c r="D6" s="37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="49">
+        <v>166</v>
+      </c>
+      <c r="I6" s="45">
         <f>432/512</f>
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="49">
+        <v>168</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="45">
         <f>433/512</f>
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="36"/>
       <c r="D8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="49">
+        <v>174</v>
+      </c>
+      <c r="I8" s="45">
         <f>434/512</f>
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="36"/>
       <c r="D9" s="42" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="49">
+        <v>174</v>
+      </c>
+      <c r="I9" s="45">
         <f>439/512</f>
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -3057,123 +4566,123 @@
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="36" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="36"/>
       <c r="D15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -3181,90 +4690,90 @@
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
       <c r="H17" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="36" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="49">
+        <v>174</v>
+      </c>
+      <c r="I18" s="45">
         <v>0.83203125</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="45">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="K18" s="49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K18" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="22"/>
       <c r="D19" s="11" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="14.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="53"/>
+        <v>209</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="53"/>
+    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="53"/>
+    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
@@ -3284,107 +4793,107 @@
         <v>6</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="29" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="30" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>193</v>
+      </c>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="50">
+        <v>195</v>
+      </c>
+      <c r="H31" s="46">
         <v>0.3639</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="11" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="51">
+        <v>198</v>
+      </c>
+      <c r="H32" s="47">
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>0</v>
@@ -3401,11 +4910,11 @@
       <c r="G38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H38" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>7</v>
@@ -3414,63 +4923,63 @@
         <v>2</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="29"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
@@ -3479,10 +4988,10 @@
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>2</v>
@@ -3492,7 +5001,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -3503,44 +5012,44 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
     </row>
-    <row r="48" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="49" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
     </row>
-    <row r="50" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3549,33 +5058,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="115.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <f>16470</f>
@@ -3585,12 +5094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>7990</v>
@@ -3599,12 +5108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <f>4950*2</f>
@@ -3614,12 +5123,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>5678</v>
@@ -3628,12 +5137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>6990</v>
@@ -3642,23 +5151,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D8">
         <v>3790</v>
@@ -3667,12 +5176,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>3095</v>
@@ -3681,13 +5190,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>5390</v>
@@ -3696,9 +5205,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <v>3690</v>
@@ -3707,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>SUM(D2:D12)</f>
         <v>62993</v>
@@ -3720,32 +5229,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>9700</v>
@@ -3754,12 +5263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>6990</v>
@@ -3768,12 +5277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <f>4950*2</f>
@@ -3783,12 +5292,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>5678</v>
@@ -3797,12 +5306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>6990</v>
@@ -3811,20 +5320,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>3790</v>
@@ -3833,12 +5342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D10">
         <v>3095</v>
@@ -3847,12 +5356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>5390</v>
@@ -3861,20 +5370,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>3690</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUM(D3:D13)</f>
         <v>55223</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B7325-B222-4BE2-A439-0AFD9D9994FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="webdocs" sheetId="3" r:id="rId2"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="416">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4*256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Find:186, TP:32, FP:224</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>Find:188, TP:28, FP:228</t>
   </si>
   <si>
-    <t>0.000110</t>
-  </si>
-  <si>
     <t>Find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,9 +585,6 @@
     <t>Find:612, TP:67, FP:957</t>
   </si>
   <si>
-    <t>0.000726</t>
-  </si>
-  <si>
     <t>11296 bytes=Top:9024 bytes, Sketch:2048 bytes, Sketch_head:224 bytes.</t>
   </si>
   <si>
@@ -609,21 +594,12 @@
     <t>Find:618, TP:75, FP:949</t>
   </si>
   <si>
-    <t>0.000723</t>
-  </si>
-  <si>
     <t>13568 bytes=Top:9024 bytes, Sketch:4096 bytes, Sketch_head:448 bytes.</t>
   </si>
   <si>
     <t>Find:606, TP:79, FP:945</t>
   </si>
   <si>
-    <t>0.000740</t>
-  </si>
-  <si>
-    <t>0.040640</t>
-  </si>
-  <si>
     <t>hyperloglog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,21 +633,6 @@
     <t>0.6875</t>
   </si>
   <si>
-    <t>0.000273</t>
-  </si>
-  <si>
-    <t>0.000274</t>
-  </si>
-  <si>
-    <t>0.024014</t>
-  </si>
-  <si>
-    <t>0.939715</t>
-  </si>
-  <si>
-    <t>40.525954</t>
-  </si>
-  <si>
     <t>294.376</t>
   </si>
   <si>
@@ -684,21 +645,9 @@
     <t>Find:191, TP:24, FP:232</t>
   </si>
   <si>
-    <t>0.015444</t>
-  </si>
-  <si>
-    <t>0.960124</t>
-  </si>
-  <si>
-    <t>65.605229</t>
-  </si>
-  <si>
     <t>4272 bytes=Top-512 with size 4272 bytes.</t>
   </si>
   <si>
-    <t>191.570</t>
-  </si>
-  <si>
     <t>Find:73, TP:15, FP:497</t>
   </si>
   <si>
@@ -733,9 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>153.810</t>
-  </si>
-  <si>
     <t>0.7344</t>
   </si>
   <si>
@@ -757,9 +703,6 @@
     <t>Find:356, TP:28, FP:484</t>
   </si>
   <si>
-    <t>0.000278</t>
-  </si>
-  <si>
     <t>5408 bytes=Top:4272 bytes, Sketch:1024 bytes, Sketch_head:112 bytes.</t>
   </si>
   <si>
@@ -781,27 +724,6 @@
     <t>Find:353, TP:46, FP:466</t>
   </si>
   <si>
-    <t>0.024533</t>
-  </si>
-  <si>
-    <t>0.940231</t>
-  </si>
-  <si>
-    <t>40.237515</t>
-  </si>
-  <si>
-    <t>0.000111</t>
-  </si>
-  <si>
-    <t>0.015983</t>
-  </si>
-  <si>
-    <t>0.959445</t>
-  </si>
-  <si>
-    <t>66.594945</t>
-  </si>
-  <si>
     <t>Find:352, TP:41, FP:471</t>
   </si>
   <si>
@@ -811,12 +733,6 @@
     <t>10160 bytes=Top:4272 bytes, Sketch:4096 bytes, Sketch_head:1792 bytes.</t>
   </si>
   <si>
-    <t>0.6738</t>
-  </si>
-  <si>
-    <t>Find:345, TP:48, FP:464</t>
-  </si>
-  <si>
     <t>16560 bytes=Top-2048 with size 16560 bytes.</t>
   </si>
   <si>
@@ -845,114 +761,27 @@
     <t>Find:344, TP:44, FP:468</t>
   </si>
   <si>
-    <t>0.000281</t>
-  </si>
-  <si>
-    <t>0.024736</t>
-  </si>
-  <si>
-    <t>0.941056</t>
-  </si>
-  <si>
-    <t>40.677685</t>
-  </si>
-  <si>
     <t>12912 bytes=Top:4272 bytes, Sketch:8192 bytes, Sketch_head:448 bytes.</t>
   </si>
   <si>
     <t>Find:350, TP:67, FP:445</t>
   </si>
   <si>
-    <t>0.000269</t>
-  </si>
-  <si>
-    <t>0.022966</t>
-  </si>
-  <si>
-    <t>0.943981</t>
-  </si>
-  <si>
-    <t>41.224939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.774 </t>
-  </si>
-  <si>
-    <t>0.000282</t>
-  </si>
-  <si>
-    <t>0.025288</t>
-  </si>
-  <si>
-    <t>0.936636</t>
-  </si>
-  <si>
-    <t>39.737543</t>
-  </si>
-  <si>
-    <t>340.143</t>
-  </si>
-  <si>
     <t>0.5977</t>
   </si>
   <si>
-    <t>0.040744</t>
-  </si>
-  <si>
-    <t>0.916848</t>
-  </si>
-  <si>
-    <t>24.330232</t>
-  </si>
-  <si>
-    <t>0.000289</t>
-  </si>
-  <si>
-    <t>0.025565</t>
-  </si>
-  <si>
     <t>33928 bytes=Top-4096 with size 33928 bytes.</t>
   </si>
   <si>
-    <t xml:space="preserve">1856.348 </t>
-  </si>
-  <si>
     <t>Find:663, TP:103, FP:3993</t>
   </si>
   <si>
     <t>0.1619</t>
   </si>
   <si>
-    <t>0.006221</t>
-  </si>
-  <si>
-    <t>1.202578</t>
-  </si>
-  <si>
-    <t>330.345</t>
-  </si>
-  <si>
-    <t>0.040447</t>
-  </si>
-  <si>
-    <t>0.910852</t>
-  </si>
-  <si>
-    <t>24.325042</t>
-  </si>
-  <si>
-    <t>235.702</t>
-  </si>
-  <si>
     <t>0.5918</t>
   </si>
   <si>
-    <t>0.919504</t>
-  </si>
-  <si>
-    <t>25.240195</t>
-  </si>
-  <si>
     <t>11184 bytes=Top:9024 bytes, Sketch:2048 bytes, Sketch_head:112 bytes.</t>
   </si>
   <si>
@@ -962,21 +791,6 @@
     <t>Find:610, TP:65, FP:959</t>
   </si>
   <si>
-    <t>0.000737</t>
-  </si>
-  <si>
-    <t>0.041462</t>
-  </si>
-  <si>
-    <t>0.915724</t>
-  </si>
-  <si>
-    <t>24.156463</t>
-  </si>
-  <si>
-    <t>281.471</t>
-  </si>
-  <si>
     <t>320.545</t>
   </si>
   <si>
@@ -1378,13 +1192,198 @@
   </si>
   <si>
     <t>0.4730</t>
+  </si>
+  <si>
+    <t>11184 bytes=Top:9024 bytes, Sketch:2048 bytes, Sketch_head:112 bytes</t>
+  </si>
+  <si>
+    <t>0.5889</t>
+  </si>
+  <si>
+    <t>Find:603, TP:95, FP:929</t>
+  </si>
+  <si>
+    <t>0.6104</t>
+  </si>
+  <si>
+    <t>Find:625, TP:96, FP:928</t>
+  </si>
+  <si>
+    <t>0.6338</t>
+  </si>
+  <si>
+    <t>Find:649, TP:171, FP:853</t>
+  </si>
+  <si>
+    <t>91.161</t>
+  </si>
+  <si>
+    <t>208.011</t>
+  </si>
+  <si>
+    <t>8*1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289.288</t>
+  </si>
+  <si>
+    <t>278.320</t>
+  </si>
+  <si>
+    <t>275.481</t>
+  </si>
+  <si>
+    <t>204.813</t>
+  </si>
+  <si>
+    <t>190.768</t>
+  </si>
+  <si>
+    <t>225.992</t>
+  </si>
+  <si>
+    <t>126.373</t>
+  </si>
+  <si>
+    <t>1.229167</t>
+  </si>
+  <si>
+    <t>151.703</t>
+  </si>
+  <si>
+    <t>1.208041</t>
+  </si>
+  <si>
+    <t>191.689</t>
+  </si>
+  <si>
+    <t>1.166920</t>
+  </si>
+  <si>
+    <t>16*128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304.325</t>
+  </si>
+  <si>
+    <t>219.220</t>
+  </si>
+  <si>
+    <t>13360 bytes=Top:4272 bytes, Sketch:8192 bytes, Sketch_head:896 bytes.</t>
+  </si>
+  <si>
+    <t>0.7031</t>
+  </si>
+  <si>
+    <t>Find:360, TP:60, FP:452</t>
+  </si>
+  <si>
+    <t>1.099439</t>
+  </si>
+  <si>
+    <t>174.090</t>
+  </si>
+  <si>
+    <t>117.101</t>
+  </si>
+  <si>
+    <t>1.209329</t>
+  </si>
+  <si>
+    <t>16*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163.277</t>
+  </si>
+  <si>
+    <t>1.174691</t>
+  </si>
+  <si>
+    <t>268.585</t>
+  </si>
+  <si>
+    <t>124.276</t>
+  </si>
+  <si>
+    <t>234.868</t>
+  </si>
+  <si>
+    <t>21552 bytes=Top:4272 bytes, Sketch:16384 bytes, Sketch_head:896 bytes.</t>
+  </si>
+  <si>
+    <t>0.7070</t>
+  </si>
+  <si>
+    <t>Find:362, TP:75, FP:437</t>
+  </si>
+  <si>
+    <t>467.024</t>
+  </si>
+  <si>
+    <t>141.548</t>
+  </si>
+  <si>
+    <t>159.269</t>
+  </si>
+  <si>
+    <t>646.896</t>
+  </si>
+  <si>
+    <t>168.141</t>
+  </si>
+  <si>
+    <t>138.780</t>
+  </si>
+  <si>
+    <t>157.095</t>
+  </si>
+  <si>
+    <t>193.366</t>
+  </si>
+  <si>
+    <t>Precision (Top-k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295.545</t>
+  </si>
+  <si>
+    <t>186.426</t>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARE % (All)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1363.784</t>
+  </si>
+  <si>
+    <t>ARE% (Top)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188.904</t>
+  </si>
+  <si>
+    <t>261.397</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,6 +1413,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1423,7 +1437,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1834,7 +1848,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1850,7 +1864,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1863,7 +1877,16 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1872,7 +1895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1923,10 +1946,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,37 +2244,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="23.92578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.35546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -2245,30 +2291,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="56" t="s">
         <v>170</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="28">
         <v>512</v>
@@ -2277,1581 +2323,1348 @@
         <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="9">
-        <v>201.08699999999999</v>
+        <v>195</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>374</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2.9399999999999999E-4</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2.5923999999999999E-2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0.94013000000000002</v>
-      </c>
-      <c r="L2" s="9">
-        <v>39.927731999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="52" t="s">
+        <v>187</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="9">
-        <v>183.86199999999999</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="9">
-        <v>2.7799999999999998E-4</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2.4532999999999999E-2</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0.94023100000000004</v>
-      </c>
-      <c r="L3" s="10">
-        <v>40.237515000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="9">
-        <v>244.09200000000001</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2.4291E-2</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0.94656499999999999</v>
-      </c>
-      <c r="L4" s="10">
-        <v>42.983353999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>149</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="9">
-        <v>446.61599999999999</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>230</v>
+        <v>383</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>385</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>384</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>236</v>
+        <v>388</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="9">
-        <v>223.15299999999999</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>239</v>
+        <v>211</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0.94274500000000006</v>
-      </c>
-      <c r="L7" s="10">
-        <v>40.766568999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>212</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>245</v>
+        <v>394</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="9">
-        <v>438.5</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="I10" s="9">
-        <v>7.2599999999999997E-4</v>
-      </c>
-      <c r="J10" s="9">
-        <v>4.0744000000000002E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.916848</v>
-      </c>
-      <c r="L10" s="10">
-        <v>24.330231999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>164</v>
+        <v>368</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>216</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="9">
-        <v>151.25299999999999</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="4"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="9">
-        <v>154.83099999999999</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1.08E-4</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1.4951000000000001E-2</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0.96545000000000003</v>
-      </c>
-      <c r="L17" s="9">
-        <v>65.475786999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="5">
-        <v>512</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="9">
-        <v>199.232</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.65039999999999998</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2.9399999999999999E-4</v>
-      </c>
-      <c r="J18" s="9">
-        <v>2.5923999999999999E-2</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0.94013000000000002</v>
-      </c>
-      <c r="L18" s="9">
-        <v>39.927731999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="F19" s="9">
-        <v>199.79400000000001</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>218</v>
+        <v>129.52699999999999</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="9">
-        <v>253.59700000000001</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.6875</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="9">
-        <v>2.4291E-2</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.94656499999999999</v>
-      </c>
-      <c r="L20" s="10">
-        <v>42.983353999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="9">
-        <v>375.07299999999998</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2.81E-4</v>
-      </c>
-      <c r="J21" s="9">
-        <v>2.4736000000000001E-2</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0.941056</v>
-      </c>
-      <c r="L21" s="10">
-        <v>40.677684999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>188</v>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+    </row>
+    <row r="21" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="5">
+        <v>512</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="62">
+        <v>0.37936910156249998</v>
+      </c>
+      <c r="J21" s="62">
+        <v>33.451580234375001</v>
+      </c>
+      <c r="K21" s="62">
+        <v>0.94013000000000002</v>
+      </c>
+      <c r="L21" s="63">
+        <v>39.927731999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="9">
-        <v>207.05500000000001</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>236</v>
+        <v>199</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2.8200000000000002E-4</v>
-      </c>
-      <c r="J22" s="9">
-        <v>2.5288000000000001E-2</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0.93663600000000002</v>
-      </c>
-      <c r="L22" s="10">
-        <v>39.737543000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+      <c r="I22" s="58">
+        <v>0.35872316406249999</v>
+      </c>
+      <c r="J22" s="58">
+        <v>31.656674042968749</v>
+      </c>
+      <c r="K22" s="58">
+        <v>0.94023100000000004</v>
+      </c>
+      <c r="L22" s="59">
+        <v>40.237515000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="25" t="s">
-        <v>3</v>
+      <c r="C23" s="24"/>
+      <c r="D23" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="9">
-        <v>225.036</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>239</v>
+        <v>149</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>202</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I23" s="9">
-        <v>2.8899999999999998E-4</v>
-      </c>
-      <c r="J23" s="9">
-        <v>2.5565000000000001E-2</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0.94274500000000006</v>
-      </c>
-      <c r="L23" s="10">
-        <v>40.766568999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>172</v>
+      </c>
+      <c r="I23" s="58">
+        <v>0.35227130859375005</v>
+      </c>
+      <c r="J23" s="58">
+        <v>31.34440423828125</v>
+      </c>
+      <c r="K23" s="58">
+        <v>0.94656499999999999</v>
+      </c>
+      <c r="L23" s="59">
+        <v>42.983353999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="25" t="s">
-        <v>55</v>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="9">
-        <v>246.417</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>245</v>
+        <v>208</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+      <c r="I24" s="58">
+        <v>0.36388464843750001</v>
+      </c>
+      <c r="J24" s="58">
+        <v>32.630904218750004</v>
+      </c>
+      <c r="K24" s="58">
+        <v>0.93663600000000002</v>
+      </c>
+      <c r="L24" s="59">
+        <v>39.737543000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="58">
+        <v>0.37291724609374999</v>
+      </c>
+      <c r="J25" s="58">
+        <v>32.988337011718748</v>
+      </c>
+      <c r="K25" s="58">
+        <v>0.94274500000000006</v>
+      </c>
+      <c r="L25" s="59">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
-      <c r="C26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>38</v>
+      <c r="C26" s="8"/>
+      <c r="D26" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>160</v>
+        <v>406</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+      <c r="I26" s="58">
+        <v>0.34710982421874997</v>
+      </c>
+      <c r="J26" s="58">
+        <v>29.6346625390625</v>
+      </c>
+      <c r="K26" s="58">
+        <v>0.94398099999999996</v>
+      </c>
+      <c r="L26" s="59">
+        <v>41.224938999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="51">
-        <v>523.34699999999998</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>216</v>
+      </c>
+      <c r="I28" s="58">
+        <f>0.430466</f>
+        <v>0.43046600000000002</v>
+      </c>
+      <c r="J28" s="58">
+        <f>24.142578</f>
+        <v>24.142578</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0.916848</v>
+      </c>
+      <c r="L28" s="59">
+        <v>24.330231999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="51">
-        <v>260.22300000000001</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>278</v>
+        <v>159</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>160</v>
+      </c>
+      <c r="I29" s="58">
+        <v>0.42860900000000002</v>
+      </c>
+      <c r="J29" s="58">
+        <v>23.966797</v>
+      </c>
+      <c r="K29" s="58">
+        <v>0.91085199999999999</v>
+      </c>
+      <c r="L29" s="59">
+        <v>24.325042</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="58">
+        <v>0.43859799999999999</v>
+      </c>
+      <c r="J30" s="58">
+        <v>24.081054999999999</v>
+      </c>
+      <c r="K30" s="58">
+        <v>0.91950399999999999</v>
+      </c>
+      <c r="L30" s="59">
+        <v>25.240195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="3"/>
-      <c r="C32" s="8" t="s">
+      <c r="E33" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1.11E-4</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1.5983000000000001E-2</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0.95944499999999999</v>
-      </c>
-      <c r="L32" s="9">
-        <v>66.594944999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="4"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="9">
-        <v>140.94499999999999</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="9">
-        <v>1.08E-4</v>
-      </c>
-      <c r="J33" s="9">
-        <v>1.4951000000000001E-2</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0.96545000000000003</v>
-      </c>
-      <c r="L33" s="9">
-        <v>65.475786999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="5">
-        <v>512</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="9">
-        <v>2.4965000000000001E-2</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0.94499</v>
-      </c>
-      <c r="L34" s="9">
-        <v>41.174384000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="48"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="3"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="28">
+        <v>512</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+    </row>
+    <row r="38" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="59"/>
+    </row>
+    <row r="39" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="25" t="s">
+      <c r="C39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="12">
+        <v>276.767</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="25" t="s">
+      <c r="E40" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
+    </row>
+    <row r="41" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="46"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="46"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B43" s="46"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="45" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46"/>
+      <c r="N46" s="55"/>
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="F47" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="3"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="3"/>
-      <c r="C42" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="62">
+        <v>0.92674636718750003</v>
+      </c>
+      <c r="J47" s="63">
+        <v>1552.2148380078127</v>
+      </c>
+      <c r="L47" s="43"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="55"/>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.1366</v>
+      </c>
+      <c r="I48" s="58">
+        <v>0.93383382926829284</v>
+      </c>
+      <c r="J48" s="59">
+        <v>959.35738732926814</v>
+      </c>
+      <c r="L48" s="43"/>
+      <c r="N48" s="55"/>
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="C49" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="I49" s="58">
+        <v>0.93089420898437492</v>
+      </c>
+      <c r="J49" s="59">
+        <v>759.41117067382811</v>
+      </c>
+      <c r="L49" s="43"/>
+      <c r="N49" s="55"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="I50" s="58">
+        <v>0.92753643229166649</v>
+      </c>
+      <c r="J50" s="59">
+        <v>496.55552293619786</v>
+      </c>
+      <c r="L50" s="43"/>
+      <c r="N50" s="55"/>
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="C51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I51" s="58">
+        <v>0.923783623046875</v>
+      </c>
+      <c r="J51" s="59">
+        <v>366.92786240722654</v>
+      </c>
+      <c r="L51" s="43"/>
+      <c r="N51" s="55"/>
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="64">
+        <v>0.92156156494140629</v>
+      </c>
+      <c r="J52" s="65">
+        <v>178.14654615722654</v>
+      </c>
+      <c r="L52" s="43"/>
+      <c r="N52" s="55"/>
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L53"/>
+      <c r="N53" s="55"/>
+      <c r="R53"/>
+    </row>
+    <row r="55" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="12">
-        <v>276.767</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="I48" s="12">
-        <v>1.1E-4</v>
-      </c>
-      <c r="J48" s="12">
-        <v>1.6150999999999999E-2</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0.95687900000000004</v>
-      </c>
-      <c r="L48" s="12">
-        <v>64.647738000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="4"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12" t="s">
+      <c r="E57" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="46"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B51" s="46"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B52" s="46"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="54" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="55" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="3"/>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I56" s="6">
-        <v>7.8200000000000003E-4</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1.3097780000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="3"/>
-      <c r="C57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="8">
-        <v>242.14699999999999</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.1366</v>
-      </c>
-      <c r="I57" s="9">
-        <v>1.2620000000000001E-3</v>
-      </c>
-      <c r="J57" s="10">
-        <v>1.2964929999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="3"/>
-      <c r="C58" s="24" t="s">
+      <c r="E58" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="59"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="59"/>
+    </row>
+    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="59"/>
+    </row>
+    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="59"/>
+    </row>
+    <row r="62" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="59"/>
+    </row>
+    <row r="63" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" s="8">
-        <v>423.88099999999997</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.15429999999999999</v>
-      </c>
-      <c r="I58" s="9">
-        <v>1.5709999999999999E-3</v>
-      </c>
-      <c r="J58" s="10">
-        <v>1.281601</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="3"/>
-      <c r="C59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="8">
-        <v>573.63199999999995</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="I59" s="9">
-        <v>2.3479999999999998E-3</v>
-      </c>
-      <c r="J59" s="10">
-        <v>1.256999</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="3"/>
-      <c r="C60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="F60" s="8">
-        <v>774.40700000000004</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I60" s="9">
-        <v>3.1180000000000001E-3</v>
-      </c>
-      <c r="J60" s="10">
-        <v>1.2384729999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="4"/>
-      <c r="C61" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="65" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="59"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="59"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="3"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>22</v>
+      <c r="C66" s="8"/>
+      <c r="D66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="59"/>
+    </row>
+    <row r="67" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="3"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="3"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="3"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="3"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="3"/>
-      <c r="C72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="3"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="3"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="3"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="4"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="10"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="I67" s="59"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3860,26 +3673,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -3893,30 +3706,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C2" s="28">
         <v>512</v>
@@ -3925,232 +3738,232 @@
         <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>364</v>
+        <v>309</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>304</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>364</v>
+        <v>302</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>304</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>357</v>
+        <v>296</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>297</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>291</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>343</v>
+        <v>281</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>283</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>336</v>
+        <v>274</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
@@ -4159,186 +3972,186 @@
         <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>295</v>
+        <v>233</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>235</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>304</v>
+        <v>242</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>286</v>
+        <v>224</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>226</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>312</v>
+        <v>250</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>320</v>
+        <v>257</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>329</v>
+        <v>266</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>269</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>43</v>
@@ -4347,64 +4160,64 @@
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>385</v>
+        <v>323</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>325</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C18" s="5">
         <v>512</v>
@@ -4413,160 +4226,160 @@
         <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>364</v>
+        <v>338</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>304</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="24"/>
       <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="48"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="48"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
@@ -4575,166 +4388,166 @@
         <v>38</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="48"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+        <v>162</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="48"/>
+        <v>221</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="48"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="48"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>402</v>
+        <v>343</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>342</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>346</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="8" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>412</v>
+        <v>350</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="L33" s="48" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>355</v>
+      </c>
+      <c r="L33" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="8" t="s">
         <v>43</v>
@@ -4743,24 +4556,24 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="48"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -4770,9 +4583,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="40" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>9</v>
       </c>
@@ -4792,26 +4605,26 @@
         <v>6</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="5" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>52</v>
@@ -4826,17 +4639,17 @@
         <v>21.869140999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="28" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>53</v>
@@ -4851,17 +4664,17 @@
         <v>16.215854</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="24" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>46</v>
@@ -4876,17 +4689,17 @@
         <v>11.936522999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>50</v>
@@ -4901,17 +4714,17 @@
         <v>7.9544269999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>54</v>
@@ -4926,20 +4739,20 @@
         <v>6.0200199999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="11" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="H46">
         <v>1.54E-2</v>
@@ -4951,9 +4764,9 @@
         <v>5.0754390000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="52" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>15</v>
       </c>
@@ -4973,7 +4786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
       <c r="C53" s="5" t="s">
         <v>7</v>
@@ -4991,7 +4804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
       <c r="D54" s="31" t="s">
@@ -5007,7 +4820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -5023,7 +4836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
       <c r="D56" s="10" t="s">
@@ -5039,7 +4852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
@@ -5055,7 +4868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10"/>
@@ -5063,7 +4876,7 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>11</v>
@@ -5081,7 +4894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
@@ -5097,7 +4910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
       <c r="D61" s="10" t="s">
@@ -5113,7 +4926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
@@ -5129,7 +4942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="13" t="s">
@@ -5145,7 +4958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5154,25 +4967,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="43"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5186,28 +4999,28 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="19">
         <v>512</v>
@@ -5229,7 +5042,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
       <c r="D4" s="35" t="s">
@@ -5249,7 +5062,7 @@
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="35" t="s">
@@ -5272,7 +5085,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="20"/>
       <c r="D6" s="35" t="s">
@@ -5295,7 +5108,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
@@ -5318,7 +5131,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="34"/>
       <c r="D8" s="24" t="s">
@@ -5341,7 +5154,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="34"/>
       <c r="D9" s="40" t="s">
@@ -5364,7 +5177,7 @@
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
@@ -5372,7 +5185,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="34" t="s">
         <v>35</v>
@@ -5393,7 +5206,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
@@ -5412,7 +5225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
@@ -5431,7 +5244,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="s">
@@ -5450,7 +5263,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="34"/>
       <c r="D15" s="24" t="s">
@@ -5469,7 +5282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35" t="s">
@@ -5488,7 +5301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -5499,7 +5312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="34" t="s">
         <v>43</v>
@@ -5529,7 +5342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="11" t="s">
@@ -5554,7 +5367,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5562,7 +5375,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5570,7 +5383,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="46"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5578,8 +5391,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
@@ -5602,7 +5415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
@@ -5619,7 +5432,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="27" t="s">
         <v>86</v>
@@ -5636,7 +5449,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="22" t="s">
         <v>11</v>
@@ -5653,7 +5466,7 @@
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="20" t="s">
         <v>18</v>
@@ -5672,7 +5485,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="21" t="s">
         <v>13</v>
@@ -5691,13 +5504,13 @@
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>15</v>
       </c>
@@ -5720,7 +5533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>7</v>
@@ -5735,7 +5548,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="31" t="s">
@@ -5748,7 +5561,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -5761,7 +5574,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
@@ -5774,7 +5587,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
@@ -5785,7 +5598,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
@@ -5794,7 +5607,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
         <v>11</v>
@@ -5807,7 +5620,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -5818,7 +5631,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
@@ -5829,7 +5642,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
@@ -5840,7 +5653,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13" t="s">
@@ -5855,10 +5668,123 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D148D51-01AF-405F-9AB9-01F1EEE34FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Caida_0" sheetId="4" r:id="rId3"/>
     <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="396">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,49 +1221,16 @@
     <t>Find:649, TP:171, FP:853</t>
   </si>
   <si>
-    <t>91.161</t>
-  </si>
-  <si>
-    <t>208.011</t>
-  </si>
-  <si>
     <t>8*1024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>289.288</t>
-  </si>
-  <si>
-    <t>278.320</t>
-  </si>
-  <si>
-    <t>275.481</t>
-  </si>
-  <si>
-    <t>204.813</t>
-  </si>
-  <si>
-    <t>190.768</t>
-  </si>
-  <si>
-    <t>225.992</t>
-  </si>
-  <si>
-    <t>126.373</t>
-  </si>
-  <si>
     <t>1.229167</t>
   </si>
   <si>
-    <t>151.703</t>
-  </si>
-  <si>
     <t>1.208041</t>
   </si>
   <si>
-    <t>191.689</t>
-  </si>
-  <si>
     <t>1.166920</t>
   </si>
   <si>
@@ -1268,9 +1241,6 @@
     <t>304.325</t>
   </si>
   <si>
-    <t>219.220</t>
-  </si>
-  <si>
     <t>13360 bytes=Top:4272 bytes, Sketch:8192 bytes, Sketch_head:896 bytes.</t>
   </si>
   <si>
@@ -1296,64 +1266,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>163.277</t>
-  </si>
-  <si>
     <t>1.174691</t>
   </si>
   <si>
     <t>268.585</t>
   </si>
   <si>
-    <t>124.276</t>
-  </si>
-  <si>
-    <t>234.868</t>
-  </si>
-  <si>
     <t>21552 bytes=Top:4272 bytes, Sketch:16384 bytes, Sketch_head:896 bytes.</t>
   </si>
   <si>
-    <t>0.7070</t>
-  </si>
-  <si>
     <t>Find:362, TP:75, FP:437</t>
   </si>
   <si>
     <t>467.024</t>
   </si>
   <si>
-    <t>141.548</t>
-  </si>
-  <si>
-    <t>159.269</t>
-  </si>
-  <si>
     <t>646.896</t>
   </si>
   <si>
-    <t>168.141</t>
-  </si>
-  <si>
-    <t>138.780</t>
-  </si>
-  <si>
-    <t>157.095</t>
-  </si>
-  <si>
-    <t>193.366</t>
-  </si>
-  <si>
     <t>Precision (Top-k)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>295.545</t>
-  </si>
-  <si>
-    <t>186.426</t>
-  </si>
-  <si>
     <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,19 +1303,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>188.904</t>
-  </si>
-  <si>
-    <t>261.397</t>
+    <t>58.355</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>70.975</t>
+  </si>
+  <si>
+    <t>13344 bytes =Top:9024+ Sketch:4096+ Sk_head:224</t>
+  </si>
+  <si>
+    <t>171.546</t>
+  </si>
+  <si>
+    <t>138.28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="0.0000_);[Red]\(0.0000\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1895,7 +1842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1955,21 +1902,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2244,40 +2233,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.92578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="11.78515625" style="67" customWidth="1"/>
+    <col min="10" max="10" width="10.35546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.640625" style="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.640625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -2290,29 +2279,29 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="70" t="s">
         <v>184</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="J1" s="56" t="s">
         <v>170</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="51" t="s">
         <v>164</v>
       </c>
@@ -2325,8 +2314,8 @@
       <c r="E2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>374</v>
+      <c r="F2" s="71">
+        <v>88.957999999999998</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>196</v>
@@ -2334,12 +2323,20 @@
       <c r="H2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="58">
+        <v>4.3451999999999998E-2</v>
+      </c>
+      <c r="J2" s="58">
+        <v>5.3554690000000003</v>
+      </c>
+      <c r="K2" s="58">
+        <v>0.99920200000000003</v>
+      </c>
+      <c r="L2" s="58">
+        <v>1.2291669999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="52" t="s">
         <v>187</v>
       </c>
@@ -2350,8 +2347,8 @@
       <c r="E3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>376</v>
+      <c r="F3" s="71">
+        <v>98.066000000000003</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>201</v>
@@ -2359,12 +2356,20 @@
       <c r="H3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="58">
+        <v>4.6648000000000002E-2</v>
+      </c>
+      <c r="J3" s="58">
+        <v>5.8554690000000003</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0.98161799999999999</v>
+      </c>
+      <c r="L3" s="59">
+        <v>1.2080409999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
@@ -2373,8 +2378,8 @@
       <c r="E4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>378</v>
+      <c r="F4" s="72" t="s">
+        <v>395</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>202</v>
@@ -2382,35 +2387,51 @@
       <c r="H4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="58">
+        <v>4.8258000000000002E-2</v>
+      </c>
+      <c r="J4" s="58">
+        <v>5.9511719999999997</v>
+      </c>
+      <c r="K4" s="58">
+        <v>0.94327300000000003</v>
+      </c>
+      <c r="L4" s="59">
+        <v>1.16692</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>382</v>
+        <v>371</v>
+      </c>
+      <c r="F5" s="72">
+        <v>159.54900000000001</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+      <c r="I5" s="58">
+        <v>4.3908000000000003E-2</v>
+      </c>
+      <c r="J5" s="58">
+        <v>5.3417969999999997</v>
+      </c>
+      <c r="K5" s="58">
+        <v>0.87922400000000001</v>
+      </c>
+      <c r="L5" s="59">
+        <v>1.0994390000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -2419,8 +2440,8 @@
       <c r="E6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>388</v>
+      <c r="F6" s="72" t="s">
+        <v>376</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>210</v>
@@ -2428,12 +2449,20 @@
       <c r="H6" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="58">
+        <v>4.8815999999999998E-2</v>
+      </c>
+      <c r="J6" s="58">
+        <v>6.046875</v>
+      </c>
+      <c r="K6" s="58">
+        <v>0.98258800000000002</v>
+      </c>
+      <c r="L6" s="59">
+        <v>1.2093290000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
@@ -2442,8 +2471,8 @@
       <c r="E7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>391</v>
+      <c r="F7" s="71">
+        <v>106.562</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>213</v>
@@ -2451,12 +2480,20 @@
       <c r="H7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="58">
+        <v>4.3317000000000001E-2</v>
+      </c>
+      <c r="J7" s="58">
+        <v>5.7050780000000003</v>
+      </c>
+      <c r="K7" s="58">
+        <v>0.94822099999999998</v>
+      </c>
+      <c r="L7" s="59">
+        <v>1.1746909999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
@@ -2465,8 +2502,8 @@
       <c r="E8" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>394</v>
+      <c r="F8" s="71">
+        <v>104.303</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>215</v>
@@ -2474,40 +2511,56 @@
       <c r="H8" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="58">
+        <v>3.7630999999999998E-2</v>
+      </c>
+      <c r="J8" s="58">
+        <v>4.34375</v>
+      </c>
+      <c r="K8" s="58">
+        <v>0.877745</v>
+      </c>
+      <c r="L8" s="59">
+        <v>1.0981700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>395</v>
+        <v>381</v>
+      </c>
+      <c r="F9" s="71">
+        <v>130.648</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="I9" s="58">
+        <v>3.5654999999999999E-2</v>
+      </c>
+      <c r="J9" s="58">
+        <v>4.0117190000000003</v>
+      </c>
+      <c r="K9" s="58">
+        <v>0.74616899999999997</v>
+      </c>
+      <c r="L9" s="59">
+        <v>0.95852899999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="47"/>
       <c r="H10" s="9"/>
       <c r="I10" s="58"/>
@@ -2515,7 +2568,7 @@
       <c r="K10" s="58"/>
       <c r="L10" s="59"/>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="8" t="s">
         <v>35</v>
@@ -2526,8 +2579,8 @@
       <c r="E11" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>368</v>
+      <c r="F11" s="72">
+        <v>173.756</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>158</v>
@@ -2535,12 +2588,20 @@
       <c r="H11" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="58">
+        <v>5.9753000000000001E-2</v>
+      </c>
+      <c r="J11" s="58">
+        <v>4.2197269999999998</v>
+      </c>
+      <c r="K11" s="58">
+        <v>1.0160670000000001</v>
+      </c>
+      <c r="L11" s="59">
+        <v>1.219204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -2549,8 +2610,8 @@
       <c r="E12" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>369</v>
+      <c r="F12" s="72">
+        <v>181.636</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>161</v>
@@ -2558,12 +2619,20 @@
       <c r="H12" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="58">
+        <v>6.3125000000000001E-2</v>
+      </c>
+      <c r="J12" s="58">
+        <v>4.4443359999999998</v>
+      </c>
+      <c r="K12" s="58">
+        <v>1.0052209999999999</v>
+      </c>
+      <c r="L12" s="59">
+        <v>1.207722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -2572,8 +2641,8 @@
       <c r="E13" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>370</v>
+      <c r="F13" s="72">
+        <v>203.096</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>163</v>
@@ -2581,12 +2650,20 @@
       <c r="H13" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="58">
+        <v>5.4815999999999997E-2</v>
+      </c>
+      <c r="J13" s="58">
+        <v>3.9296880000000001</v>
+      </c>
+      <c r="K13" s="58">
+        <v>0.98497100000000004</v>
+      </c>
+      <c r="L13" s="59">
+        <v>1.1861550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
@@ -2595,8 +2672,8 @@
       <c r="E14" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>371</v>
+      <c r="F14" s="72">
+        <v>125.065</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>223</v>
@@ -2604,12 +2681,20 @@
       <c r="H14" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="58">
+        <v>5.9631999999999998E-2</v>
+      </c>
+      <c r="J14" s="58">
+        <v>4.3730469999999997</v>
+      </c>
+      <c r="K14" s="58">
+        <v>1.0068999999999999</v>
+      </c>
+      <c r="L14" s="59">
+        <v>1.209999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="25" t="s">
@@ -2618,8 +2703,8 @@
       <c r="E15" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>372</v>
+      <c r="F15" s="72">
+        <v>185.90600000000001</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>360</v>
@@ -2627,12 +2712,20 @@
       <c r="H15" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="58">
+        <v>4.6205999999999997E-2</v>
+      </c>
+      <c r="J15" s="58">
+        <v>3.4033199999999999</v>
+      </c>
+      <c r="K15" s="58">
+        <v>0.98542099999999999</v>
+      </c>
+      <c r="L15" s="59">
+        <v>1.1859150000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
@@ -2641,8 +2734,8 @@
       <c r="E16" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>373</v>
+      <c r="F16" s="72">
+        <v>190.96600000000001</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>362</v>
@@ -2650,22 +2743,30 @@
       <c r="H16" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="58">
+        <v>5.3649000000000002E-2</v>
+      </c>
+      <c r="J16" s="58">
+        <v>3.598633</v>
+      </c>
+      <c r="K16" s="58">
+        <v>0.93696299999999999</v>
+      </c>
+      <c r="L16" s="59">
+        <v>1.1344110000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>366</v>
+      <c r="F17" s="72">
+        <v>189.285</v>
       </c>
       <c r="G17" s="47" t="s">
         <v>364</v>
@@ -2673,17 +2774,25 @@
       <c r="H17" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="58">
+        <v>4.0030999999999997E-2</v>
+      </c>
+      <c r="J17" s="58">
+        <v>2.5234380000000001</v>
+      </c>
+      <c r="K17" s="58">
+        <v>0.683477</v>
+      </c>
+      <c r="L17" s="59">
+        <v>0.86502199999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="47"/>
       <c r="H18" s="9"/>
       <c r="I18" s="58"/>
@@ -2691,435 +2800,481 @@
       <c r="K18" s="58"/>
       <c r="L18" s="59"/>
     </row>
-    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="9">
-        <v>129.52699999999999</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>188</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
       <c r="K19" s="58"/>
       <c r="L19" s="59"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+    </row>
+    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="72">
+        <v>71.393000000000001</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="58">
+        <v>3.2597000000000001E-2</v>
+      </c>
+      <c r="J20" s="58">
+        <v>7.0898440000000003</v>
+      </c>
+      <c r="K20" s="58">
+        <v>0.95537700000000003</v>
+      </c>
+      <c r="L20" s="59">
+        <v>1.2057370000000001</v>
+      </c>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="F21" s="73">
+        <v>66.057000000000002</v>
+      </c>
+      <c r="G21" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H21" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
-    </row>
-    <row r="21" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="51" t="s">
+      <c r="I21" s="60">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J21" s="60">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K21" s="60">
+        <v>0.90162600000000004</v>
+      </c>
+      <c r="L21" s="61">
+        <v>1.149743</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>512</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F22" s="74">
+        <v>87.600999999999999</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I21" s="62">
-        <v>0.37936910156249998</v>
-      </c>
-      <c r="J21" s="62">
-        <v>33.451580234375001</v>
-      </c>
-      <c r="K21" s="62">
-        <v>0.94013000000000002</v>
-      </c>
-      <c r="L21" s="63">
+      <c r="I22" s="62">
+        <v>4.3451999999999998E-2</v>
+      </c>
+      <c r="J22" s="62">
+        <v>5.3554690000000003</v>
+      </c>
+      <c r="K22" s="62">
+        <v>38.514884000000002</v>
+      </c>
+      <c r="L22" s="63">
         <v>39.927731999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G22" s="47" t="s">
+      <c r="F23" s="72">
+        <v>100.911</v>
+      </c>
+      <c r="G23" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="58">
-        <v>0.35872316406249999</v>
-      </c>
-      <c r="J22" s="58">
-        <v>31.656674042968749</v>
-      </c>
-      <c r="K22" s="58">
-        <v>0.94023100000000004</v>
-      </c>
-      <c r="L22" s="59">
+      <c r="I23" s="58">
+        <v>4.6648000000000002E-2</v>
+      </c>
+      <c r="J23" s="58">
+        <v>5.8554690000000003</v>
+      </c>
+      <c r="K23" s="58">
+        <v>38.810318000000002</v>
+      </c>
+      <c r="L23" s="59">
         <v>40.237515000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="9" t="s">
+    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="F24" s="72">
+        <v>97.301000000000002</v>
+      </c>
+      <c r="G24" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="58">
-        <v>0.35227130859375005</v>
-      </c>
-      <c r="J23" s="58">
-        <v>31.34440423828125</v>
-      </c>
-      <c r="K23" s="58">
-        <v>0.94656499999999999</v>
-      </c>
-      <c r="L23" s="59">
+      <c r="I24" s="58">
+        <v>4.8258000000000002E-2</v>
+      </c>
+      <c r="J24" s="58">
+        <v>5.9511719999999997</v>
+      </c>
+      <c r="K24" s="58">
+        <v>41.467312999999997</v>
+      </c>
+      <c r="L24" s="59">
         <v>42.983353999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="58">
-        <v>0.36388464843750001</v>
-      </c>
-      <c r="J24" s="58">
-        <v>32.630904218750004</v>
-      </c>
-      <c r="K24" s="58">
-        <v>0.93663600000000002</v>
-      </c>
-      <c r="L24" s="59">
-        <v>39.737543000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="25" t="s">
-        <v>3</v>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>405</v>
+        <v>208</v>
+      </c>
+      <c r="F25" s="72">
+        <v>97.653000000000006</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I25" s="58">
-        <v>0.37291724609374999</v>
+        <v>4.8815999999999998E-2</v>
       </c>
       <c r="J25" s="58">
-        <v>32.988337011718748</v>
+        <v>6.046875</v>
       </c>
       <c r="K25" s="58">
-        <v>0.94274500000000006</v>
+        <v>38.334111</v>
       </c>
       <c r="L25" s="59">
-        <v>40.766568999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39.737543000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="25" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>406</v>
+        <v>211</v>
+      </c>
+      <c r="F26" s="72">
+        <v>96.74</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I26" s="58">
-        <v>0.34710982421874997</v>
+        <v>4.3317000000000001E-2</v>
       </c>
       <c r="J26" s="58">
-        <v>29.6346625390625</v>
+        <v>5.7050780000000003</v>
       </c>
       <c r="K26" s="58">
-        <v>0.94398099999999996</v>
+        <v>39.329030000000003</v>
       </c>
       <c r="L26" s="59">
-        <v>41.224938999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="72">
+        <v>130.62799999999999</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="58">
+        <v>3.7630999999999998E-2</v>
+      </c>
+      <c r="J27" s="58">
+        <v>4.34375</v>
+      </c>
+      <c r="K27" s="58">
+        <v>39.770735999999999</v>
+      </c>
+      <c r="L27" s="59">
+        <v>41.224938999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G28" s="47" t="s">
+      <c r="F29" s="72">
+        <v>176.667</v>
+      </c>
+      <c r="G29" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I28" s="58">
-        <f>0.430466</f>
-        <v>0.43046600000000002</v>
-      </c>
-      <c r="J28" s="58">
-        <f>24.142578</f>
-        <v>24.142578</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0.916848</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="I29" s="58">
+        <v>5.9753000000000001E-2</v>
+      </c>
+      <c r="J29" s="58">
+        <v>4.2197269999999998</v>
+      </c>
+      <c r="K29" s="58">
+        <v>23.500529</v>
+      </c>
+      <c r="L29" s="59">
         <v>24.330231999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" s="58">
-        <v>0.42860900000000002</v>
-      </c>
-      <c r="J29" s="58">
-        <v>23.966797</v>
-      </c>
-      <c r="K29" s="58">
-        <v>0.91085199999999999</v>
-      </c>
-      <c r="L29" s="59">
-        <v>24.325042</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>415</v>
+        <v>159</v>
+      </c>
+      <c r="F30" s="72">
+        <v>184.636</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="I30" s="58">
-        <v>0.43859799999999999</v>
+        <v>6.3125000000000001E-2</v>
       </c>
       <c r="J30" s="58">
-        <v>24.081054999999999</v>
+        <v>4.4443359999999998</v>
       </c>
       <c r="K30" s="58">
-        <v>0.91950399999999999</v>
+        <v>23.485074999999998</v>
       </c>
       <c r="L30" s="59">
-        <v>25.240195</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24.325042</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="F31" s="72">
+        <v>191.24600000000001</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="58">
+        <v>5.4815999999999997E-2</v>
+      </c>
+      <c r="J31" s="58">
+        <v>3.9296880000000001</v>
+      </c>
+      <c r="K31" s="58">
+        <v>24.379484999999999</v>
+      </c>
+      <c r="L31" s="59">
+        <v>25.240195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-    </row>
-    <row r="33" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="72">
+        <v>175.65700000000001</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="58">
+        <v>5.9631999999999998E-2</v>
+      </c>
+      <c r="J32" s="58">
+        <v>4.3730469999999997</v>
+      </c>
+      <c r="K32" s="58">
+        <v>23.324776</v>
+      </c>
+      <c r="L32" s="59">
+        <v>24.156462999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
-        <v>55</v>
+      <c r="D33" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>394</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-    </row>
-    <row r="34" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="I33" s="58">
+        <v>4.6205999999999997E-2</v>
+      </c>
+      <c r="J33" s="58">
+        <v>3.4033199999999999</v>
+      </c>
+      <c r="K33" s="58">
+        <v>24.527149000000001</v>
+      </c>
+      <c r="L33" s="59">
+        <v>25.401681</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="71">
+        <v>229.69399999999999</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I34" s="58">
+        <v>5.3649000000000002E-2</v>
+      </c>
+      <c r="J34" s="58">
+        <v>3.598633</v>
+      </c>
+      <c r="K34" s="58">
+        <v>25.165087</v>
+      </c>
+      <c r="L34" s="59">
+        <v>26.055175999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
-      <c r="C35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="47"/>
       <c r="H35" s="9"/>
       <c r="I35" s="58"/>
@@ -3127,544 +3282,591 @@
       <c r="K35" s="58"/>
       <c r="L35" s="59"/>
     </row>
-    <row r="36" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12" t="s">
+    <row r="36" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="3"/>
+      <c r="C36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="58">
+        <v>3.2597000000000001E-2</v>
+      </c>
+      <c r="J36" s="58">
+        <v>7.0898440000000003</v>
+      </c>
+      <c r="K36" s="58">
+        <v>64.166327999999993</v>
+      </c>
+      <c r="L36" s="59">
+        <v>66.594944999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="4"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
-    </row>
-    <row r="37" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="F37" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I37" s="64">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J37" s="64">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K37" s="64">
+        <v>63.108451000000002</v>
+      </c>
+      <c r="L37" s="65">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C38" s="28">
         <v>512</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E38" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F38" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G38" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H38" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-    </row>
-    <row r="38" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="25" t="s">
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+    </row>
+    <row r="39" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F39" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G39" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="59"/>
-    </row>
-    <row r="39" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="8" t="s">
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="3"/>
+      <c r="C40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="75">
         <v>276.767</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>0.74219999999999997</v>
-      </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-    </row>
-    <row r="40" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="I40" s="64"/>
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="46"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L40" s="64"/>
+    </row>
+    <row r="41" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
+    </row>
+    <row r="42" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B42" s="46"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B43" s="46"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="45" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18" t="s">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B44" s="46"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="46" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D47" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F47" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I47" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="J46" s="56" t="s">
+      <c r="J47" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="L46"/>
-      <c r="N46" s="55"/>
-      <c r="R46"/>
-    </row>
-    <row r="47" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I47" s="62">
-        <v>0.92674636718750003</v>
-      </c>
-      <c r="J47" s="63">
-        <v>1552.2148380078127</v>
-      </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="69"/>
+      <c r="L47"/>
       <c r="N47" s="55"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
-      <c r="C48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="9"/>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0.1366</v>
-      </c>
-      <c r="I48" s="58">
-        <v>0.93383382926829284</v>
-      </c>
-      <c r="J48" s="59">
-        <v>959.35738732926814</v>
+        <v>177</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="62">
+        <v>0.92674636718750003</v>
+      </c>
+      <c r="J48" s="63">
+        <v>1552.2148380078127</v>
       </c>
       <c r="L48" s="43"/>
+      <c r="M48" s="69"/>
       <c r="N48" s="55"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
-      <c r="C49" s="24" t="s">
-        <v>11</v>
+      <c r="C49" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>381</v>
+        <v>182</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>380</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H49" s="9">
-        <v>0.15429999999999999</v>
+        <v>0.1366</v>
       </c>
       <c r="I49" s="58">
-        <v>0.93089420898437492</v>
+        <v>0.93383382926829284</v>
       </c>
       <c r="J49" s="59">
-        <v>759.41117067382811</v>
+        <v>959.35738732926814</v>
       </c>
       <c r="L49" s="43"/>
       <c r="N49" s="55"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
-      <c r="C50" s="8" t="s">
-        <v>18</v>
+      <c r="C50" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>399</v>
+        <v>189</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>370</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H50" s="9">
-        <v>0.15759999999999999</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="I50" s="58">
-        <v>0.92753643229166649</v>
+        <v>0.93089420898437492</v>
       </c>
       <c r="J50" s="59">
-        <v>496.55552293619786</v>
+        <v>759.41117067382811</v>
       </c>
       <c r="L50" s="43"/>
       <c r="N50" s="55"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>402</v>
+        <v>197</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>383</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H51" s="9">
-        <v>0.16500000000000001</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="I51" s="58">
-        <v>0.923783623046875</v>
+        <v>0.92753643229166649</v>
       </c>
       <c r="J51" s="59">
-        <v>366.92786240722654</v>
+        <v>496.55552293619786</v>
       </c>
       <c r="L51" s="43"/>
       <c r="N51" s="55"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="64">
-        <v>0.92156156494140629</v>
-      </c>
-      <c r="J52" s="65">
-        <v>178.14654615722654</v>
+    <row r="52" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="3"/>
+      <c r="C52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I52" s="58">
+        <v>0.923783623046875</v>
+      </c>
+      <c r="J52" s="59">
+        <v>366.92786240722654</v>
       </c>
       <c r="L52" s="43"/>
       <c r="N52" s="55"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L53"/>
+    <row r="53" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="4"/>
+      <c r="C53" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="64">
+        <v>0.92156156494140629</v>
+      </c>
+      <c r="J53" s="65">
+        <v>178.14654615722654</v>
+      </c>
+      <c r="L53" s="43"/>
       <c r="N53" s="55"/>
       <c r="R53"/>
     </row>
-    <row r="55" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18" t="s">
+    <row r="54" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L54"/>
+      <c r="N54" s="55"/>
+      <c r="R54"/>
+    </row>
+    <row r="56" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="57" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D57" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E57" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F57" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I57" s="57" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-      <c r="C57" s="5" t="s">
+    <row r="58" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="3"/>
+      <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D58" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E58" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F58" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G58" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="68"/>
-    </row>
-    <row r="58" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="59"/>
-    </row>
-    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="29"/>
+      <c r="I58" s="68"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>32</v>
+      <c r="D59" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="F60" s="83" t="s">
+        <v>28</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="59"/>
     </row>
-    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
       <c r="D61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="H61" s="9"/>
       <c r="I61" s="59"/>
     </row>
-    <row r="62" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="F62" s="83"/>
       <c r="G62" s="20"/>
       <c r="H62" s="9"/>
       <c r="I62" s="59"/>
     </row>
-    <row r="63" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
-      <c r="C63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="F63" s="83"/>
       <c r="G63" s="20"/>
       <c r="H63" s="9"/>
       <c r="I63" s="59"/>
     </row>
-    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="3"/>
-      <c r="C64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D64" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="F64" s="83"/>
       <c r="G64" s="20"/>
       <c r="H64" s="9"/>
       <c r="I64" s="59"/>
     </row>
-    <row r="65" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="3"/>
       <c r="C65" s="8"/>
       <c r="D65" s="10" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="F65" s="83"/>
       <c r="G65" s="20"/>
       <c r="H65" s="9"/>
       <c r="I65" s="59"/>
     </row>
-    <row r="66" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="8"/>
       <c r="D66" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="F66" s="83"/>
       <c r="G66" s="20"/>
       <c r="H66" s="9"/>
       <c r="I66" s="59"/>
     </row>
-    <row r="67" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>34</v>
-      </c>
+    <row r="67" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B67" s="3"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="9"/>
       <c r="I67" s="59"/>
     </row>
-    <row r="68" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="59"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3681,18 +3883,18 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3929,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="32" t="s">
         <v>164</v>
       </c>
@@ -3762,7 +3964,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -3795,7 +3997,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
@@ -3826,7 +4028,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -3857,7 +4059,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -3888,7 +4090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
@@ -3919,7 +4121,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
@@ -3950,7 +4152,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -3963,7 +4165,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
@@ -3996,7 +4198,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -4027,7 +4229,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -4058,7 +4260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -4089,7 +4291,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="25" t="s">
@@ -4120,7 +4322,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -4151,7 +4353,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>43</v>
@@ -4184,7 +4386,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
@@ -4215,7 +4417,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="32" t="s">
         <v>186</v>
       </c>
@@ -4250,7 +4452,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
@@ -4281,7 +4483,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="24"/>
       <c r="D20" s="9" t="s">
@@ -4298,7 +4500,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
@@ -4315,7 +4517,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
@@ -4332,7 +4534,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="25" t="s">
@@ -4349,7 +4551,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="25" t="s">
@@ -4366,7 +4568,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4379,7 +4581,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
@@ -4398,7 +4600,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
@@ -4415,7 +4617,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
@@ -4432,7 +4634,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
@@ -4449,7 +4651,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="25" t="s">
@@ -4466,7 +4668,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
@@ -4483,7 +4685,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -4514,7 +4716,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8" t="s">
         <v>348</v>
@@ -4547,7 +4749,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8" t="s">
         <v>43</v>
@@ -4566,7 +4768,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
@@ -4583,9 +4785,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="14" t="s">
         <v>9</v>
       </c>
@@ -4614,7 +4816,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
@@ -4639,7 +4841,7 @@
         <v>21.869140999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="27" t="s">
         <v>27</v>
@@ -4664,7 +4866,7 @@
         <v>16.215854</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="22" t="s">
         <v>11</v>
@@ -4689,7 +4891,7 @@
         <v>11.936522999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="20" t="s">
         <v>18</v>
@@ -4714,7 +4916,7 @@
         <v>7.9544269999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="20" t="s">
         <v>13</v>
@@ -4739,7 +4941,7 @@
         <v>6.0200199999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="4"/>
       <c r="C46" s="21" t="s">
         <v>20</v>
@@ -4764,9 +4966,9 @@
         <v>5.0754390000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="52" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="18" t="s">
         <v>15</v>
       </c>
@@ -4786,7 +4988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="5" t="s">
         <v>7</v>
@@ -4804,7 +5006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
       <c r="D54" s="31" t="s">
@@ -4820,7 +5022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -4836,7 +5038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
       <c r="D56" s="10" t="s">
@@ -4852,7 +5054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
@@ -4868,7 +5070,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10"/>
@@ -4876,7 +5078,7 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>11</v>
@@ -4894,7 +5096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
@@ -4910,7 +5112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
       <c r="D61" s="10" t="s">
@@ -4926,7 +5128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
@@ -4942,7 +5144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="13" t="s">
@@ -4958,7 +5160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4967,25 +5169,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.125" style="43"/>
+    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.35546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5222,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17"/>
       <c r="C3" s="19">
         <v>512</v>
@@ -5042,7 +5244,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
       <c r="D4" s="35" t="s">
@@ -5062,7 +5264,7 @@
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="35" t="s">
@@ -5085,7 +5287,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="20"/>
       <c r="D6" s="35" t="s">
@@ -5108,7 +5310,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
@@ -5131,7 +5333,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="34"/>
       <c r="D8" s="24" t="s">
@@ -5154,7 +5356,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="34"/>
       <c r="D9" s="40" t="s">
@@ -5177,7 +5379,7 @@
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
@@ -5185,7 +5387,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="34" t="s">
         <v>35</v>
@@ -5206,7 +5408,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
@@ -5225,7 +5427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
@@ -5244,7 +5446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="s">
@@ -5263,7 +5465,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="34"/>
       <c r="D15" s="24" t="s">
@@ -5282,7 +5484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35" t="s">
@@ -5301,7 +5503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
@@ -5312,7 +5514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="34" t="s">
         <v>43</v>
@@ -5342,7 +5544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="11" t="s">
@@ -5367,7 +5569,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B20" s="46"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5375,7 +5577,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="46"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5383,7 +5585,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="46"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5391,8 +5593,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
@@ -5432,7 +5634,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="3"/>
       <c r="C29" s="27" t="s">
         <v>86</v>
@@ -5449,7 +5651,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="3"/>
       <c r="C30" s="22" t="s">
         <v>11</v>
@@ -5466,7 +5668,7 @@
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="20" t="s">
         <v>18</v>
@@ -5485,7 +5687,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="4"/>
       <c r="C32" s="21" t="s">
         <v>13</v>
@@ -5504,13 +5706,13 @@
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="18" t="s">
         <v>15</v>
       </c>
@@ -5533,7 +5735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>7</v>
@@ -5548,7 +5750,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="31" t="s">
@@ -5561,7 +5763,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -5574,7 +5776,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
@@ -5587,7 +5789,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
@@ -5598,7 +5800,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
@@ -5607,7 +5809,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
         <v>11</v>
@@ -5620,7 +5822,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -5631,7 +5833,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
@@ -5642,7 +5844,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
@@ -5653,7 +5855,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13" t="s">
@@ -5668,7 +5870,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5677,110 +5879,110 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E3" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F3" s="59" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F4" s="59" t="s">
+    <row r="7" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" s="59" t="s">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>410</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D148D51-01AF-405F-9AB9-01F1EEE34FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Caida_0" sheetId="4" r:id="rId3"/>
     <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="421">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1319,18 +1313,97 @@
   </si>
   <si>
     <t>138.28</t>
+  </si>
+  <si>
+    <t>0.6211</t>
+  </si>
+  <si>
+    <t>32*1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8496</t>
+  </si>
+  <si>
+    <t>Find:870, TP:371, FP:653</t>
+  </si>
+  <si>
+    <t>Find:866, TP:362, FP:662</t>
+  </si>
+  <si>
+    <t>0.8457</t>
+  </si>
+  <si>
+    <t>141888 bytes=Top:9024 bytes, Sketch:131072 bytes, Sketch_head:1792 bytes.</t>
+  </si>
+  <si>
+    <t>(Sketch*width)//distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1(x)+h2(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1(x)+h2(h1(x))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:937, TP:532, FP:492</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>64*1024</t>
+  </si>
+  <si>
+    <t>274752 bytes=Top:9024 bytes, Sketch:262144 bytes, Sketch_head:3584 bytes.</t>
+  </si>
+  <si>
+    <t>0.9199</t>
+  </si>
+  <si>
+    <t>Find:942, TP:529, FP:495</t>
+  </si>
+  <si>
+    <t>Find:363, TP:75, FP:437</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>Find:866, TP:363, FP:661</t>
+  </si>
+  <si>
+    <t>503.638</t>
+  </si>
+  <si>
+    <t>Find:867, TP:145, FP:879</t>
+  </si>
+  <si>
+    <t>0.8467</t>
+  </si>
+  <si>
+    <t>0.038702</t>
+  </si>
+  <si>
+    <t>22.599609</t>
+  </si>
+  <si>
+    <t>0.80017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,13 +1448,42 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="35">
@@ -1842,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1899,7 +2001,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1919,48 +2020,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2233,40 +2386,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.92578125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="11.78515625" style="67" customWidth="1"/>
-    <col min="10" max="10" width="10.35546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="66" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="66" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2432,7 @@
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>184</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -2288,20 +2441,20 @@
       <c r="H1" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
         <v>164</v>
       </c>
@@ -2314,7 +2467,7 @@
       <c r="E2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="70">
         <v>88.957999999999998</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2323,22 +2476,22 @@
       <c r="H2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="57">
         <v>4.3451999999999998E-2</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="57">
         <v>5.3554690000000003</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="57">
         <v>0.99920200000000003</v>
       </c>
-      <c r="L2" s="58">
+      <c r="L2" s="57">
         <v>1.2291669999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="52" t="s">
-        <v>187</v>
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="94" t="s">
+        <v>403</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
@@ -2347,7 +2500,7 @@
       <c r="E3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="70">
         <v>98.066000000000003</v>
       </c>
       <c r="G3" s="47" t="s">
@@ -2356,21 +2509,23 @@
       <c r="H3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="57">
         <v>4.6648000000000002E-2</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="57">
         <v>5.8554690000000003</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="57">
         <v>0.98161799999999999</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="58">
         <v>1.2080409999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="3"/>
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
         <v>45</v>
@@ -2378,7 +2533,7 @@
       <c r="E4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>395</v>
       </c>
       <c r="G4" s="47" t="s">
@@ -2387,21 +2542,23 @@
       <c r="H4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="57">
         <v>4.8258000000000002E-2</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="57">
         <v>5.9511719999999997</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="57">
         <v>0.94327300000000003</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="58">
         <v>1.16692</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="3"/>
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="95" t="s">
+        <v>405</v>
+      </c>
       <c r="C5" s="24"/>
       <c r="D5" s="9" t="s">
         <v>369</v>
@@ -2409,7 +2566,7 @@
       <c r="E5" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="71">
         <v>159.54900000000001</v>
       </c>
       <c r="G5" s="47" t="s">
@@ -2418,20 +2575,20 @@
       <c r="H5" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="57">
         <v>4.3908000000000003E-2</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <v>5.3417969999999997</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="57">
         <v>0.87922400000000001</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="58">
         <v>1.0994390000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -2440,7 +2597,7 @@
       <c r="E6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="71" t="s">
         <v>376</v>
       </c>
       <c r="G6" s="47" t="s">
@@ -2449,20 +2606,20 @@
       <c r="H6" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <v>4.8815999999999998E-2</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="57">
         <v>6.046875</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="57">
         <v>0.98258800000000002</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="58">
         <v>1.2093290000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
@@ -2471,7 +2628,7 @@
       <c r="E7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="70">
         <v>106.562</v>
       </c>
       <c r="G7" s="47" t="s">
@@ -2480,20 +2637,20 @@
       <c r="H7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="57">
         <v>4.3317000000000001E-2</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="57">
         <v>5.7050780000000003</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="57">
         <v>0.94822099999999998</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="58">
         <v>1.1746909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
@@ -2502,7 +2659,7 @@
       <c r="E8" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="70">
         <v>104.303</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -2511,1362 +2668,1656 @@
       <c r="H8" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="57">
         <v>3.7630999999999998E-2</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <v>4.34375</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="57">
         <v>0.877745</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="58">
         <v>1.0981700000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" s="71">
-        <v>130.648</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="I9" s="58">
-        <v>3.5654999999999999E-2</v>
-      </c>
-      <c r="J9" s="58">
-        <v>4.0117190000000003</v>
-      </c>
-      <c r="K9" s="58">
-        <v>0.74616899999999997</v>
-      </c>
-      <c r="L9" s="59">
-        <v>0.95852899999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D9" s="25"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D10" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="70">
+        <v>130.648</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="57">
+        <v>3.5654999999999999E-2</v>
+      </c>
+      <c r="J10" s="57">
+        <v>4.0117190000000003</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0.74616899999999997</v>
+      </c>
+      <c r="L10" s="58">
+        <v>0.95852899999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="107">
+        <v>100.099</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" s="110">
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="J11" s="110">
+        <v>4.0371090000000001</v>
+      </c>
+      <c r="K11" s="110">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="L11" s="111">
+        <v>0.95487500000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F12" s="71">
         <v>173.756</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G12" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I12" s="57">
         <v>5.9753000000000001E-2</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J12" s="57">
         <v>4.2197269999999998</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K12" s="57">
         <v>1.0160670000000001</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L12" s="58">
         <v>1.219204</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="72">
-        <v>181.636</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="58">
-        <v>6.3125000000000001E-2</v>
-      </c>
-      <c r="J12" s="58">
-        <v>4.4443359999999998</v>
-      </c>
-      <c r="K12" s="58">
-        <v>1.0052209999999999</v>
-      </c>
-      <c r="L12" s="59">
-        <v>1.207722</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="72">
-        <v>203.096</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="58">
-        <v>5.4815999999999997E-2</v>
-      </c>
-      <c r="J13" s="58">
-        <v>3.9296880000000001</v>
-      </c>
-      <c r="K13" s="58">
-        <v>0.98497100000000004</v>
-      </c>
-      <c r="L13" s="59">
-        <v>1.1861550000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="83">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="I13" s="84">
+        <v>0.12548599999999999</v>
+      </c>
+      <c r="J13" s="84">
+        <v>7.1660159999999999</v>
+      </c>
+      <c r="K13" s="84">
+        <v>1.1062460000000001</v>
+      </c>
+      <c r="L13" s="85">
+        <v>1.366757</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F14" s="72">
-        <v>125.065</v>
+        <v>159</v>
+      </c>
+      <c r="F14" s="71">
+        <v>181.636</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14" s="58">
-        <v>5.9631999999999998E-2</v>
-      </c>
-      <c r="J14" s="58">
-        <v>4.3730469999999997</v>
-      </c>
-      <c r="K14" s="58">
-        <v>1.0068999999999999</v>
-      </c>
-      <c r="L14" s="59">
-        <v>1.209999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>160</v>
+      </c>
+      <c r="I14" s="57">
+        <v>6.3125000000000001E-2</v>
+      </c>
+      <c r="J14" s="57">
+        <v>4.4443359999999998</v>
+      </c>
+      <c r="K14" s="57">
+        <v>1.0052209999999999</v>
+      </c>
+      <c r="L14" s="58">
+        <v>1.207722</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="72">
-        <v>185.90600000000001</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I15" s="58">
-        <v>4.6205999999999997E-2</v>
-      </c>
-      <c r="J15" s="58">
-        <v>3.4033199999999999</v>
-      </c>
-      <c r="K15" s="58">
-        <v>0.98542099999999999</v>
-      </c>
-      <c r="L15" s="59">
-        <v>1.1859150000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="72">
-        <v>190.96600000000001</v>
+        <v>162</v>
+      </c>
+      <c r="F16" s="71">
+        <v>203.096</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>362</v>
+        <v>163</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I16" s="58">
-        <v>5.3649000000000002E-2</v>
-      </c>
-      <c r="J16" s="58">
-        <v>3.598633</v>
-      </c>
-      <c r="K16" s="58">
-        <v>0.93696299999999999</v>
-      </c>
-      <c r="L16" s="59">
-        <v>1.1344110000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>220</v>
+      </c>
+      <c r="I16" s="57">
+        <v>5.4815999999999997E-2</v>
+      </c>
+      <c r="J16" s="57">
+        <v>3.9296880000000001</v>
+      </c>
+      <c r="K16" s="57">
+        <v>0.98497100000000004</v>
+      </c>
+      <c r="L16" s="58">
+        <v>1.1861550000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="72">
-        <v>189.285</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="I17" s="58">
-        <v>4.0030999999999997E-2</v>
-      </c>
-      <c r="J17" s="58">
-        <v>2.5234380000000001</v>
-      </c>
-      <c r="K17" s="58">
-        <v>0.683477</v>
-      </c>
-      <c r="L17" s="59">
-        <v>0.86502199999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="71">
+        <v>125.065</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="57">
+        <v>5.9631999999999998E-2</v>
+      </c>
+      <c r="J18" s="57">
+        <v>4.3730469999999997</v>
+      </c>
+      <c r="K18" s="57">
+        <v>1.0068999999999999</v>
+      </c>
+      <c r="L18" s="58">
+        <v>1.209999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="72"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="47"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>2</v>
+      <c r="C20" s="8"/>
+      <c r="D20" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="72">
-        <v>71.393000000000001</v>
+        <v>258</v>
+      </c>
+      <c r="F20" s="71">
+        <v>185.90600000000001</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="58">
-        <v>3.2597000000000001E-2</v>
-      </c>
-      <c r="J20" s="58">
-        <v>7.0898440000000003</v>
-      </c>
-      <c r="K20" s="58">
-        <v>0.95537700000000003</v>
-      </c>
-      <c r="L20" s="59">
-        <v>1.2057370000000001</v>
-      </c>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="4"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="73">
-        <v>66.057000000000002</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="60">
-        <v>3.0567E-2</v>
-      </c>
-      <c r="J21" s="60">
-        <v>6.5117190000000003</v>
-      </c>
-      <c r="K21" s="60">
-        <v>0.90162600000000004</v>
-      </c>
-      <c r="L21" s="61">
-        <v>1.149743</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="5">
-        <v>512</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="74">
-        <v>87.600999999999999</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I22" s="62">
-        <v>4.3451999999999998E-2</v>
-      </c>
-      <c r="J22" s="62">
-        <v>5.3554690000000003</v>
-      </c>
-      <c r="K22" s="62">
-        <v>38.514884000000002</v>
-      </c>
-      <c r="L22" s="63">
-        <v>39.927731999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>359</v>
+      </c>
+      <c r="I20" s="57">
+        <v>4.6205999999999997E-2</v>
+      </c>
+      <c r="J20" s="57">
+        <v>3.4033199999999999</v>
+      </c>
+      <c r="K20" s="57">
+        <v>0.98542099999999999</v>
+      </c>
+      <c r="L20" s="58">
+        <v>1.1859150000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="71">
+        <v>190.96600000000001</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I22" s="57">
+        <v>5.3649000000000002E-2</v>
+      </c>
+      <c r="J22" s="57">
+        <v>3.598633</v>
+      </c>
+      <c r="K22" s="57">
+        <v>0.93696299999999999</v>
+      </c>
+      <c r="L22" s="58">
+        <v>1.1344110000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="72">
-        <v>100.911</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I23" s="58">
-        <v>4.6648000000000002E-2</v>
-      </c>
-      <c r="J23" s="58">
-        <v>5.8554690000000003</v>
-      </c>
-      <c r="K23" s="58">
-        <v>38.810318000000002</v>
-      </c>
-      <c r="L23" s="59">
-        <v>40.237515000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="72">
-        <v>97.301000000000002</v>
+        <v>340</v>
+      </c>
+      <c r="F24" s="71">
+        <v>189.285</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="58">
-        <v>4.8258000000000002E-2</v>
-      </c>
-      <c r="J24" s="58">
-        <v>5.9511719999999997</v>
-      </c>
-      <c r="K24" s="58">
-        <v>41.467312999999997</v>
-      </c>
-      <c r="L24" s="59">
-        <v>42.983353999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>363</v>
+      </c>
+      <c r="I24" s="57">
+        <v>4.0030999999999997E-2</v>
+      </c>
+      <c r="J24" s="57">
+        <v>2.5234380000000001</v>
+      </c>
+      <c r="K24" s="57">
+        <v>0.683477</v>
+      </c>
+      <c r="L24" s="58">
+        <v>0.86502199999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="72">
-        <v>97.653000000000006</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="58">
-        <v>4.8815999999999998E-2</v>
-      </c>
-      <c r="J25" s="58">
-        <v>6.046875</v>
-      </c>
-      <c r="K25" s="58">
-        <v>38.334111</v>
-      </c>
-      <c r="L25" s="59">
-        <v>39.737543000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="87">
+        <v>3.7221999999999998E-2</v>
+      </c>
+      <c r="J25" s="87">
+        <v>2.286133</v>
+      </c>
+      <c r="K25" s="87">
+        <v>0.66618200000000005</v>
+      </c>
+      <c r="L25" s="88">
+        <v>0.84911999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="72">
-        <v>96.74</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I26" s="58">
-        <v>4.3317000000000001E-2</v>
-      </c>
-      <c r="J26" s="58">
-        <v>5.7050780000000003</v>
-      </c>
-      <c r="K26" s="58">
-        <v>39.329030000000003</v>
-      </c>
-      <c r="L26" s="59">
-        <v>40.766568999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="72">
-        <v>130.62799999999999</v>
+      <c r="D27" s="92" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" s="71">
+        <v>393.05200000000002</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" s="58">
-        <v>3.7630999999999998E-2</v>
-      </c>
-      <c r="J27" s="58">
-        <v>4.34375</v>
-      </c>
-      <c r="K27" s="58">
-        <v>39.770735999999999</v>
-      </c>
-      <c r="L27" s="59">
-        <v>41.224938999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>401</v>
+      </c>
+      <c r="I27" s="57">
+        <v>2.513E-2</v>
+      </c>
+      <c r="J27" s="57">
+        <v>1.3671880000000001</v>
+      </c>
+      <c r="K27" s="57">
+        <v>0.26228099999999999</v>
+      </c>
+      <c r="L27" s="58">
+        <v>0.39413500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D28" s="86"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90">
+        <v>392.94799999999998</v>
+      </c>
+      <c r="G28" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="87">
+        <v>2.6091E-2</v>
+      </c>
+      <c r="J28" s="87">
+        <v>1.3525389999999999</v>
+      </c>
+      <c r="K28" s="87">
+        <v>0.26953500000000002</v>
+      </c>
+      <c r="L28" s="88">
+        <v>0.404414</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="72">
-        <v>176.667</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="58">
-        <v>5.9753000000000001E-2</v>
-      </c>
-      <c r="J29" s="58">
-        <v>4.2197269999999998</v>
-      </c>
-      <c r="K29" s="58">
-        <v>23.500529</v>
-      </c>
-      <c r="L29" s="59">
-        <v>24.330231999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C29" s="8"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="112">
+        <v>167.678</v>
+      </c>
+      <c r="G29" s="113" t="s">
+        <v>414</v>
+      </c>
+      <c r="H29" s="114" t="s">
+        <v>401</v>
+      </c>
+      <c r="I29" s="115">
+        <v>2.5149999999999999E-2</v>
+      </c>
+      <c r="J29" s="115">
+        <v>1.363281</v>
+      </c>
+      <c r="K29" s="115">
+        <v>0.26228600000000002</v>
+      </c>
+      <c r="L29" s="116">
+        <v>0.39414199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="72">
-        <v>184.636</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I30" s="58">
-        <v>6.3125000000000001E-2</v>
-      </c>
-      <c r="J30" s="58">
-        <v>4.4443359999999998</v>
-      </c>
-      <c r="K30" s="58">
-        <v>23.485074999999998</v>
-      </c>
-      <c r="L30" s="59">
-        <v>24.325042</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D30" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" s="96">
+        <v>576.51700000000005</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="I30" s="98">
+        <v>1.9845999999999999E-2</v>
+      </c>
+      <c r="J30" s="98">
+        <v>0.98828099999999997</v>
+      </c>
+      <c r="K30" s="98">
+        <v>0.37273400000000001</v>
+      </c>
+      <c r="L30" s="99">
+        <v>0.48495700000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="72">
-        <v>191.24600000000001</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="58">
-        <v>5.4815999999999997E-2</v>
-      </c>
-      <c r="J31" s="58">
-        <v>3.9296880000000001</v>
-      </c>
-      <c r="K31" s="58">
-        <v>24.379484999999999</v>
-      </c>
-      <c r="L31" s="59">
-        <v>25.240195</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="102">
+        <v>177.42099999999999</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="H31" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="I31" s="105">
+        <v>1.9845999999999999E-2</v>
+      </c>
+      <c r="J31" s="105">
+        <v>0.98828099999999997</v>
+      </c>
+      <c r="K31" s="105">
+        <v>0.37273400000000001</v>
+      </c>
+      <c r="L31" s="106">
+        <v>0.48495700000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="72">
-        <v>175.65700000000001</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="58">
-        <v>5.9631999999999998E-2</v>
-      </c>
-      <c r="J32" s="58">
-        <v>4.3730469999999997</v>
-      </c>
-      <c r="K32" s="58">
-        <v>23.324776</v>
-      </c>
-      <c r="L32" s="59">
-        <v>24.156462999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="100">
+        <v>610.41600000000005</v>
+      </c>
+      <c r="G32" s="101" t="s">
+        <v>411</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="I32" s="87">
+        <v>1.9401000000000002E-2</v>
+      </c>
+      <c r="J32" s="87">
+        <v>0.94140599999999997</v>
+      </c>
+      <c r="K32" s="87">
+        <v>0.37401800000000002</v>
+      </c>
+      <c r="L32" s="88">
+        <v>0.48582399999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="25" t="s">
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="71">
+        <v>71.393000000000001</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="57">
+        <v>3.2597000000000001E-2</v>
+      </c>
+      <c r="J33" s="57">
+        <v>7.0898440000000003</v>
+      </c>
+      <c r="K33" s="57">
+        <v>0.95537700000000003</v>
+      </c>
+      <c r="L33" s="58">
+        <v>1.2057370000000001</v>
+      </c>
+      <c r="M33" s="23"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I33" s="58">
-        <v>4.6205999999999997E-2</v>
-      </c>
-      <c r="J33" s="58">
-        <v>3.4033199999999999</v>
-      </c>
-      <c r="K33" s="58">
-        <v>24.527149000000001</v>
-      </c>
-      <c r="L33" s="59">
-        <v>25.401681</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="3"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="71">
-        <v>229.69399999999999</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I34" s="58">
-        <v>5.3649000000000002E-2</v>
-      </c>
-      <c r="J34" s="58">
-        <v>3.598633</v>
-      </c>
-      <c r="K34" s="58">
-        <v>25.165087</v>
-      </c>
-      <c r="L34" s="59">
-        <v>26.055175999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-    </row>
-    <row r="36" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E34" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="72">
+        <v>66.057000000000002</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="59">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J34" s="59">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K34" s="59">
+        <v>0.90162600000000004</v>
+      </c>
+      <c r="L34" s="60">
+        <v>1.149743</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="5">
+        <v>512</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="73">
+        <v>87.600999999999999</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="61">
+        <v>4.3451999999999998E-2</v>
+      </c>
+      <c r="J35" s="61">
+        <v>5.3554690000000003</v>
+      </c>
+      <c r="K35" s="61">
+        <v>38.514884000000002</v>
+      </c>
+      <c r="L35" s="62">
+        <v>39.927731999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
-      <c r="C36" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="72" t="s">
-        <v>390</v>
+        <v>199</v>
+      </c>
+      <c r="F36" s="71">
+        <v>100.911</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I36" s="58">
-        <v>3.2597000000000001E-2</v>
-      </c>
-      <c r="J36" s="58">
-        <v>7.0898440000000003</v>
-      </c>
-      <c r="K36" s="58">
-        <v>64.166327999999993</v>
-      </c>
-      <c r="L36" s="59">
-        <v>66.594944999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="4"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="64">
-        <v>3.0567E-2</v>
-      </c>
-      <c r="J37" s="64">
-        <v>6.5117190000000003</v>
-      </c>
-      <c r="K37" s="64">
-        <v>63.108451000000002</v>
-      </c>
-      <c r="L37" s="65">
-        <v>65.475786999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="28">
-        <v>512</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-    </row>
-    <row r="39" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+      <c r="I36" s="57">
+        <v>4.6648000000000002E-2</v>
+      </c>
+      <c r="J36" s="57">
+        <v>5.8554690000000003</v>
+      </c>
+      <c r="K36" s="57">
+        <v>38.810318000000002</v>
+      </c>
+      <c r="L36" s="58">
+        <v>40.237515000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="71">
+        <v>97.301000000000002</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="57">
+        <v>4.8258000000000002E-2</v>
+      </c>
+      <c r="J37" s="57">
+        <v>5.9511719999999997</v>
+      </c>
+      <c r="K37" s="57">
+        <v>41.467312999999997</v>
+      </c>
+      <c r="L37" s="58">
+        <v>42.983353999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="71">
+        <v>97.653000000000006</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="57">
+        <v>4.8815999999999998E-2</v>
+      </c>
+      <c r="J38" s="57">
+        <v>6.046875</v>
+      </c>
+      <c r="K38" s="57">
+        <v>38.334111</v>
+      </c>
+      <c r="L38" s="58">
+        <v>39.737543000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>154</v>
+      <c r="E39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="71">
+        <v>96.74</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>213</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="59"/>
-    </row>
-    <row r="40" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>212</v>
+      </c>
+      <c r="I39" s="57">
+        <v>4.3317000000000001E-2</v>
+      </c>
+      <c r="J39" s="57">
+        <v>5.7050780000000003</v>
+      </c>
+      <c r="K39" s="57">
+        <v>39.329030000000003</v>
+      </c>
+      <c r="L39" s="58">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
-      <c r="C40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="71">
+        <v>130.62799999999999</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="57">
+        <v>3.7630999999999998E-2</v>
+      </c>
+      <c r="J40" s="57">
+        <v>4.34375</v>
+      </c>
+      <c r="K40" s="57">
+        <v>39.770735999999999</v>
+      </c>
+      <c r="L40" s="58">
+        <v>41.224938999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="71">
+        <v>176.667</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="57">
+        <v>5.9753000000000001E-2</v>
+      </c>
+      <c r="J42" s="57">
+        <v>4.2197269999999998</v>
+      </c>
+      <c r="K42" s="57">
+        <v>23.500529</v>
+      </c>
+      <c r="L42" s="58">
+        <v>24.330231999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="75">
-        <v>276.767</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12" t="s">
+      <c r="E43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="71">
+        <v>184.636</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="57">
+        <v>6.3125000000000001E-2</v>
+      </c>
+      <c r="J43" s="57">
+        <v>4.4443359999999998</v>
+      </c>
+      <c r="K43" s="57">
+        <v>23.485074999999998</v>
+      </c>
+      <c r="L43" s="58">
+        <v>24.325042</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="71">
+        <v>191.24600000000001</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="57">
+        <v>5.4815999999999997E-2</v>
+      </c>
+      <c r="J44" s="57">
+        <v>3.9296880000000001</v>
+      </c>
+      <c r="K44" s="57">
+        <v>24.379484999999999</v>
+      </c>
+      <c r="L44" s="58">
+        <v>25.240195</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="71">
+        <v>175.65700000000001</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="57">
+        <v>5.9631999999999998E-2</v>
+      </c>
+      <c r="J45" s="57">
+        <v>4.3730469999999997</v>
+      </c>
+      <c r="K45" s="57">
+        <v>23.324776</v>
+      </c>
+      <c r="L45" s="58">
+        <v>24.156462999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
-    </row>
-    <row r="42" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="46"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B43" s="46"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B44" s="46"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="46" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="J47" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="L47"/>
-      <c r="N47" s="55"/>
-      <c r="R47"/>
-    </row>
-    <row r="48" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E46" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I46" s="57">
+        <v>4.6205999999999997E-2</v>
+      </c>
+      <c r="J46" s="57">
+        <v>3.4033199999999999</v>
+      </c>
+      <c r="K46" s="57">
+        <v>24.527149000000001</v>
+      </c>
+      <c r="L46" s="58">
+        <v>25.401681</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="70">
+        <v>229.69399999999999</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I47" s="57">
+        <v>5.3649000000000002E-2</v>
+      </c>
+      <c r="J47" s="57">
+        <v>3.598633</v>
+      </c>
+      <c r="K47" s="57">
+        <v>25.165087</v>
+      </c>
+      <c r="L47" s="58">
+        <v>26.055175999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I48" s="62">
-        <v>0.92674636718750003</v>
-      </c>
-      <c r="J48" s="63">
-        <v>1552.2148380078127</v>
-      </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="55"/>
-      <c r="R48"/>
-    </row>
-    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="58"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
       <c r="C49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I49" s="57">
+        <v>3.2597000000000001E-2</v>
+      </c>
+      <c r="J49" s="57">
+        <v>7.0898440000000003</v>
+      </c>
+      <c r="K49" s="57">
+        <v>64.166327999999993</v>
+      </c>
+      <c r="L49" s="58">
+        <v>66.594944999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="63">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J50" s="63">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K50" s="63">
+        <v>63.108451000000002</v>
+      </c>
+      <c r="L50" s="64">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="28">
+        <v>512</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+    </row>
+    <row r="53" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="C53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="74">
+        <v>276.767</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+    </row>
+    <row r="54" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
+    </row>
+    <row r="55" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="46"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B56" s="46"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B57" s="46"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="L60"/>
+      <c r="N60" s="54"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" s="61">
+        <v>0.92674636718750003</v>
+      </c>
+      <c r="J61" s="62">
+        <v>1552.2148380078127</v>
+      </c>
+      <c r="L61" s="43"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="54"/>
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="47" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F62" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H62" s="9">
         <v>0.1366</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I62" s="57">
         <v>0.93383382926829284</v>
       </c>
-      <c r="J49" s="59">
+      <c r="J62" s="58">
         <v>959.35738732926814</v>
       </c>
-      <c r="L49" s="43"/>
-      <c r="N49" s="55"/>
-      <c r="R49"/>
-    </row>
-    <row r="50" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="3"/>
-      <c r="C50" s="24" t="s">
+      <c r="L62" s="43"/>
+      <c r="N62" s="54"/>
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="47" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="80" t="s">
+      <c r="F63" s="79" t="s">
         <v>370</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H63" s="9">
         <v>0.15429999999999999</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I63" s="57">
         <v>0.93089420898437492</v>
       </c>
-      <c r="J50" s="59">
+      <c r="J63" s="58">
         <v>759.41117067382811</v>
       </c>
-      <c r="L50" s="43"/>
-      <c r="N50" s="55"/>
-      <c r="R50"/>
-    </row>
-    <row r="51" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="3"/>
-      <c r="C51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="80" t="s">
-        <v>383</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="I51" s="58">
-        <v>0.92753643229166649</v>
-      </c>
-      <c r="J51" s="59">
-        <v>496.55552293619786</v>
-      </c>
-      <c r="L51" s="43"/>
-      <c r="N51" s="55"/>
-      <c r="R51"/>
-    </row>
-    <row r="52" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="3"/>
-      <c r="C52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I52" s="58">
-        <v>0.923783623046875</v>
-      </c>
-      <c r="J52" s="59">
-        <v>366.92786240722654</v>
-      </c>
-      <c r="L52" s="43"/>
-      <c r="N52" s="55"/>
-      <c r="R52"/>
-    </row>
-    <row r="53" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="4"/>
-      <c r="C53" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53" s="81" t="s">
-        <v>388</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I53" s="64">
-        <v>0.92156156494140629</v>
-      </c>
-      <c r="J53" s="65">
-        <v>178.14654615722654</v>
-      </c>
-      <c r="L53" s="43"/>
-      <c r="N53" s="55"/>
-      <c r="R53"/>
-    </row>
-    <row r="54" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="L54"/>
-      <c r="N54" s="55"/>
-      <c r="R54"/>
-    </row>
-    <row r="56" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="57" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I57" s="57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="3"/>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="68"/>
-    </row>
-    <row r="59" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="3"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="59"/>
-    </row>
-    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="3"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="59"/>
-    </row>
-    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="3"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="59"/>
-    </row>
-    <row r="62" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="3"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="59"/>
-    </row>
-    <row r="63" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="3"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="59"/>
-    </row>
-    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L63" s="43"/>
+      <c r="N63" s="54"/>
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
       <c r="C64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="I64" s="57">
+        <v>0.92753643229166649</v>
+      </c>
+      <c r="J64" s="58">
+        <v>496.55552293619786</v>
+      </c>
+      <c r="L64" s="43"/>
+      <c r="N64" s="54"/>
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I65" s="57">
+        <v>0.923783623046875</v>
+      </c>
+      <c r="J65" s="58">
+        <v>366.92786240722654</v>
+      </c>
+      <c r="L65" s="43"/>
+      <c r="N65" s="54"/>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" s="63">
+        <v>0.92156156494140629</v>
+      </c>
+      <c r="J66" s="64">
+        <v>178.14654615722654</v>
+      </c>
+      <c r="L66" s="43"/>
+      <c r="N66" s="54"/>
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L67"/>
+      <c r="N67" s="54"/>
+      <c r="R67"/>
+    </row>
+    <row r="69" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I70" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="67"/>
+    </row>
+    <row r="72" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="58"/>
+    </row>
+    <row r="73" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="9"/>
+      <c r="I73" s="58"/>
+    </row>
+    <row r="74" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="58"/>
+    </row>
+    <row r="75" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="58"/>
+    </row>
+    <row r="76" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="58"/>
+    </row>
+    <row r="77" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="C77" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D77" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="59"/>
-    </row>
-    <row r="65" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="3"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10" t="s">
+      <c r="E77" s="20"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="58"/>
+    </row>
+    <row r="78" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="59"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="3"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="58"/>
+    </row>
+    <row r="79" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="59"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="3"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10" t="s">
+      <c r="E79" s="20"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="58"/>
+    </row>
+    <row r="80" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="59"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="4"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="13" t="s">
+      <c r="E80" s="20"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="58"/>
+    </row>
+    <row r="81" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E81" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="82" t="s">
+      <c r="F81" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="33" t="s">
+      <c r="G81" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="59"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="58"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,7 +4326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3883,18 +4334,18 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
@@ -3929,7 +4380,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
         <v>164</v>
       </c>
@@ -3964,7 +4415,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
@@ -3997,7 +4448,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
@@ -4028,7 +4479,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
@@ -4059,7 +4510,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
@@ -4090,7 +4541,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="25" t="s">
@@ -4121,7 +4572,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
       <c r="D8" s="25" t="s">
@@ -4152,7 +4603,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -4165,7 +4616,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
         <v>35</v>
@@ -4198,7 +4649,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -4229,7 +4680,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -4260,7 +4711,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -4291,7 +4742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="25" t="s">
@@ -4322,7 +4773,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -4353,7 +4804,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="8" t="s">
         <v>43</v>
@@ -4386,7 +4837,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
@@ -4417,7 +4868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
         <v>186</v>
       </c>
@@ -4452,7 +4903,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
@@ -4483,7 +4934,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="24"/>
       <c r="D20" s="9" t="s">
@@ -4500,7 +4951,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
@@ -4517,7 +4968,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
@@ -4534,7 +4985,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="25" t="s">
@@ -4551,7 +5002,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="25" t="s">
@@ -4568,7 +5019,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4581,7 +5032,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="8" t="s">
         <v>35</v>
@@ -4600,7 +5051,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
@@ -4617,7 +5068,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
@@ -4634,7 +5085,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="s">
@@ -4651,7 +5102,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="25" t="s">
@@ -4668,7 +5119,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
@@ -4685,7 +5136,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -4716,7 +5167,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="8" t="s">
         <v>348</v>
@@ -4749,7 +5200,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="8" t="s">
         <v>43</v>
@@ -4768,7 +5219,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
@@ -4785,9 +5236,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="40" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>9</v>
       </c>
@@ -4816,7 +5267,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="19" t="s">
         <v>7</v>
@@ -4841,7 +5292,7 @@
         <v>21.869140999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="27" t="s">
         <v>27</v>
@@ -4866,7 +5317,7 @@
         <v>16.215854</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="22" t="s">
         <v>11</v>
@@ -4891,7 +5342,7 @@
         <v>11.936522999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="20" t="s">
         <v>18</v>
@@ -4916,7 +5367,7 @@
         <v>7.9544269999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="20" t="s">
         <v>13</v>
@@ -4941,7 +5392,7 @@
         <v>6.0200199999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="21" t="s">
         <v>20</v>
@@ -4966,9 +5417,9 @@
         <v>5.0754390000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="52" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
       <c r="C53" s="5" t="s">
         <v>7</v>
@@ -5006,7 +5457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
       <c r="D54" s="31" t="s">
@@ -5022,7 +5473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -5038,7 +5489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
       <c r="D56" s="10" t="s">
@@ -5054,7 +5505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
@@ -5070,7 +5521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10"/>
@@ -5078,7 +5529,7 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>11</v>
@@ -5096,7 +5547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
@@ -5112,7 +5563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
       <c r="D61" s="10" t="s">
@@ -5128,7 +5579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
       <c r="C62" s="8"/>
       <c r="D62" s="10" t="s">
@@ -5144,7 +5595,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
       <c r="D63" s="13" t="s">
@@ -5160,7 +5611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5169,25 +5620,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.35546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="43"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="43"/>
+    <col min="9" max="9" width="12.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5222,7 +5675,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17"/>
       <c r="C3" s="19">
         <v>512</v>
@@ -5244,7 +5697,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
       <c r="D4" s="35" t="s">
@@ -5264,7 +5717,7 @@
         <v>0.8515625</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="35" t="s">
@@ -5287,7 +5740,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="20"/>
       <c r="D6" s="35" t="s">
@@ -5310,7 +5763,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35" t="s">
@@ -5333,7 +5786,7 @@
         <v>0.845703125</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="34"/>
       <c r="D8" s="24" t="s">
@@ -5356,7 +5809,7 @@
         <v>0.84765625</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="34"/>
       <c r="D9" s="40" t="s">
@@ -5379,7 +5832,7 @@
         <v>0.857421875</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
@@ -5387,7 +5840,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="34" t="s">
         <v>35</v>
@@ -5408,7 +5861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
@@ -5427,7 +5880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35" t="s">
@@ -5446,7 +5899,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="s">
@@ -5465,7 +5918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="34"/>
       <c r="D15" s="24" t="s">
@@ -5484,7 +5937,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="34"/>
       <c r="D16" s="35" t="s">
@@ -5499,22 +5952,38 @@
       <c r="G16" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="34"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E17" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="118" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" s="119" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="120" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="J17" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="121" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="122">
+        <v>7.9651800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="34" t="s">
         <v>43</v>
@@ -5544,7 +6013,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="21"/>
       <c r="D19" s="11" t="s">
@@ -5569,7 +6038,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" ht="14.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="46"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5577,7 +6046,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5585,7 +6054,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="46"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5593,8 +6062,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>9</v>
       </c>
@@ -5617,7 +6086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
@@ -5634,7 +6103,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="27" t="s">
         <v>86</v>
@@ -5651,7 +6120,7 @@
       </c>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="22" t="s">
         <v>11</v>
@@ -5668,7 +6137,7 @@
       </c>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="20" t="s">
         <v>18</v>
@@ -5687,7 +6156,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="21" t="s">
         <v>13</v>
@@ -5706,13 +6175,13 @@
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>15</v>
       </c>
@@ -5735,7 +6204,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
         <v>7</v>
@@ -5750,7 +6219,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="31" t="s">
@@ -5763,7 +6232,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
     </row>
-    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -5776,7 +6245,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
@@ -5789,7 +6258,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="10" t="s">
@@ -5800,7 +6269,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
@@ -5809,7 +6278,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
         <v>11</v>
@@ -5822,7 +6291,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -5833,7 +6302,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
     </row>
-    <row r="47" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
@@ -5844,7 +6313,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
     </row>
-    <row r="48" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
@@ -5855,7 +6324,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13" t="s">
@@ -5870,7 +6339,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5879,108 +6348,108 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>386</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="5:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="5:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>386</v>
       </c>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74BA0C-3F53-415F-A315-5114CE3D5F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95759A-716F-4F36-9562-E897B74AA9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="550">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1724,6 +1724,45 @@
   </si>
   <si>
     <t>0.9092</t>
+  </si>
+  <si>
+    <t>1378.518</t>
+  </si>
+  <si>
+    <t>Find:480, TP:480, FP:32</t>
+  </si>
+  <si>
+    <t>0.9375</t>
+  </si>
+  <si>
+    <t>0.006947</t>
+  </si>
+  <si>
+    <t>49.123047</t>
+  </si>
+  <si>
+    <t>0.998075</t>
+  </si>
+  <si>
+    <t>16.302923</t>
+  </si>
+  <si>
+    <t>1346.885</t>
+  </si>
+  <si>
+    <t>0.007428</t>
+  </si>
+  <si>
+    <t>53.041016</t>
+  </si>
+  <si>
+    <t>0.942952</t>
+  </si>
+  <si>
+    <t>16.233282</t>
+  </si>
+  <si>
+    <t>142512 bytes =Top:4272+ Sketch:131072+ Sk_head...</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2752,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4677,7 +4716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4685,10 +4724,12 @@
     <col min="2" max="2" width="21.0703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.92578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.0703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.35546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4731,44 +4772,104 @@
       <c r="B2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="C3" s="27">
+        <v>512</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1348.1949999999999</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.1390000000000004E-3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>57.773437999999999</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.98429</v>
+      </c>
+      <c r="L3" s="9">
+        <v>16.271578999999999</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="9"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95759A-716F-4F36-9562-E897B74AA9D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A42AEDA-CA5F-4548-B224-575F6AA950CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="561">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1763,6 +1763,40 @@
   </si>
   <si>
     <t>142512 bytes =Top:4272+ Sketch:131072+ Sk_head...</t>
+  </si>
+  <si>
+    <t>2756.481</t>
+  </si>
+  <si>
+    <t>Find:977, TP:977, FP:47</t>
+  </si>
+  <si>
+    <t>0.9541</t>
+  </si>
+  <si>
+    <t>0.00587</t>
+  </si>
+  <si>
+    <t>23.957031</t>
+  </si>
+  <si>
+    <t>0.941947</t>
+  </si>
+  <si>
+    <t>12.581352</t>
+  </si>
+  <si>
+    <t>512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142512 bytes=Top:4272 bytes, Sketch:131072 bytes, Sketch_head:7168 bytes</t>
+  </si>
+  <si>
+    <t>20428.875</t>
+  </si>
+  <si>
+    <t>0.9668</t>
   </si>
 </sst>
 </file>
@@ -4715,8 +4749,8 @@
   <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4899,16 +4933,36 @@
     </row>
     <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
@@ -4976,12 +5030,22 @@
     </row>
     <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>559</v>
+      </c>
       <c r="G13" s="41"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>560</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A42AEDA-CA5F-4548-B224-575F6AA950CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA2CB5F-6BB3-4567-BCA4-636C20F1B2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="568">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,6 +1797,27 @@
   </si>
   <si>
     <t>0.9668</t>
+  </si>
+  <si>
+    <t>2289.037</t>
+  </si>
+  <si>
+    <t>Find:980, TP:980, FP:44</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>0.006781</t>
+  </si>
+  <si>
+    <t>27.036133</t>
+  </si>
+  <si>
+    <t>0.982993</t>
+  </si>
+  <si>
+    <t>12.623822</t>
   </si>
 </sst>
 </file>
@@ -4749,8 +4770,8 @@
   <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4920,16 +4941,36 @@
     </row>
     <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
@@ -5055,7 +5096,6 @@
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="41"/>
       <c r="H14" s="9"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA8FD7-99BC-4E3D-8DBC-075DB72593A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId2"/>
     <sheet name="webdocs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="605">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,25 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37552=Top-512 with size 4720 bytes+ CMS with size 32832 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42160 =Top-1024 with size 9328 bytes+ CMS with size 32832 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17584 bytes=Top-1024 with size 9328 bytes+ CMS with size 8256 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13488 bytes=Top-1024 with size 9328 bytes+ CMS with size 4160 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21680 bytes :Top-1024 with size 9328 bytes+ CMS with size 12352 bytes.</t>
-  </si>
-  <si>
     <t>7056</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,9 +240,6 @@
     <t>Find:139,TP:2,FP:137</t>
   </si>
   <si>
-    <t>25776 bytes :Top-1024 with size 9328 bytes+ CMS with size 16448 bytes</t>
-  </si>
-  <si>
     <t>41856 bytes=Top-1024 with size 9024 bytes+ CMS with size 32832 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,18 +539,10 @@
     <t>Find:625, TP:96, FP:928</t>
   </si>
   <si>
-    <t>16*128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>304.325</t>
   </si>
   <si>
     <t>174.090</t>
-  </si>
-  <si>
-    <t>16*256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>268.585</t>
@@ -1752,51 +1728,217 @@
     <t>19.361188</t>
   </si>
   <si>
+    <t>71336 bytes =Top:2216+ Sketch:65536+ Sk_head:3584</t>
+  </si>
+  <si>
+    <t>1657.056</t>
+  </si>
+  <si>
+    <t>Find:236, TP:236, FP:20</t>
+  </si>
+  <si>
+    <t>0.9219</t>
+  </si>
+  <si>
+    <t>0.009933</t>
+  </si>
+  <si>
+    <t>114.183594</t>
+  </si>
+  <si>
+    <t>0.998557</t>
+  </si>
+  <si>
+    <t>19.378573</t>
+  </si>
+  <si>
+    <t>4*512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16448 bytes</t>
+  </si>
+  <si>
+    <t>8256 bytes</t>
+  </si>
+  <si>
     <t>4*128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1361.924</t>
-  </si>
-  <si>
-    <t>16448 for sketch</t>
+    <t>4160 bytes</t>
+  </si>
+  <si>
+    <t>256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>71336 bytes =Top:2216+ Sketch:65536+ Sk_head:3584</t>
-  </si>
-  <si>
-    <t>1657.056</t>
-  </si>
-  <si>
-    <t>Find:236, TP:236, FP:20</t>
-  </si>
-  <si>
-    <t>0.9219</t>
-  </si>
-  <si>
-    <t>0.009933</t>
-  </si>
-  <si>
-    <t>114.183594</t>
-  </si>
-  <si>
-    <t>0.998557</t>
-  </si>
-  <si>
-    <t>19.378573</t>
+    <t>512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901.680</t>
+  </si>
+  <si>
+    <t>1132.789</t>
+  </si>
+  <si>
+    <t>4488 bytes =Top:2216+ Sketch:2048+ Sk_head:224</t>
+  </si>
+  <si>
+    <t>1287.569</t>
+  </si>
+  <si>
+    <t>Find:230, TP:230, FP:26</t>
+  </si>
+  <si>
+    <t>0.008049</t>
+  </si>
+  <si>
+    <t>89.867188</t>
+  </si>
+  <si>
+    <t>0.897255</t>
+  </si>
+  <si>
+    <t>19.278808</t>
+  </si>
+  <si>
+    <t>1227.408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7301.420 </t>
+  </si>
+  <si>
+    <t>Find:914, TP:180, FP:734</t>
+  </si>
+  <si>
+    <t>0.5951</t>
+  </si>
+  <si>
+    <t>0.193606</t>
+  </si>
+  <si>
+    <t>1739.318359</t>
+  </si>
+  <si>
+    <t>8*512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2115.255</t>
+  </si>
+  <si>
+    <t>Find:472, TP:472, FP:40</t>
+  </si>
+  <si>
+    <t>0.009711</t>
+  </si>
+  <si>
+    <t>73.214844</t>
+  </si>
+  <si>
+    <t>0.825903</t>
+  </si>
+  <si>
+    <t>16.119331</t>
+  </si>
+  <si>
+    <t>2312.503</t>
+  </si>
+  <si>
+    <t>32832</t>
+  </si>
+  <si>
+    <t>3637.047</t>
+  </si>
+  <si>
+    <t>Find:966, TP:966, FP:58</t>
+  </si>
+  <si>
+    <t>0.9434</t>
+  </si>
+  <si>
+    <t>0.009855</t>
+  </si>
+  <si>
+    <t>41.844727</t>
+  </si>
+  <si>
+    <t>0.687325</t>
+  </si>
+  <si>
+    <t>12.327118</t>
+  </si>
+  <si>
+    <t>11304 bytes =Top:2216+ Sketch:8192+ Sk_head:896</t>
+  </si>
+  <si>
+    <t>210.198</t>
+  </si>
+  <si>
+    <t>Find:213, TP:213, FP:43</t>
+  </si>
+  <si>
+    <t>0.043851</t>
+  </si>
+  <si>
+    <t>75.226562</t>
+  </si>
+  <si>
+    <t>0.990053</t>
+  </si>
+  <si>
+    <t>19496 bytes =Top:2216+ Sketch:16384+ Sk_head:896</t>
+  </si>
+  <si>
+    <t>185.122</t>
+  </si>
+  <si>
+    <t>Find:219, TP:219, FP:37</t>
+  </si>
+  <si>
+    <t>0.040101</t>
+  </si>
+  <si>
+    <t>63.898438</t>
+  </si>
+  <si>
+    <t>0.994462</t>
+  </si>
+  <si>
+    <t>Find:495, TP:495, FP:17</t>
+  </si>
+  <si>
+    <t>14052.967</t>
+  </si>
+  <si>
+    <t>Find:2717, TP:978, FP:1739</t>
+  </si>
+  <si>
+    <t>0.6633</t>
+  </si>
+  <si>
+    <t>0.164838</t>
+  </si>
+  <si>
+    <t>397.395508</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,14 +1992,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1867,7 +2001,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2399,11 +2533,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2478,9 +2765,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2509,16 +2793,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2536,9 +2816,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2551,6 +2828,35 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2823,1969 +3129,1956 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:R77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="37" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="22.35546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.35546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.640625" style="57" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.640625" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="F1" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="105" t="s">
         <v>87</v>
       </c>
+      <c r="K1" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="107" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="27" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F2" s="62">
         <v>68.988</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2" s="95">
+        <v>340</v>
+      </c>
+      <c r="I2" s="90">
         <v>5.0998000000000002E-2</v>
       </c>
-      <c r="J2" s="95">
+      <c r="J2" s="90">
         <v>6.3066409999999999</v>
       </c>
-      <c r="K2" s="95">
+      <c r="K2" s="90">
         <v>0.99877400000000005</v>
       </c>
-      <c r="L2" s="95">
+      <c r="L2" s="108">
         <v>1.2280059999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="81" t="s">
-        <v>169</v>
+    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="109" t="s">
+        <v>161</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="67">
+        <v>67.989000000000004</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="90">
+        <v>4.4520999999999998E-2</v>
+      </c>
+      <c r="J3" s="90">
+        <v>5.5839840000000001</v>
+      </c>
+      <c r="K3" s="90">
+        <v>0.98032600000000003</v>
+      </c>
+      <c r="L3" s="108">
+        <v>1.207481</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="61">
-        <v>67.989000000000004</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3" s="95">
-        <v>4.4520999999999998E-2</v>
-      </c>
-      <c r="J3" s="95">
-        <v>5.5839840000000001</v>
-      </c>
-      <c r="K3" s="95">
-        <v>0.98032600000000003</v>
-      </c>
-      <c r="L3" s="96">
-        <v>1.207481</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="F4" s="62">
         <v>65.625</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="I4" s="95">
+        <v>344</v>
+      </c>
+      <c r="I4" s="90">
         <v>4.9383999999999997E-2</v>
       </c>
-      <c r="J4" s="95">
+      <c r="J4" s="90">
         <v>5.9570309999999997</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="90">
         <v>0.94410099999999997</v>
       </c>
-      <c r="L4" s="96">
+      <c r="L4" s="108">
         <v>1.167611</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="82" t="s">
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F5" s="62">
         <v>70.436999999999998</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="95">
+        <v>346</v>
+      </c>
+      <c r="I5" s="90">
         <v>4.5152999999999999E-2</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="90">
         <v>5.6582030000000003</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="90">
         <v>0.88041400000000003</v>
       </c>
-      <c r="L5" s="96">
+      <c r="L5" s="108">
         <v>1.100814</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="110"/>
       <c r="C6" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F6" s="62">
         <v>75.284999999999997</v>
       </c>
       <c r="G6" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="90">
+        <v>3.5633999999999999E-2</v>
+      </c>
+      <c r="J6" s="90">
+        <v>4.0664059999999997</v>
+      </c>
+      <c r="K6" s="90">
+        <v>0.74018600000000001</v>
+      </c>
+      <c r="L6" s="108">
+        <v>0.95307200000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="110"/>
+      <c r="C7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="67">
+        <v>78.198999999999998</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="90">
+        <v>2.7397999999999999E-2</v>
+      </c>
+      <c r="J7" s="90">
+        <v>3.0058590000000001</v>
+      </c>
+      <c r="K7" s="90">
+        <v>0.46144299999999999</v>
+      </c>
+      <c r="L7" s="108">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="110"/>
+      <c r="C8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="I6" s="95">
-        <v>3.5633999999999999E-2</v>
-      </c>
-      <c r="J6" s="95">
-        <v>4.0664059999999997</v>
-      </c>
-      <c r="K6" s="95">
-        <v>0.74018600000000001</v>
-      </c>
-      <c r="L6" s="96">
-        <v>0.95307200000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="H8" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="I8" s="90" t="s">
         <v>359</v>
       </c>
-      <c r="F7" s="61">
-        <v>78.198999999999998</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="J8" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K8" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="I7" s="95">
-        <v>2.7397999999999999E-2</v>
-      </c>
-      <c r="J7" s="95">
-        <v>3.0058590000000001</v>
-      </c>
-      <c r="K7" s="95">
-        <v>0.46144299999999999</v>
-      </c>
-      <c r="L7" s="96">
-        <v>0.65849999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="L8" s="108" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="9" t="s">
+    </row>
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="110"/>
+      <c r="C9" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I9" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="J9" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="K9" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="K8" s="95" t="s">
+      <c r="L9" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="L8" s="95" t="s">
+    </row>
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="110"/>
+      <c r="C10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J10" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="K10" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="L10" s="112" t="s">
         <v>374</v>
       </c>
-      <c r="J9" s="97" t="s">
+    </row>
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="110"/>
+      <c r="C11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="97" t="s">
+      <c r="F11" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="L9" s="97" t="s">
+      <c r="G11" s="9" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="97" t="s">
+      <c r="J11" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="K11" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="K10" s="97" t="s">
+      <c r="L11" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="L10" s="97" t="s">
+    </row>
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="110"/>
+      <c r="C12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" s="97" t="s">
+      <c r="I12" s="91" t="s">
         <v>386</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J12" s="91" t="s">
         <v>387</v>
       </c>
-      <c r="K11" s="97" t="s">
+      <c r="K12" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L12" s="112" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="9" t="s">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="110"/>
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="H13" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="I13" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="J13" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="L12" s="97" t="s">
+      <c r="K13" s="91" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="L13" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" s="97" t="s">
-        <v>404</v>
-      </c>
-      <c r="K13" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="110"/>
       <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="I14" s="97" t="s">
-        <v>410</v>
-      </c>
-      <c r="J14" s="97" t="s">
-        <v>411</v>
-      </c>
-      <c r="K14" s="97" t="s">
-        <v>412</v>
-      </c>
-      <c r="L14" s="97" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
+        <v>401</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="91" t="s">
+        <v>403</v>
+      </c>
+      <c r="K14" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="110"/>
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="I15" s="97" t="s">
-        <v>417</v>
-      </c>
-      <c r="J15" s="97" t="s">
-        <v>418</v>
-      </c>
-      <c r="K15" s="97" t="s">
-        <v>419</v>
-      </c>
-      <c r="L15" s="97" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="J15" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="91" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="110"/>
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I16" s="97" t="s">
-        <v>424</v>
-      </c>
-      <c r="J16" s="97" t="s">
-        <v>425</v>
-      </c>
-      <c r="K16" s="97" t="s">
-        <v>426</v>
-      </c>
-      <c r="L16" s="97" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="J16" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="K16" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="L16" s="112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="110"/>
       <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>439</v>
-      </c>
-      <c r="J17" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="K17" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="L17" s="97" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
+        <v>430</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>431</v>
+      </c>
+      <c r="J17" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="L17" s="112" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="110"/>
       <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F18" s="62">
         <v>116.396</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="95">
+        <v>166</v>
+      </c>
+      <c r="I18" s="90">
         <v>2.8590999999999998E-2</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="90">
         <v>1.770508</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="90">
         <v>0.35457300000000003</v>
       </c>
-      <c r="L18" s="96">
+      <c r="L18" s="108">
         <v>0.51488</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
+    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="110"/>
       <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F19" s="62">
         <v>115.672</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="I19" s="95">
+        <v>440</v>
+      </c>
+      <c r="I19" s="90">
         <v>5.7685E-2</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="90">
         <v>4.1826169999999996</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="90">
         <v>1.006526</v>
       </c>
-      <c r="L19" s="96">
+      <c r="L19" s="108">
         <v>1.2097070000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
+    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="110"/>
       <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F20" s="62">
         <v>115.748</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="I20" s="95">
+        <v>401</v>
+      </c>
+      <c r="I20" s="90">
         <v>5.2843000000000001E-2</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="90">
         <v>3.9707029999999999</v>
       </c>
-      <c r="K20" s="95">
+      <c r="K20" s="90">
         <v>0.98486099999999999</v>
       </c>
-      <c r="L20" s="96">
+      <c r="L20" s="108">
         <v>1.187506</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="110"/>
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F21" s="62">
         <v>106.14100000000001</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="I21" s="95">
+        <v>445</v>
+      </c>
+      <c r="I21" s="90">
         <v>5.6877999999999998E-2</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="90">
         <v>3.7998050000000001</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="90">
         <v>0.937585</v>
       </c>
-      <c r="L21" s="95">
+      <c r="L21" s="108">
         <v>1.1354690000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
+    <row r="22" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="110"/>
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F22" s="62">
         <v>121.124</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="I22" s="95">
+        <v>447</v>
+      </c>
+      <c r="I22" s="90">
         <v>5.3012999999999998E-2</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="90">
         <v>3.3876949999999999</v>
       </c>
-      <c r="K22" s="95">
+      <c r="K22" s="90">
         <v>0.85234799999999999</v>
       </c>
-      <c r="L22" s="95">
+      <c r="L22" s="108">
         <v>1.0446569999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
+    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="110"/>
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F23" s="62">
         <v>119.292</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="I23" s="95">
+        <v>449</v>
+      </c>
+      <c r="I23" s="90">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="J23" s="95">
+      <c r="J23" s="90">
         <v>2.4667970000000001</v>
       </c>
-      <c r="K23" s="95">
+      <c r="K23" s="90">
         <v>0.68201999999999996</v>
       </c>
-      <c r="L23" s="95">
+      <c r="L23" s="108">
         <v>0.86349600000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
+    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="110"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F24" s="62">
         <v>105.289</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="I24" s="95">
+        <v>452</v>
+      </c>
+      <c r="I24" s="90">
         <v>2.9992000000000001E-2</v>
       </c>
-      <c r="J24" s="95">
+      <c r="J24" s="90">
         <v>1.8515619999999999</v>
       </c>
-      <c r="K24" s="95">
+      <c r="K24" s="90">
         <v>0.35638399999999998</v>
       </c>
-      <c r="L24" s="95">
+      <c r="L24" s="108">
         <v>0.51713799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
+    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="110"/>
       <c r="C25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F25" s="62">
         <v>112.73099999999999</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="I25" s="95">
+        <v>438</v>
+      </c>
+      <c r="I25" s="90">
         <v>2.6869000000000001E-2</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="90">
         <v>1.438477</v>
       </c>
-      <c r="K25" s="95">
+      <c r="K25" s="90">
         <v>0.26193</v>
       </c>
-      <c r="L25" s="95">
+      <c r="L25" s="108">
         <v>0.39257399999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
+    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="110"/>
       <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F26" s="62">
         <v>112.18600000000001</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="I26" s="95">
+        <v>454</v>
+      </c>
+      <c r="I26" s="90">
         <v>1.7996000000000002E-2</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="90">
         <v>0.89160200000000001</v>
       </c>
-      <c r="K26" s="95">
+      <c r="K26" s="90">
         <v>0.37113600000000002</v>
       </c>
-      <c r="L26" s="95">
+      <c r="L26" s="108">
         <v>0.48376200000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-      <c r="C28" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F28" s="63">
+    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="110"/>
+      <c r="C27" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="63">
         <v>435.99</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="I28" s="95">
+      <c r="G27" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="90">
         <v>5.9480999999999999E-2</v>
       </c>
-      <c r="J28" s="95">
+      <c r="J27" s="90">
         <v>0.84179700000000002</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K27" s="90">
         <v>0.32552700000000001</v>
       </c>
-      <c r="L28" s="95">
+      <c r="L27" s="108">
         <v>0.42815399999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
-    </row>
-    <row r="31" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="5">
+    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="110"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="27">
         <v>512</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D30" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E30" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="65">
+        <v>87.600999999999999</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="56">
+        <v>4.3451999999999998E-2</v>
+      </c>
+      <c r="J30" s="56">
+        <v>5.3554690000000003</v>
+      </c>
+      <c r="K30" s="56">
+        <v>38.514884000000002</v>
+      </c>
+      <c r="L30" s="58">
+        <v>39.927731999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="62">
+        <v>100.911</v>
+      </c>
+      <c r="G31" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="64">
-        <v>87.600999999999999</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="50">
+        <v>4.6648000000000002E-2</v>
+      </c>
+      <c r="J31" s="50">
+        <v>5.8554690000000003</v>
+      </c>
+      <c r="K31" s="50">
+        <v>38.810318000000002</v>
+      </c>
+      <c r="L31" s="51">
+        <v>40.237515000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="3"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="62">
+        <v>97.301000000000002</v>
+      </c>
+      <c r="G32" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="50">
+        <v>4.8258000000000002E-2</v>
+      </c>
+      <c r="J32" s="50">
+        <v>5.9511719999999997</v>
+      </c>
+      <c r="K32" s="50">
+        <v>41.467312999999997</v>
+      </c>
+      <c r="L32" s="51">
+        <v>42.983353999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="62">
+        <v>97.653000000000006</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="52">
-        <v>4.3451999999999998E-2</v>
-      </c>
-      <c r="J31" s="52">
-        <v>5.3554690000000003</v>
-      </c>
-      <c r="K31" s="52">
-        <v>38.514884000000002</v>
-      </c>
-      <c r="L31" s="53">
-        <v>39.927731999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="62">
-        <v>100.911</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="50">
-        <v>4.6648000000000002E-2</v>
-      </c>
-      <c r="J32" s="50">
-        <v>5.8554690000000003</v>
-      </c>
-      <c r="K32" s="50">
-        <v>38.810318000000002</v>
-      </c>
-      <c r="L32" s="51">
-        <v>40.237515000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="62">
-        <v>97.301000000000002</v>
-      </c>
-      <c r="G33" s="41" t="s">
+      <c r="H33" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="I33" s="50">
-        <v>4.8258000000000002E-2</v>
+        <v>4.8815999999999998E-2</v>
       </c>
       <c r="J33" s="50">
-        <v>5.9511719999999997</v>
+        <v>6.046875</v>
       </c>
       <c r="K33" s="50">
-        <v>41.467312999999997</v>
+        <v>38.334111</v>
       </c>
       <c r="L33" s="51">
-        <v>42.983353999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39.737543000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>42</v>
+      <c r="D34" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F34" s="62">
-        <v>97.653000000000006</v>
+        <v>96.74</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I34" s="50">
-        <v>4.8815999999999998E-2</v>
+        <v>4.3317000000000001E-2</v>
       </c>
       <c r="J34" s="50">
-        <v>6.046875</v>
+        <v>5.7050780000000003</v>
       </c>
       <c r="K34" s="50">
-        <v>38.334111</v>
+        <v>39.329030000000003</v>
       </c>
       <c r="L34" s="51">
-        <v>39.737543000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40.766568999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="62">
-        <v>96.74</v>
+        <v>130.62799999999999</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I35" s="50">
-        <v>4.3317000000000001E-2</v>
+        <v>3.7630999999999998E-2</v>
       </c>
       <c r="J35" s="50">
-        <v>5.7050780000000003</v>
+        <v>4.34375</v>
       </c>
       <c r="K35" s="50">
-        <v>39.329030000000003</v>
+        <v>39.770735999999999</v>
       </c>
       <c r="L35" s="51">
-        <v>40.766568999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41.224938999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="62">
-        <v>130.62799999999999</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="50">
-        <v>3.7630999999999998E-2</v>
-      </c>
-      <c r="J36" s="50">
-        <v>4.34375</v>
-      </c>
-      <c r="K36" s="50">
-        <v>39.770735999999999</v>
-      </c>
-      <c r="L36" s="51">
-        <v>41.224938999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="62">
+        <v>176.667</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="50">
+        <v>5.9753000000000001E-2</v>
+      </c>
+      <c r="J37" s="50">
+        <v>4.2197269999999998</v>
+      </c>
+      <c r="K37" s="50">
+        <v>23.500529</v>
+      </c>
+      <c r="L37" s="51">
+        <v>24.330231999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
-      <c r="C38" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F38" s="62">
-        <v>176.667</v>
+        <v>184.636</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="I38" s="50">
-        <v>5.9753000000000001E-2</v>
+        <v>6.3125000000000001E-2</v>
       </c>
       <c r="J38" s="50">
-        <v>4.2197269999999998</v>
+        <v>4.4443359999999998</v>
       </c>
       <c r="K38" s="50">
-        <v>23.500529</v>
+        <v>23.485074999999998</v>
       </c>
       <c r="L38" s="51">
-        <v>24.330231999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24.325042</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F39" s="62">
-        <v>184.636</v>
+        <v>191.24600000000001</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="I39" s="50">
-        <v>6.3125000000000001E-2</v>
+        <v>5.4815999999999997E-2</v>
       </c>
       <c r="J39" s="50">
-        <v>4.4443359999999998</v>
+        <v>3.9296880000000001</v>
       </c>
       <c r="K39" s="50">
-        <v>23.485074999999998</v>
+        <v>24.379484999999999</v>
       </c>
       <c r="L39" s="51">
-        <v>24.325042</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25.240195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F40" s="62">
-        <v>191.24600000000001</v>
+        <v>175.65700000000001</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I40" s="50">
-        <v>5.4815999999999997E-2</v>
+        <v>5.9631999999999998E-2</v>
       </c>
       <c r="J40" s="50">
-        <v>3.9296880000000001</v>
+        <v>4.3730469999999997</v>
       </c>
       <c r="K40" s="50">
-        <v>24.379484999999999</v>
+        <v>23.324776</v>
       </c>
       <c r="L40" s="51">
-        <v>25.240195</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24.156462999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
-        <v>42</v>
+      <c r="D41" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="62">
-        <v>175.65700000000001</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I41" s="50">
-        <v>5.9631999999999998E-2</v>
+        <v>4.6205999999999997E-2</v>
       </c>
       <c r="J41" s="50">
-        <v>4.3730469999999997</v>
+        <v>3.4033199999999999</v>
       </c>
       <c r="K41" s="50">
-        <v>23.324776</v>
+        <v>24.527149000000001</v>
       </c>
       <c r="L41" s="51">
-        <v>24.156462999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25.401681</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="24" t="s">
-        <v>3</v>
+      <c r="D42" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>167</v>
+        <v>142</v>
+      </c>
+      <c r="F42" s="61">
+        <v>229.69399999999999</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I42" s="50">
-        <v>4.6205999999999997E-2</v>
+        <v>5.3649000000000002E-2</v>
       </c>
       <c r="J42" s="50">
-        <v>3.4033199999999999</v>
+        <v>3.598633</v>
       </c>
       <c r="K42" s="50">
-        <v>24.527149000000001</v>
+        <v>25.165087</v>
       </c>
       <c r="L42" s="51">
-        <v>25.401681</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26.055175999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="61">
-        <v>229.69399999999999</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="50">
-        <v>5.3649000000000002E-2</v>
-      </c>
-      <c r="J43" s="50">
-        <v>3.598633</v>
-      </c>
-      <c r="K43" s="50">
-        <v>25.165087</v>
-      </c>
-      <c r="L43" s="51">
-        <v>26.055175999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="9" t="s">
+      <c r="E44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="50">
+        <v>3.2597000000000001E-2</v>
+      </c>
+      <c r="J44" s="50">
+        <v>7.0898440000000003</v>
+      </c>
+      <c r="K44" s="50">
+        <v>64.166327999999993</v>
+      </c>
+      <c r="L44" s="51">
+        <v>66.594944999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="54">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J45" s="54">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K45" s="54">
+        <v>63.108451000000002</v>
+      </c>
+      <c r="L45" s="55">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="27">
+        <v>512</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="50">
-        <v>3.2597000000000001E-2</v>
-      </c>
-      <c r="J45" s="50">
-        <v>7.0898440000000003</v>
-      </c>
-      <c r="K45" s="50">
-        <v>64.166327999999993</v>
-      </c>
-      <c r="L45" s="51">
-        <v>66.594944999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12" t="s">
+      <c r="H46" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="12" t="s">
+      <c r="E47" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="54">
-        <v>3.0567E-2</v>
-      </c>
-      <c r="J46" s="54">
-        <v>6.5117190000000003</v>
-      </c>
-      <c r="K46" s="54">
-        <v>63.108451000000002</v>
-      </c>
-      <c r="L46" s="55">
-        <v>65.475786999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="27">
-        <v>512</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="24" t="s">
+      <c r="C48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="64">
+        <v>276.767</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-    </row>
-    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="C49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="65">
-        <v>276.767</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="12">
-        <v>0.74219999999999997</v>
+      <c r="E49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="I49" s="54"/>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-    </row>
-    <row r="50" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="55"/>
-    </row>
-    <row r="51" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="55"/>
+    </row>
+    <row r="50" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="40"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="40"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="68"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="40"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="68"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="55" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17" t="s">
+    <row r="54" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="60" t="s">
+      <c r="F55" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="J56" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L56"/>
+      <c r="G55" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="J55" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L55"/>
+      <c r="N55" s="47"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="3"/>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="52">
+        <v>0.92674636718750003</v>
+      </c>
+      <c r="J56" s="53">
+        <v>1552.2148380078127</v>
+      </c>
+      <c r="L56" s="37"/>
+      <c r="M56" s="59"/>
       <c r="N56" s="47"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6"/>
+      <c r="C57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F57" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="52">
-        <v>0.92674636718750003</v>
-      </c>
-      <c r="J57" s="53">
-        <v>1552.2148380078127</v>
+      <c r="H57" s="9">
+        <v>0.1366</v>
+      </c>
+      <c r="I57" s="50">
+        <v>0.93383382926829284</v>
+      </c>
+      <c r="J57" s="51">
+        <v>959.35738732926814</v>
       </c>
       <c r="L57" s="37"/>
-      <c r="M57" s="59"/>
       <c r="N57" s="47"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
-      <c r="C58" s="8" t="s">
-        <v>26</v>
+      <c r="C58" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>157</v>
+        <v>106</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>147</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58" s="9">
-        <v>0.1366</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="I58" s="50">
-        <v>0.93383382926829284</v>
+        <v>0.93089420898437492</v>
       </c>
       <c r="J58" s="51">
-        <v>959.35738732926814</v>
+        <v>759.41117067382811</v>
       </c>
       <c r="L58" s="37"/>
       <c r="N58" s="47"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
-      <c r="C59" s="23" t="s">
-        <v>11</v>
+      <c r="C59" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="70" t="s">
-        <v>154</v>
+        <v>114</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H59" s="9">
-        <v>0.15429999999999999</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="I59" s="50">
-        <v>0.93089420898437492</v>
+        <v>0.92753643229166649</v>
       </c>
       <c r="J59" s="51">
-        <v>759.41117067382811</v>
+        <v>496.55552293619786</v>
       </c>
       <c r="L59" s="37"/>
       <c r="N59" s="47"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="70" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>151</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H60" s="9">
-        <v>0.15759999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I60" s="50">
-        <v>0.92753643229166649</v>
+        <v>0.923783623046875</v>
       </c>
       <c r="J60" s="51">
-        <v>496.55552293619786</v>
+        <v>366.92786240722654</v>
       </c>
       <c r="L60" s="37"/>
       <c r="N60" s="47"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
-      <c r="C61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="41" t="s">
-        <v>127</v>
+    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="4"/>
+      <c r="C61" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I61" s="50">
-        <v>0.923783623046875</v>
-      </c>
-      <c r="J61" s="51">
-        <v>366.92786240722654</v>
+        <v>154</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="54">
+        <v>0.92156156494140629</v>
+      </c>
+      <c r="J61" s="55">
+        <v>178.14654615722654</v>
       </c>
       <c r="L61" s="37"/>
       <c r="N61" s="47"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
-      <c r="C62" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I62" s="54">
-        <v>0.92156156494140629</v>
-      </c>
-      <c r="J62" s="55">
-        <v>178.14654615722654</v>
-      </c>
-      <c r="L62" s="37"/>
+    <row r="62" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L62"/>
       <c r="N62" s="47"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L63"/>
-      <c r="N63" s="47"/>
-      <c r="R63"/>
-    </row>
-    <row r="65" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="17" t="s">
+    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="65" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D65" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F65" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G65" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H65" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B66" s="3"/>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="58"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="72" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="F67" s="71" t="s">
+        <v>20</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="58"/>
-    </row>
-    <row r="68" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="51"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>21</v>
+      <c r="D68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="F68" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="51"/>
     </row>
-    <row r="69" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="8"/>
       <c r="D69" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="73" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="51"/>
     </row>
-    <row r="70" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="8"/>
       <c r="D70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="19"/>
       <c r="H70" s="9"/>
       <c r="I70" s="51"/>
     </row>
-    <row r="71" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="3"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="73"/>
+      <c r="F71" s="72"/>
       <c r="G71" s="19"/>
       <c r="H71" s="9"/>
       <c r="I71" s="51"/>
     </row>
-    <row r="72" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="3"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="10"/>
+      <c r="C72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E72" s="19"/>
-      <c r="F72" s="73"/>
+      <c r="F72" s="72"/>
       <c r="G72" s="19"/>
       <c r="H72" s="9"/>
       <c r="I72" s="51"/>
     </row>
-    <row r="73" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="3"/>
-      <c r="C73" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C73" s="8"/>
       <c r="D73" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="19"/>
-      <c r="F73" s="73"/>
+      <c r="F73" s="72"/>
       <c r="G73" s="19"/>
       <c r="H73" s="9"/>
       <c r="I73" s="51"/>
     </row>
-    <row r="74" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="3"/>
       <c r="C74" s="8"/>
       <c r="D74" s="10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E74" s="19"/>
-      <c r="F74" s="73"/>
+      <c r="F74" s="72"/>
       <c r="G74" s="19"/>
       <c r="H74" s="9"/>
       <c r="I74" s="51"/>
     </row>
-    <row r="75" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="3"/>
       <c r="C75" s="8"/>
       <c r="D75" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E75" s="19"/>
-      <c r="F75" s="73"/>
+      <c r="F75" s="72"/>
       <c r="G75" s="19"/>
       <c r="H75" s="9"/>
       <c r="I75" s="51"/>
     </row>
-    <row r="76" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="19"/>
+    <row r="76" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="H76" s="9"/>
       <c r="I76" s="51"/>
     </row>
-    <row r="77" spans="2:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="51"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4794,31 +5087,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="37"/>
-    <col min="9" max="9" width="12.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="37"/>
+    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.35546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="37"/>
+    <col min="9" max="9" width="12.2109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.35546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -4832,902 +5125,936 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>39</v>
+        <v>523</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="83"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>587</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="L3" s="78">
+        <v>11.252262999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>523</v>
+      </c>
       <c r="D4" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="85"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="L4" s="80">
+        <v>11.140643000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>181</v>
+        <v>172</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>173</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L5" s="85">
+        <v>178</v>
+      </c>
+      <c r="L5" s="80">
         <v>9.8515969999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>182</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="85">
+        <v>188</v>
+      </c>
+      <c r="L6" s="80">
         <v>9.4808599999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="21" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>190</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="85">
+        <v>196</v>
+      </c>
+      <c r="L7" s="80">
         <v>9.1406500000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>205</v>
+      <c r="E8" s="79" t="s">
+        <v>197</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="85">
+        <v>203</v>
+      </c>
+      <c r="L8" s="80">
         <v>9.3080250000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>218</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="85">
+        <v>224</v>
+      </c>
+      <c r="L9" s="80">
         <v>9.5086440000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>226</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="85">
+        <v>230</v>
+      </c>
+      <c r="L10" s="80">
         <v>9.2173940000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" s="85">
+        <v>216</v>
+      </c>
+      <c r="L11" s="80">
         <v>9.3302200000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>212</v>
+        <v>180</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>204</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" s="85">
+        <v>208</v>
+      </c>
+      <c r="L12" s="80">
         <v>10.249644999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="84"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>239</v>
+        <v>172</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>231</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" s="85">
+        <v>236</v>
+      </c>
+      <c r="L14" s="80">
         <v>8.8521920000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>245</v>
+        <v>181</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>237</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L15" s="85">
+        <v>243</v>
+      </c>
+      <c r="L15" s="80">
         <v>8.6582709999999992</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>252</v>
+        <v>189</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>244</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="85">
+        <v>250</v>
+      </c>
+      <c r="L16" s="80">
         <v>8.2937639999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>259</v>
+        <v>179</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>251</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="85">
+        <v>257</v>
+      </c>
+      <c r="L17" s="80">
         <v>7.9015250000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>259</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="L18" s="85">
+        <v>265</v>
+      </c>
+      <c r="L18" s="80">
         <v>8.0570470000000007</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>274</v>
+        <v>217</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>266</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="85">
+        <v>271</v>
+      </c>
+      <c r="L19" s="80">
         <v>8.6475899999999992</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>166</v>
+        <v>225</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>158</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="L20" s="85">
+        <v>275</v>
+      </c>
+      <c r="L20" s="80">
         <v>8.2714970000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>284</v>
+        <v>209</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>276</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="85">
+        <v>170</v>
+      </c>
+      <c r="L21" s="80">
         <v>7.9651800000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>287</v>
+        <v>180</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>279</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>270</v>
+        <v>261</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>262</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="L22" s="94">
+        <v>283</v>
+      </c>
+      <c r="L22" s="89">
         <v>8.1066570000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>293</v>
+        <v>284</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>285</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" s="93" t="s">
-        <v>296</v>
+        <v>287</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>288</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="L23" s="94">
+        <v>291</v>
+      </c>
+      <c r="L23" s="89">
         <v>8.6240129999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>307</v>
+        <v>292</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>299</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="93" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>295</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="L24" s="94">
+        <v>298</v>
+      </c>
+      <c r="L24" s="89">
         <v>9.1514419999999994</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>309</v>
+        <v>300</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>301</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="H25" s="93" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="H25" s="88" t="s">
+        <v>304</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="L25" s="94">
+        <v>307</v>
+      </c>
+      <c r="L25" s="89">
         <v>9.4035360000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="E26" s="85" t="s">
+        <v>309</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="H26" s="93" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="H26" s="88" t="s">
+        <v>312</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="L26" s="94">
+        <v>315</v>
+      </c>
+      <c r="L26" s="89">
         <v>9.3266139999999993</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>324</v>
+        <v>164</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>316</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="H27" s="93" t="s">
-        <v>327</v>
+        <v>318</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>319</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="L27" s="94">
+        <v>322</v>
+      </c>
+      <c r="L27" s="89">
         <v>9.3325370000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="4"/>
       <c r="C28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>332</v>
+        <v>323</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>324</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>327</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="L28" s="87">
+        <v>330</v>
+      </c>
+      <c r="L28" s="82">
         <v>11.762981</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B29" s="40"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L29">
         <v>8.6618650000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="40"/>
       <c r="C30" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L30">
         <v>5.5183460000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="40"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5735,8 +6062,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="35" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="36" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="14" t="s">
         <v>9</v>
       </c>
@@ -5756,10 +6083,10 @@
         <v>6</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="18" t="s">
         <v>7</v>
@@ -5769,31 +6096,31 @@
         <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="21" t="s">
         <v>11</v>
@@ -5803,14 +6130,14 @@
         <v>12</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="19" t="s">
         <v>17</v>
@@ -5820,41 +6147,41 @@
         <v>18</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H40" s="38">
         <v>0.3639</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4"/>
       <c r="C41" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H41" s="39">
         <v>0.39599609375</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="17" t="s">
         <v>14</v>
       </c>
@@ -5874,10 +6201,10 @@
         <v>6</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="5" t="s">
         <v>7</v>
@@ -5892,7 +6219,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" spans="2:8" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="8"/>
       <c r="D49" s="30" t="s">
@@ -5905,7 +6232,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="8"/>
       <c r="D50" s="10" t="s">
@@ -5918,7 +6245,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="8"/>
       <c r="D51" s="10" t="s">
@@ -5931,7 +6258,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="8"/>
       <c r="D52" s="10" t="s">
@@ -5942,7 +6269,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="8"/>
       <c r="D53" s="10"/>
@@ -5951,7 +6278,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="8" t="s">
         <v>11</v>
@@ -5964,7 +6291,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -5975,7 +6302,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
       <c r="D56" s="10" t="s">
@@ -5986,7 +6313,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
@@ -5997,22 +6324,22 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
       <c r="D58" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6021,29 +6348,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.2109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -6057,472 +6384,598 @@
         <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>542</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>358</v>
+        <v>523</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>359</v>
+        <v>540</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B6" s="8">
+        <v>511</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2565.31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.9375</v>
-      </c>
-      <c r="H6" s="9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I6" s="9">
-        <v>58.736328</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.99791399999999997</v>
-      </c>
-      <c r="K6" s="10">
-        <v>16.291819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>383</v>
+        <v>350</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>465</v>
+        <v>489</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>512</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>475</v>
+        <v>354</v>
+      </c>
+      <c r="D8" t="s">
+        <v>355</v>
       </c>
       <c r="E8" s="9">
-        <v>1348.1949999999999</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G8" s="6">
+        <v>2565.31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G8" s="9">
         <v>0.9375</v>
       </c>
       <c r="H8" s="9">
-        <v>8.1390000000000004E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I8" s="9">
-        <v>57.773437999999999</v>
+        <v>58.736328</v>
       </c>
       <c r="J8" s="9">
-        <v>0.98429</v>
-      </c>
-      <c r="K8" s="9">
-        <v>16.271578999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.99791399999999997</v>
+      </c>
+      <c r="K8" s="10">
+        <v>16.291819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>390</v>
+        <v>292</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
+      <c r="B10" s="8">
+        <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1348.1949999999999</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8.1390000000000004E-3</v>
+      </c>
+      <c r="I10" s="9">
+        <v>57.773437999999999</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.98429</v>
+      </c>
+      <c r="K10" s="9">
+        <v>16.271578999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>521</v>
+        <v>462</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>458</v>
+        <v>237</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>491</v>
+        <v>581</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>494</v>
+        <v>584</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>316</v>
+      <c r="C14" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="G16" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="8">
+        <v>512</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E19" s="9">
+        <v>25532.294000000002</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2.9420000000000002E-3</v>
+      </c>
+      <c r="I19" s="9">
+        <v>361.05078099999997</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.99988200000000005</v>
+      </c>
+      <c r="K19" s="10">
+        <v>35.977034000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -6532,95 +6985,95 @@
       <c r="C22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="99" t="s">
-        <v>146</v>
+      <c r="D23" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="100" t="s">
-        <v>147</v>
+      <c r="D24" s="94" t="s">
+        <v>141</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="101" t="s">
-        <v>112</v>
+      <c r="D25" s="95" t="s">
+        <v>106</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G25" s="9">
         <v>0.54490000000000005</v>
@@ -6632,29 +7085,39 @@
         <v>3063.6552729999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="102" t="s">
-        <v>127</v>
+      <c r="D27" s="96" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -6662,24 +7125,34 @@
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -6696,43 +7169,59 @@
         <v>5</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>39</v>
+        <v>553</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="32"/>
+        <v>552</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>556</v>
+      </c>
       <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <f>1729.72685/256</f>
+        <v>6.7567455078125001</v>
+      </c>
+      <c r="I34">
+        <f>23532644</f>
+        <v>23532644</v>
+      </c>
+      <c r="J34">
+        <v>70174.678220000002</v>
+      </c>
+      <c r="K34">
+        <v>94158.456999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="30" t="s">
@@ -6742,133 +7231,307 @@
         <v>550</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F35" s="32"/>
       <c r="H35">
-        <v>337.049103</v>
+        <f>774.651865/256</f>
+        <v>3.0259838476562502</v>
       </c>
       <c r="I35">
-        <v>4542546</v>
+        <v>10522905</v>
       </c>
       <c r="J35">
-        <v>8004876105.2114096</v>
+        <v>31484.821538</v>
       </c>
       <c r="K35">
-        <v>10738261452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42242.044000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="10" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="19"/>
+        <v>549</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>565</v>
+      </c>
       <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <f>337.049103/256</f>
+        <v>1.31659805859375</v>
+      </c>
+      <c r="I36">
+        <v>4542546</v>
+      </c>
+      <c r="J36">
+        <v>13528.102902000001</v>
+      </c>
+      <c r="K36">
+        <v>18147.476999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="19"/>
+      <c r="B37" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>556</v>
+      </c>
       <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <f>5217.34207/512</f>
+        <v>10.190121230468749</v>
+      </c>
+      <c r="I37">
+        <v>47873377</v>
+      </c>
+      <c r="J37">
+        <v>70174.678220000002</v>
+      </c>
+      <c r="K37">
+        <v>94158.456999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="19"/>
+      <c r="C38" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>557</v>
+      </c>
       <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <f>2327.193619/512</f>
+        <v>4.5453000371093752</v>
+      </c>
+      <c r="I38">
+        <v>21364436</v>
+      </c>
+      <c r="J38">
+        <v>31484.821538</v>
+      </c>
+      <c r="K38">
+        <v>42242.044000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="C39" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>565</v>
+      </c>
       <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <f>979.899104/512</f>
+        <v>1.9138654374999999</v>
+      </c>
+      <c r="I39">
+        <v>9042389</v>
+      </c>
+      <c r="J39">
+        <v>13528.102902000001</v>
+      </c>
+      <c r="K39">
+        <v>18147.476999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="19"/>
+        <v>555</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>556</v>
+      </c>
       <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <f>16866.06394/1024</f>
+        <v>16.47076556640625</v>
+      </c>
+      <c r="I40">
+        <v>95524137</v>
+      </c>
+      <c r="J40">
+        <v>70174.678220000002</v>
+      </c>
+      <c r="K40">
+        <v>94158.456999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="19"/>
+      <c r="D41" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>557</v>
+      </c>
       <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <f>7465.023822/1024</f>
+        <v>7.2900623261718751</v>
+      </c>
+      <c r="I41">
+        <v>42388561</v>
+      </c>
+      <c r="J41">
+        <v>31484.821538</v>
+      </c>
+      <c r="K41">
+        <v>42242.044000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="10" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="19"/>
+        <v>549</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>565</v>
+      </c>
       <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <f>3144.197842/1024</f>
+        <v>3.070505705078125</v>
+      </c>
+      <c r="I42">
+        <v>17908989</v>
+      </c>
+      <c r="J42">
+        <v>13528.102902000001</v>
+      </c>
+      <c r="K42">
+        <v>18147.476999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="5" t="s">
+        <v>553</v>
+      </c>
       <c r="C43" s="10" t="s">
-        <v>16</v>
+        <v>571</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="19"/>
+        <v>579</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>578</v>
+      </c>
       <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <f>281.212133/256</f>
+        <v>1.09848489453125</v>
+      </c>
+      <c r="I43">
+        <v>3800925</v>
+      </c>
+      <c r="J43">
+        <v>11038.054274</v>
+      </c>
+      <c r="K43">
+        <v>14807.462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13" t="s">
-        <v>15</v>
+      <c r="B44" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="19"/>
+        <v>579</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>578</v>
+      </c>
       <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H44">
+        <f>825.961829/512</f>
+        <v>1.6132066972656249</v>
+      </c>
+      <c r="I44">
+        <v>7614904</v>
+      </c>
+      <c r="J44">
+        <v>11038.054274</v>
+      </c>
+      <c r="K44">
+        <v>14807.462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="11">
+        <v>1024</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="H45">
+        <f>2637.727072/1024</f>
+        <v>2.5759053437500001</v>
+      </c>
+      <c r="I45">
+        <v>15047827</v>
+      </c>
+      <c r="J45">
+        <v>11038.054274</v>
+      </c>
+      <c r="K45">
+        <v>14807.462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA8FD7-99BC-4E3D-8DBC-075DB72593A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId2"/>
     <sheet name="webdocs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="617">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4*1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4*512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,62 +105,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>214.371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4760+8256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4*384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4720+12352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4720+16448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9328+32832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>820</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>239.315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>191.002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>272.560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:81,TP:0,FP:81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:115,TP:0,FP:115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:138,TP:0,FP:138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find:339,TP:0,FP:339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1024</t>
   </si>
   <si>
@@ -178,16 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8880=Top-512 with size 4720 bytes+ CMS with size 4160 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>194.896</t>
-  </si>
-  <si>
-    <t>Find:48,TP:0,FP:48</t>
-  </si>
-  <si>
     <t>256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21168 bytes=Top-512 with size 4720 bytes+ CMS with size 16448 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2*256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,72 +132,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8880 =Top-512 with size 4720 bytes+ CMS with size 4160 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12976=Top-512 with size 4720 bytes+ CMS with size 8256 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17072=Top-512 with size 4720 bytes+ CMS with size 12352 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7056</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>490.935</t>
   </si>
   <si>
-    <t>Find:248,TP:6,FP:242</t>
-  </si>
-  <si>
     <t>301.264</t>
-  </si>
-  <si>
-    <t>Find:139,TP:2,FP:137</t>
-  </si>
-  <si>
-    <t>41856 bytes=Top-1024 with size 9024 bytes+ CMS with size 32832 bytes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>286.479</t>
   </si>
   <si>
     <t>estimate after count all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>540.7576</t>
   </si>
   <si>
-    <t>Find:327,TP:13,FP:314</t>
-  </si>
-  <si>
     <t>808.931</t>
   </si>
   <si>
-    <t>Find:559,TP:34,FP:525</t>
-  </si>
-  <si>
-    <t>1146.814</t>
-  </si>
-  <si>
     <t>16560 bytes :Top-2048 with size 16560 bytes.</t>
-  </si>
-  <si>
-    <t>Find:811,TP:60,FP:751</t>
   </si>
   <si>
     <t>Precision</t>
@@ -1752,18 +1631,10 @@
     <t>19.378573</t>
   </si>
   <si>
-    <t>4*512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16448 bytes</t>
   </si>
   <si>
     <t>8256 bytes</t>
-  </si>
-  <si>
-    <t>4*128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4160 bytes</t>
@@ -1777,10 +1648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>901.680</t>
   </si>
   <si>
@@ -1851,9 +1718,6 @@
     <t>2312.503</t>
   </si>
   <si>
-    <t>32832</t>
-  </si>
-  <si>
     <t>3637.047</t>
   </si>
   <si>
@@ -1927,16 +1791,162 @@
   </si>
   <si>
     <t>397.395508</t>
+  </si>
+  <si>
+    <t>Find:139, TP:139, FP:373</t>
+  </si>
+  <si>
+    <t>0.2715</t>
+  </si>
+  <si>
+    <t>0.687639</t>
+  </si>
+  <si>
+    <t>796.001953</t>
+  </si>
+  <si>
+    <t>Find:251, TP:251, FP:569</t>
+  </si>
+  <si>
+    <t>0.3061</t>
+  </si>
+  <si>
+    <t>0.594047</t>
+  </si>
+  <si>
+    <t>466.712195</t>
+  </si>
+  <si>
+    <t>full dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:327, TP:327, FP:697</t>
+  </si>
+  <si>
+    <t>0.3193</t>
+  </si>
+  <si>
+    <t>0.568756</t>
+  </si>
+  <si>
+    <t>362.115234</t>
+  </si>
+  <si>
+    <t>Find:559, TP:559, FP:977</t>
+  </si>
+  <si>
+    <t>0.582774</t>
+  </si>
+  <si>
+    <t>247.347005</t>
+  </si>
+  <si>
+    <t>4160 bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32832 bytes</t>
+  </si>
+  <si>
+    <t>32832 bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find:811, TP:811, FP:1237</t>
+  </si>
+  <si>
+    <t>2698.212</t>
+  </si>
+  <si>
+    <t>0.572314</t>
+  </si>
+  <si>
+    <t>186.963867</t>
+  </si>
+  <si>
+    <t>0.3960</t>
+  </si>
+  <si>
+    <t>12072.065</t>
+  </si>
+  <si>
+    <t>Find:1251, TP:307, FP:944</t>
+  </si>
+  <si>
+    <t>0.6108</t>
+  </si>
+  <si>
+    <t>0.172526</t>
+  </si>
+  <si>
+    <t>1083.689941</t>
+  </si>
+  <si>
+    <t>26.978669</t>
+  </si>
+  <si>
+    <t>4161 bytes</t>
+  </si>
+  <si>
+    <t>4162 bytes</t>
+  </si>
+  <si>
+    <t>49.596223</t>
+  </si>
+  <si>
+    <t>96.218398</t>
+  </si>
+  <si>
+    <t>46.578917</t>
+  </si>
+  <si>
+    <t>24.101491</t>
+  </si>
+  <si>
+    <t>13.100698</t>
+  </si>
+  <si>
+    <t>6.343436</t>
+  </si>
+  <si>
+    <t>11.708872</t>
+  </si>
+  <si>
+    <t>22.593400</t>
+  </si>
+  <si>
+    <t>6.153181</t>
+  </si>
+  <si>
+    <t>11.365295</t>
+  </si>
+  <si>
+    <t>6536 bytes =Top:2216+ Sketch:4096+ Sk_head:224</t>
+  </si>
+  <si>
+    <t>Find:226, TP:226, FP:30</t>
+  </si>
+  <si>
+    <t>21.896146</t>
+  </si>
+  <si>
+    <t>524352 bytes</t>
+  </si>
+  <si>
+    <t>256*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2368,26 +2378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2686,11 +2676,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2716,31 +2730,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2786,29 +2792,23 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2819,44 +2819,58 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3129,1559 +3143,1558 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.35546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="106" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>172</v>
+      <c r="F1" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="54">
+        <v>68.988</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="80">
+        <v>5.0998000000000002E-2</v>
+      </c>
+      <c r="J2" s="80">
+        <v>6.3066409999999999</v>
+      </c>
+      <c r="K2" s="80">
+        <v>0.99877400000000005</v>
+      </c>
+      <c r="L2" s="98">
+        <v>1.2280059999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="59">
+        <v>67.989000000000004</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="80">
+        <v>4.4520999999999998E-2</v>
+      </c>
+      <c r="J3" s="80">
+        <v>5.5839840000000001</v>
+      </c>
+      <c r="K3" s="80">
+        <v>0.98032600000000003</v>
+      </c>
+      <c r="L3" s="98">
+        <v>1.207481</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="54">
+        <v>65.625</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I4" s="80">
+        <v>4.9383999999999997E-2</v>
+      </c>
+      <c r="J4" s="80">
+        <v>5.9570309999999997</v>
+      </c>
+      <c r="K4" s="80">
+        <v>0.94410099999999997</v>
+      </c>
+      <c r="L4" s="98">
+        <v>1.167611</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="54">
+        <v>70.436999999999998</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5" s="80">
+        <v>4.5152999999999999E-2</v>
+      </c>
+      <c r="J5" s="80">
+        <v>5.6582030000000003</v>
+      </c>
+      <c r="K5" s="80">
+        <v>0.88041400000000003</v>
+      </c>
+      <c r="L5" s="98">
+        <v>1.100814</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="100"/>
+      <c r="C6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="54">
+        <v>75.284999999999997</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="80">
+        <v>3.5633999999999999E-2</v>
+      </c>
+      <c r="J6" s="80">
+        <v>4.0664059999999997</v>
+      </c>
+      <c r="K6" s="80">
+        <v>0.74018600000000001</v>
+      </c>
+      <c r="L6" s="98">
+        <v>0.95307200000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="100"/>
+      <c r="C7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="59">
+        <v>78.198999999999998</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I7" s="80">
+        <v>2.7397999999999999E-2</v>
+      </c>
+      <c r="J7" s="80">
+        <v>3.0058590000000001</v>
+      </c>
+      <c r="K7" s="80">
+        <v>0.46144299999999999</v>
+      </c>
+      <c r="L7" s="98">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="100"/>
+      <c r="C8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" s="98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="100"/>
+      <c r="C9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="L9" s="102" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="100"/>
+      <c r="C10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="62">
-        <v>68.988</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F10" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="81" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="90">
-        <v>5.0998000000000002E-2</v>
-      </c>
-      <c r="J2" s="90">
-        <v>6.3066409999999999</v>
-      </c>
-      <c r="K2" s="90">
-        <v>0.99877400000000005</v>
-      </c>
-      <c r="L2" s="108">
-        <v>1.2280059999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="67">
-        <v>67.989000000000004</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="J10" s="81" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K10" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="I3" s="90">
-        <v>4.4520999999999998E-2</v>
-      </c>
-      <c r="J3" s="90">
-        <v>5.5839840000000001</v>
-      </c>
-      <c r="K3" s="90">
-        <v>0.98032600000000003</v>
-      </c>
-      <c r="L3" s="108">
-        <v>1.207481</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="62">
-        <v>65.625</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="L10" s="102" t="s">
         <v>343</v>
       </c>
-      <c r="H4" s="9" t="s">
+    </row>
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="100"/>
+      <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="I4" s="90">
-        <v>4.9383999999999997E-2</v>
-      </c>
-      <c r="J4" s="90">
-        <v>5.9570309999999997</v>
-      </c>
-      <c r="K4" s="90">
-        <v>0.94410099999999997</v>
-      </c>
-      <c r="L4" s="108">
-        <v>1.167611</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="62">
-        <v>70.436999999999998</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="F11" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="90">
-        <v>4.5152999999999999E-2</v>
-      </c>
-      <c r="J5" s="90">
-        <v>5.6582030000000003</v>
-      </c>
-      <c r="K5" s="90">
-        <v>0.88041400000000003</v>
-      </c>
-      <c r="L5" s="108">
-        <v>1.100814</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="110"/>
-      <c r="C6" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="81" t="s">
         <v>347</v>
       </c>
-      <c r="F6" s="62">
-        <v>75.284999999999997</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="J11" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="K11" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="90">
-        <v>3.5633999999999999E-2</v>
-      </c>
-      <c r="J6" s="90">
-        <v>4.0664059999999997</v>
-      </c>
-      <c r="K6" s="90">
-        <v>0.74018600000000001</v>
-      </c>
-      <c r="L6" s="108">
-        <v>0.95307200000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="110"/>
-      <c r="C7" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="L11" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="E7" s="9" t="s">
+    </row>
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="100"/>
+      <c r="C12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="67">
-        <v>78.198999999999998</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="F12" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="I7" s="90">
-        <v>2.7397999999999999E-2</v>
-      </c>
-      <c r="J7" s="90">
-        <v>3.0058590000000001</v>
-      </c>
-      <c r="K7" s="90">
-        <v>0.46144299999999999</v>
-      </c>
-      <c r="L7" s="108">
-        <v>0.65849999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="110"/>
-      <c r="C8" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="H12" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="I12" s="81" t="s">
         <v>355</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="J12" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="K12" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="L12" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="I8" s="90" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="100"/>
+      <c r="C13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="E13" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="K8" s="90" t="s">
+      <c r="F13" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="G13" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="110"/>
-      <c r="C9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I13" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J13" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="K13" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="L13" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="K9" s="91" t="s">
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="100"/>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="L9" s="112" t="s">
+      <c r="G14" s="9" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="110"/>
-      <c r="C10" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="91" t="s">
+      <c r="I14" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J14" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K14" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L14" s="102" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="110"/>
-      <c r="C11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="9" t="s">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="100"/>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" s="91" t="s">
+      <c r="I15" s="81" t="s">
         <v>378</v>
       </c>
-      <c r="J11" s="91" t="s">
+      <c r="J15" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K15" s="81" t="s">
         <v>380</v>
       </c>
-      <c r="L11" s="112" t="s">
+      <c r="L15" s="102" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="110"/>
-      <c r="C12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="9" t="s">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="100"/>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I16" s="81" t="s">
         <v>385</v>
       </c>
-      <c r="I12" s="91" t="s">
+      <c r="J16" s="81" t="s">
         <v>386</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="K16" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="L16" s="102" t="s">
         <v>388</v>
       </c>
-      <c r="L12" s="112" t="s">
+    </row>
+    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="100"/>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="102" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="100"/>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="54">
+        <v>116.396</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="80">
+        <v>2.8590999999999998E-2</v>
+      </c>
+      <c r="J18" s="80">
+        <v>1.770508</v>
+      </c>
+      <c r="K18" s="80">
+        <v>0.35457300000000003</v>
+      </c>
+      <c r="L18" s="98">
+        <v>0.51488</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="100"/>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="54">
+        <v>115.672</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I19" s="80">
+        <v>5.7685E-2</v>
+      </c>
+      <c r="J19" s="80">
+        <v>4.1826169999999996</v>
+      </c>
+      <c r="K19" s="80">
+        <v>1.006526</v>
+      </c>
+      <c r="L19" s="98">
+        <v>1.2097070000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="100"/>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="54">
+        <v>115.748</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I20" s="80">
+        <v>5.2843000000000001E-2</v>
+      </c>
+      <c r="J20" s="80">
+        <v>3.9707029999999999</v>
+      </c>
+      <c r="K20" s="80">
+        <v>0.98486099999999999</v>
+      </c>
+      <c r="L20" s="98">
+        <v>1.187506</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="100"/>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="54">
+        <v>106.14100000000001</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="I21" s="80">
+        <v>5.6877999999999998E-2</v>
+      </c>
+      <c r="J21" s="80">
+        <v>3.7998050000000001</v>
+      </c>
+      <c r="K21" s="80">
+        <v>0.937585</v>
+      </c>
+      <c r="L21" s="98">
+        <v>1.1354690000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="100"/>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="54">
+        <v>121.124</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="I22" s="80">
+        <v>5.3012999999999998E-2</v>
+      </c>
+      <c r="J22" s="80">
+        <v>3.3876949999999999</v>
+      </c>
+      <c r="K22" s="80">
+        <v>0.85234799999999999</v>
+      </c>
+      <c r="L22" s="98">
+        <v>1.0446569999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="100"/>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="54">
+        <v>119.292</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" s="80">
+        <v>3.9681000000000001E-2</v>
+      </c>
+      <c r="J23" s="80">
+        <v>2.4667970000000001</v>
+      </c>
+      <c r="K23" s="80">
+        <v>0.68201999999999996</v>
+      </c>
+      <c r="L23" s="98">
+        <v>0.86349600000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="100"/>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="54">
+        <v>105.289</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="80">
+        <v>2.9992000000000001E-2</v>
+      </c>
+      <c r="J24" s="80">
+        <v>1.8515619999999999</v>
+      </c>
+      <c r="K24" s="80">
+        <v>0.35638399999999998</v>
+      </c>
+      <c r="L24" s="98">
+        <v>0.51713799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="100"/>
+      <c r="C25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="54">
+        <v>112.73099999999999</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I25" s="80">
+        <v>2.6869000000000001E-2</v>
+      </c>
+      <c r="J25" s="80">
+        <v>1.438477</v>
+      </c>
+      <c r="K25" s="80">
+        <v>0.26193</v>
+      </c>
+      <c r="L25" s="98">
+        <v>0.39257399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="100"/>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="54">
+        <v>112.18600000000001</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I26" s="80">
+        <v>1.7996000000000002E-2</v>
+      </c>
+      <c r="J26" s="80">
+        <v>0.89160200000000001</v>
+      </c>
+      <c r="K26" s="80">
+        <v>0.37113600000000002</v>
+      </c>
+      <c r="L26" s="98">
+        <v>0.48376200000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="100"/>
+      <c r="C27" s="30" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="110"/>
-      <c r="C13" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="D27" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>396</v>
-      </c>
-      <c r="K13" s="91" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="112" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="110"/>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>402</v>
-      </c>
-      <c r="J14" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>404</v>
-      </c>
-      <c r="L14" s="112" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="110"/>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>409</v>
-      </c>
-      <c r="J15" s="91" t="s">
+      <c r="F27" s="55">
+        <v>435.99</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="91" t="s">
+      <c r="H27" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="110"/>
-      <c r="C16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>417</v>
-      </c>
-      <c r="K16" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="110"/>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>431</v>
-      </c>
-      <c r="J17" s="91" t="s">
-        <v>432</v>
-      </c>
-      <c r="K17" s="91" t="s">
-        <v>433</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="110"/>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="F18" s="62">
-        <v>116.396</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="90">
-        <v>2.8590999999999998E-2</v>
-      </c>
-      <c r="J18" s="90">
-        <v>1.770508</v>
-      </c>
-      <c r="K18" s="90">
-        <v>0.35457300000000003</v>
-      </c>
-      <c r="L18" s="108">
-        <v>0.51488</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="110"/>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="62">
-        <v>115.672</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="I19" s="90">
-        <v>5.7685E-2</v>
-      </c>
-      <c r="J19" s="90">
-        <v>4.1826169999999996</v>
-      </c>
-      <c r="K19" s="90">
-        <v>1.006526</v>
-      </c>
-      <c r="L19" s="108">
-        <v>1.2097070000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="110"/>
-      <c r="C20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="62">
-        <v>115.748</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="I20" s="90">
-        <v>5.2843000000000001E-2</v>
-      </c>
-      <c r="J20" s="90">
-        <v>3.9707029999999999</v>
-      </c>
-      <c r="K20" s="90">
-        <v>0.98486099999999999</v>
-      </c>
-      <c r="L20" s="108">
-        <v>1.187506</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="110"/>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F21" s="62">
-        <v>106.14100000000001</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="I21" s="90">
-        <v>5.6877999999999998E-2</v>
-      </c>
-      <c r="J21" s="90">
-        <v>3.7998050000000001</v>
-      </c>
-      <c r="K21" s="90">
-        <v>0.937585</v>
-      </c>
-      <c r="L21" s="108">
-        <v>1.1354690000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="110"/>
-      <c r="C22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="62">
-        <v>121.124</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="I22" s="90">
-        <v>5.3012999999999998E-2</v>
-      </c>
-      <c r="J22" s="90">
-        <v>3.3876949999999999</v>
-      </c>
-      <c r="K22" s="90">
-        <v>0.85234799999999999</v>
-      </c>
-      <c r="L22" s="108">
-        <v>1.0446569999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="110"/>
-      <c r="C23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" s="62">
-        <v>119.292</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="I23" s="90">
-        <v>3.9681000000000001E-2</v>
-      </c>
-      <c r="J23" s="90">
-        <v>2.4667970000000001</v>
-      </c>
-      <c r="K23" s="90">
-        <v>0.68201999999999996</v>
-      </c>
-      <c r="L23" s="108">
-        <v>0.86349600000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="110"/>
-      <c r="C24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F24" s="62">
-        <v>105.289</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="I24" s="90">
-        <v>2.9992000000000001E-2</v>
-      </c>
-      <c r="J24" s="90">
-        <v>1.8515619999999999</v>
-      </c>
-      <c r="K24" s="90">
-        <v>0.35638399999999998</v>
-      </c>
-      <c r="L24" s="108">
-        <v>0.51713799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="110"/>
-      <c r="C25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25" s="62">
-        <v>112.73099999999999</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I25" s="90">
-        <v>2.6869000000000001E-2</v>
-      </c>
-      <c r="J25" s="90">
-        <v>1.438477</v>
-      </c>
-      <c r="K25" s="90">
-        <v>0.26193</v>
-      </c>
-      <c r="L25" s="108">
-        <v>0.39257399999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="110"/>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="62">
-        <v>112.18600000000001</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="I26" s="90">
-        <v>1.7996000000000002E-2</v>
-      </c>
-      <c r="J26" s="90">
-        <v>0.89160200000000001</v>
-      </c>
-      <c r="K26" s="90">
-        <v>0.37113600000000002</v>
-      </c>
-      <c r="L26" s="108">
-        <v>0.48376200000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="110"/>
-      <c r="C27" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="F27" s="63">
-        <v>435.99</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="I27" s="90">
+      <c r="I27" s="80">
         <v>5.9480999999999999E-2</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="80">
         <v>0.84179700000000002</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="80">
         <v>0.32552700000000001</v>
       </c>
-      <c r="L27" s="108">
+      <c r="L27" s="98">
         <v>0.42815399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="110"/>
+    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="100"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="113"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="103"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="27">
+    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
+    </row>
+    <row r="30" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="26">
         <v>512</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="65">
+      <c r="D30" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="57">
         <v>87.600999999999999</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="56">
+      <c r="G30" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="48">
         <v>4.3451999999999998E-2</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="48">
         <v>5.3554690000000003</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="48">
         <v>38.514884000000002</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="50">
         <v>39.927731999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="62">
+        <v>85</v>
+      </c>
+      <c r="F31" s="54">
         <v>100.911</v>
       </c>
-      <c r="G31" s="41" t="s">
-        <v>118</v>
+      <c r="G31" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="50">
+        <v>86</v>
+      </c>
+      <c r="I31" s="42">
         <v>4.6648000000000002E-2</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="42">
         <v>5.8554690000000003</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="42">
         <v>38.810318000000002</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="43">
         <v>40.237515000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="23"/>
       <c r="D32" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="62">
+        <v>35</v>
+      </c>
+      <c r="F32" s="54">
         <v>97.301000000000002</v>
       </c>
-      <c r="G32" s="41" t="s">
-        <v>119</v>
+      <c r="G32" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="50">
+        <v>58</v>
+      </c>
+      <c r="I32" s="42">
         <v>4.8258000000000002E-2</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="42">
         <v>5.9511719999999997</v>
       </c>
-      <c r="K32" s="50">
+      <c r="K32" s="42">
         <v>41.467312999999997</v>
       </c>
-      <c r="L32" s="51">
+      <c r="L32" s="43">
         <v>42.983353999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="62">
+        <v>93</v>
+      </c>
+      <c r="F33" s="54">
         <v>97.653000000000006</v>
       </c>
-      <c r="G33" s="41" t="s">
-        <v>126</v>
+      <c r="G33" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I33" s="50">
+        <v>94</v>
+      </c>
+      <c r="I33" s="42">
         <v>4.8815999999999998E-2</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="42">
         <v>6.046875</v>
       </c>
-      <c r="K33" s="50">
+      <c r="K33" s="42">
         <v>38.334111</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="43">
         <v>39.737543000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="62">
+        <v>96</v>
+      </c>
+      <c r="F34" s="54">
         <v>96.74</v>
       </c>
-      <c r="G34" s="41" t="s">
-        <v>129</v>
+      <c r="G34" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="50">
+        <v>97</v>
+      </c>
+      <c r="I34" s="42">
         <v>4.3317000000000001E-2</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="42">
         <v>5.7050780000000003</v>
       </c>
-      <c r="K34" s="50">
+      <c r="K34" s="42">
         <v>39.329030000000003</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="43">
         <v>40.766568999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="62">
+        <v>99</v>
+      </c>
+      <c r="F35" s="54">
         <v>130.62799999999999</v>
       </c>
-      <c r="G35" s="41" t="s">
-        <v>131</v>
+      <c r="G35" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="50">
+        <v>94</v>
+      </c>
+      <c r="I35" s="42">
         <v>3.7630999999999998E-2</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="42">
         <v>4.34375</v>
       </c>
-      <c r="K35" s="50">
+      <c r="K35" s="42">
         <v>39.770735999999999</v>
       </c>
-      <c r="L35" s="51">
+      <c r="L35" s="43">
         <v>41.224938999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="41"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="62">
+        <v>43</v>
+      </c>
+      <c r="F37" s="54">
         <v>176.667</v>
       </c>
-      <c r="G37" s="41" t="s">
-        <v>75</v>
+      <c r="G37" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="50">
+        <v>101</v>
+      </c>
+      <c r="I37" s="42">
         <v>5.9753000000000001E-2</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="42">
         <v>4.2197269999999998</v>
       </c>
-      <c r="K37" s="50">
+      <c r="K37" s="42">
         <v>23.500529</v>
       </c>
-      <c r="L37" s="51">
+      <c r="L37" s="43">
         <v>24.330231999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="62">
+        <v>45</v>
+      </c>
+      <c r="F38" s="54">
         <v>184.636</v>
       </c>
-      <c r="G38" s="41" t="s">
-        <v>78</v>
+      <c r="G38" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="50">
+        <v>46</v>
+      </c>
+      <c r="I38" s="42">
         <v>6.3125000000000001E-2</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="42">
         <v>4.4443359999999998</v>
       </c>
-      <c r="K38" s="50">
+      <c r="K38" s="42">
         <v>23.485074999999998</v>
       </c>
-      <c r="L38" s="51">
+      <c r="L38" s="43">
         <v>24.325042</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="62">
+        <v>48</v>
+      </c>
+      <c r="F39" s="54">
         <v>191.24600000000001</v>
       </c>
-      <c r="G39" s="41" t="s">
-        <v>80</v>
+      <c r="G39" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="50">
+        <v>105</v>
+      </c>
+      <c r="I39" s="42">
         <v>5.4815999999999997E-2</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="42">
         <v>3.9296880000000001</v>
       </c>
-      <c r="K39" s="50">
+      <c r="K39" s="42">
         <v>24.379484999999999</v>
       </c>
-      <c r="L39" s="51">
+      <c r="L39" s="43">
         <v>25.240195</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="62">
+        <v>106</v>
+      </c>
+      <c r="F40" s="54">
         <v>175.65700000000001</v>
       </c>
-      <c r="G40" s="41" t="s">
-        <v>139</v>
+      <c r="G40" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="50">
+        <v>107</v>
+      </c>
+      <c r="I40" s="42">
         <v>5.9631999999999998E-2</v>
       </c>
-      <c r="J40" s="50">
+      <c r="J40" s="42">
         <v>4.3730469999999997</v>
       </c>
-      <c r="K40" s="50">
+      <c r="K40" s="42">
         <v>23.324776</v>
       </c>
-      <c r="L40" s="51">
+      <c r="L40" s="43">
         <v>24.156462999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="50">
+        <v>112</v>
+      </c>
+      <c r="I41" s="42">
         <v>4.6205999999999997E-2</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="42">
         <v>3.4033199999999999</v>
       </c>
-      <c r="K41" s="50">
+      <c r="K41" s="42">
         <v>24.527149000000001</v>
       </c>
-      <c r="L41" s="51">
+      <c r="L41" s="43">
         <v>25.401681</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="61">
+        <v>111</v>
+      </c>
+      <c r="F42" s="53">
         <v>229.69399999999999</v>
       </c>
-      <c r="G42" s="41" t="s">
-        <v>146</v>
+      <c r="G42" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="50">
+        <v>114</v>
+      </c>
+      <c r="I42" s="42">
         <v>5.3649000000000002E-2</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="42">
         <v>3.598633</v>
       </c>
-      <c r="K42" s="50">
+      <c r="K42" s="42">
         <v>25.165087</v>
       </c>
-      <c r="L42" s="51">
+      <c r="L42" s="43">
         <v>26.055175999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="41"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="50">
+        <v>74</v>
+      </c>
+      <c r="I44" s="42">
         <v>3.2597000000000001E-2</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="42">
         <v>7.0898440000000003</v>
       </c>
-      <c r="K44" s="50">
+      <c r="K44" s="42">
         <v>64.166327999999993</v>
       </c>
-      <c r="L44" s="51">
+      <c r="L44" s="43">
         <v>66.594944999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="64" t="s">
-        <v>157</v>
+        <v>37</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" s="54">
+        <v>51</v>
+      </c>
+      <c r="I45" s="46">
         <v>3.0567E-2</v>
       </c>
-      <c r="J45" s="54">
+      <c r="J45" s="46">
         <v>6.5117190000000003</v>
       </c>
-      <c r="K45" s="54">
+      <c r="K45" s="46">
         <v>63.108451000000002</v>
       </c>
-      <c r="L45" s="55">
+      <c r="L45" s="47">
         <v>65.475786999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="27">
+    <row r="46" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="26">
         <v>512</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D46" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="64">
+        <v>66</v>
+      </c>
+      <c r="F48" s="56">
         <v>276.767</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H48" s="12">
         <v>0.74219999999999997</v>
       </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-    </row>
-    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="F49" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
-    </row>
-    <row r="50" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="40"/>
+        <v>60</v>
+      </c>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
+    </row>
+    <row r="50" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="67"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B51" s="40"/>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="67"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B52" s="40"/>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B52" s="33"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="67"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="54" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="55" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
@@ -4694,201 +4707,201 @@
       <c r="E55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="52" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="48" t="s">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="L55"/>
-      <c r="N55" s="47"/>
+      <c r="N55" s="40"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="68" t="s">
-        <v>148</v>
+      <c r="E56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I56" s="52">
+        <v>65</v>
+      </c>
+      <c r="I56" s="44">
         <v>0.92674636718750003</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="45">
         <v>1552.2148380078127</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="47"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="40"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="69" t="s">
-        <v>149</v>
+      <c r="E57" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H57" s="9">
         <v>0.1366</v>
       </c>
-      <c r="I57" s="50">
+      <c r="I57" s="42">
         <v>0.93383382926829284</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="43">
         <v>959.35738732926814</v>
       </c>
-      <c r="L57" s="37"/>
-      <c r="N57" s="47"/>
+      <c r="L57" s="32"/>
+      <c r="N57" s="40"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="69" t="s">
-        <v>147</v>
+      <c r="E58" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="H58" s="9">
         <v>0.15429999999999999</v>
       </c>
-      <c r="I58" s="50">
+      <c r="I58" s="42">
         <v>0.93089420898437492</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="43">
         <v>759.41117067382811</v>
       </c>
-      <c r="L58" s="37"/>
-      <c r="N58" s="47"/>
+      <c r="L58" s="32"/>
+      <c r="N58" s="40"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="69" t="s">
-        <v>150</v>
+      <c r="E59" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H59" s="9">
         <v>0.15759999999999999</v>
       </c>
-      <c r="I59" s="50">
+      <c r="I59" s="42">
         <v>0.92753643229166649</v>
       </c>
-      <c r="J59" s="51">
+      <c r="J59" s="43">
         <v>496.55552293619786</v>
       </c>
-      <c r="L59" s="37"/>
-      <c r="N59" s="47"/>
+      <c r="L59" s="32"/>
+      <c r="N59" s="40"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>151</v>
+      <c r="E60" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>120</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="H60" s="9">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I60" s="50">
+      <c r="I60" s="42">
         <v>0.923783623046875</v>
       </c>
-      <c r="J60" s="51">
+      <c r="J60" s="43">
         <v>366.92786240722654</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="N60" s="47"/>
+      <c r="L60" s="32"/>
+      <c r="N60" s="40"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>154</v>
-      </c>
       <c r="G61" s="12" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="54">
+        <v>104</v>
+      </c>
+      <c r="I61" s="46">
         <v>0.92156156494140629</v>
       </c>
-      <c r="J61" s="55">
+      <c r="J61" s="47">
         <v>178.14654615722654</v>
       </c>
-      <c r="L61" s="37"/>
-      <c r="N61" s="47"/>
+      <c r="L61" s="32"/>
+      <c r="N61" s="40"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L62"/>
-      <c r="N62" s="47"/>
+      <c r="N62" s="40"/>
       <c r="R62"/>
     </row>
-    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="65" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="17" t="s">
         <v>14</v>
       </c>
@@ -4901,184 +4914,386 @@
       <c r="E65" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="52" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+      <c r="I65" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="F66" s="116">
+        <v>89.147000000000006</v>
+      </c>
+      <c r="G66" s="73"/>
+      <c r="H66" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="I66" s="112">
+        <v>1525232</v>
+      </c>
+      <c r="J66" s="44">
+        <v>5738.8126160000002</v>
+      </c>
+      <c r="K66" s="45">
+        <v>5969.4889999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+      <c r="C67" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D67" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="58"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="3"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="30" t="s">
+      <c r="E67" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="F67" s="58">
+        <v>89.147000000000006</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I67" s="113">
+        <v>3048689</v>
+      </c>
+      <c r="J67" s="42">
+        <v>5738.8126160000002</v>
+      </c>
+      <c r="K67" s="43">
+        <v>5969.4889999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F68" s="58">
+        <v>89.147000000000006</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I68" s="113">
+        <v>6112923</v>
+      </c>
+      <c r="J68" s="42">
+        <v>5738.8126160000002</v>
+      </c>
+      <c r="K68" s="43">
+        <v>5969.4889999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="51"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="3"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="51"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="3"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="51"/>
-    </row>
-    <row r="70" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E69" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F69" s="54">
+        <v>86</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="I69" s="113">
+        <v>742793</v>
+      </c>
+      <c r="J69" s="42">
+        <v>2780.2995059999998</v>
+      </c>
+      <c r="K69" s="43">
+        <v>2892.056</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="51"/>
-    </row>
-    <row r="71" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F70" s="54">
+        <v>86</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="I70" s="117">
+        <v>1483192</v>
+      </c>
+      <c r="J70" s="42">
+        <v>2780.2995059999998</v>
+      </c>
+      <c r="K70" s="43">
+        <v>2892.056</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="51"/>
-    </row>
-    <row r="72" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C71" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F71" s="54">
+        <v>86</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I71" s="117">
+        <v>2965049</v>
+      </c>
+      <c r="J71" s="42">
+        <v>2780.2995059999998</v>
+      </c>
+      <c r="K71" s="43">
+        <v>2892.056</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="C72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="51"/>
-    </row>
-    <row r="73" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F72" s="54">
+        <v>94.135999999999996</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="I72" s="117">
+        <v>358966</v>
+      </c>
+      <c r="J72" s="42">
+        <v>1351.4608720000001</v>
+      </c>
+      <c r="K72" s="43">
+        <v>1405.7739999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="51"/>
-    </row>
-    <row r="74" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F73" s="54">
+        <v>94.135999999999996</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I73" s="117">
+        <v>718931</v>
+      </c>
+      <c r="J73" s="42">
+        <v>1351.4608720000001</v>
+      </c>
+      <c r="K73" s="43">
+        <v>1405.7739999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="10" t="s">
+      <c r="C74" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F74" s="54">
+        <v>94.135999999999996</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="I74" s="117">
+        <v>1438068</v>
+      </c>
+      <c r="J74" s="42">
+        <v>1351.4608720000001</v>
+      </c>
+      <c r="K74" s="43">
+        <v>1405.7739999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="51"/>
-    </row>
-    <row r="75" spans="2:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="3"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="51"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="4"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="51"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="D75" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F75" s="54">
+        <v>162.25399999999999</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="I75" s="117">
+        <v>348567</v>
+      </c>
+      <c r="J75" s="42">
+        <v>1311.6556230000001</v>
+      </c>
+      <c r="K75" s="43">
+        <v>1364.3679999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F76" s="58">
+        <v>162.25399999999999</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="I76" s="117">
+        <v>698169</v>
+      </c>
+      <c r="J76" s="42">
+        <v>1311.6556230000001</v>
+      </c>
+      <c r="K76" s="43">
+        <v>1364.3679999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="11">
+        <v>1024</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F77" s="56">
+        <v>162.25399999999999</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="I77" s="118">
+        <v>1394683</v>
+      </c>
+      <c r="J77" s="46">
+        <v>1311.6556230000001</v>
+      </c>
+      <c r="K77" s="47">
+        <v>1364.3679999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="123" t="s">
+        <v>616</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F78" s="53">
+        <v>4514.32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="11">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5087,31 +5302,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:L59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.35546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="37"/>
-    <col min="9" max="9" width="12.2109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.35546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="37"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5125,945 +5340,945 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="L3" s="68">
+        <v>11.252262999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>587</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="L3" s="78">
-        <v>11.252262999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="77" t="s">
-        <v>104</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>593</v>
+        <v>149</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>558</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="L4" s="80">
+        <v>563</v>
+      </c>
+      <c r="L4" s="70">
         <v>11.140643000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>173</v>
+        <v>141</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>142</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="80">
+        <v>147</v>
+      </c>
+      <c r="L5" s="70">
         <v>9.8515969999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>182</v>
+        <v>150</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>151</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" s="80">
+        <v>157</v>
+      </c>
+      <c r="L6" s="70">
         <v>9.4808599999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="21" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>190</v>
+        <v>158</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="80">
+        <v>165</v>
+      </c>
+      <c r="L7" s="70">
         <v>9.1406500000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="K8" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8" s="80">
+        <v>172</v>
+      </c>
+      <c r="L8" s="70">
         <v>9.3080250000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>218</v>
+        <v>186</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="L9" s="80">
+        <v>193</v>
+      </c>
+      <c r="L9" s="70">
         <v>9.5086440000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>226</v>
+        <v>194</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>195</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="L10" s="80">
+      <c r="L10" s="70">
         <v>9.2173940000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>210</v>
+        <v>178</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>179</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="80">
+        <v>185</v>
+      </c>
+      <c r="L11" s="70">
         <v>9.3302200000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="19" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>204</v>
+        <v>149</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="80">
+        <v>177</v>
+      </c>
+      <c r="L12" s="70">
         <v>10.249644999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="79"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="80"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L13" s="70"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>231</v>
+        <v>141</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>200</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="80">
+        <v>205</v>
+      </c>
+      <c r="L14" s="70">
         <v>8.8521920000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>237</v>
+        <v>150</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>206</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="L15" s="80">
+        <v>212</v>
+      </c>
+      <c r="L15" s="70">
         <v>8.6582709999999992</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>244</v>
+        <v>158</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>213</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="80">
+        <v>219</v>
+      </c>
+      <c r="L16" s="70">
         <v>8.2937639999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>251</v>
+        <v>148</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>220</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="80">
+        <v>226</v>
+      </c>
+      <c r="L17" s="70">
         <v>7.9015250000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>259</v>
+        <v>227</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>228</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L18" s="80">
+        <v>234</v>
+      </c>
+      <c r="L18" s="70">
         <v>8.0570470000000007</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>266</v>
+        <v>186</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>235</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="L19" s="80">
+        <v>240</v>
+      </c>
+      <c r="L19" s="70">
         <v>8.6475899999999992</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="79" t="s">
-        <v>158</v>
+        <v>194</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>127</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="80">
+        <v>244</v>
+      </c>
+      <c r="L20" s="70">
         <v>8.2714970000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="70">
+        <v>7.9651800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="79">
+        <v>8.1066570000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L23" s="79">
+        <v>8.6240129999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L24" s="79">
+        <v>9.1514419999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="L25" s="79">
+        <v>9.4035360000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="E26" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" s="80">
-        <v>7.9651800000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="85" t="s">
+      <c r="F26" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="G26" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="H22" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="I22" s="35" t="s">
+      <c r="H26" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="I26" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="J26" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="L22" s="89">
-        <v>8.1066570000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="K26" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="L26" s="79">
+        <v>9.3266139999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F27" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G27" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="H23" s="88" t="s">
+      <c r="H27" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I27" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J27" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K27" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="L23" s="89">
-        <v>8.6240129999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="3"/>
-      <c r="C24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="L24" s="89">
-        <v>9.1514419999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="3"/>
-      <c r="C25" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="85" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="H25" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="L25" s="89">
-        <v>9.4035360000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="3"/>
-      <c r="C26" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="85" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="H26" s="88" t="s">
-        <v>312</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="L26" s="89">
-        <v>9.3266139999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="3"/>
-      <c r="C27" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="L27" s="89">
+      <c r="L27" s="79">
         <v>9.3325370000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>324</v>
+        <v>292</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>293</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>327</v>
+        <v>295</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>296</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L28" s="82">
+        <v>299</v>
+      </c>
+      <c r="L28" s="72">
         <v>11.762981</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="40"/>
+    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>338</v>
+        <v>303</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="L29">
         <v>8.6618650000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="40"/>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>426</v>
+        <v>392</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>395</v>
       </c>
       <c r="L30">
         <v>5.5183460000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="40"/>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="35" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>9</v>
       </c>
@@ -6083,10 +6298,16 @@
         <v>6</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="18" t="s">
         <v>7</v>
@@ -6096,31 +6317,47 @@
         <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
-      <c r="C38" s="26" t="s">
-        <v>48</v>
+      <c r="C38" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="21" t="s">
         <v>11</v>
@@ -6130,216 +6367,326 @@
         <v>12</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="38">
+        <v>31</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="H40" s="9">
         <v>0.3639</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I40" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="11" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="39">
-        <v>0.39599609375</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>590</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="89" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J47" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="C49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D49" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="30" t="s">
+      <c r="E49" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E51" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-    </row>
-    <row r="53" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C53" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="3"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="4"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" spans="2:8" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="D57" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="11">
+        <v>1024</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,29 +6695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -6384,251 +6731,251 @@
         <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>526</v>
+        <v>494</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>495</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>534</v>
+        <v>502</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>503</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="G6" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="J6" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>490</v>
+        <v>458</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>512</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" t="s">
-        <v>355</v>
+        <v>323</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>324</v>
       </c>
       <c r="E8" s="9">
         <v>2565.31</v>
       </c>
-      <c r="F8" t="s">
-        <v>456</v>
+      <c r="F8" s="113" t="s">
+        <v>425</v>
       </c>
       <c r="G8" s="9">
         <v>0.9375</v>
@@ -6646,57 +6993,57 @@
         <v>16.291819</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>375</v>
+        <v>261</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>457</v>
+        <v>424</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="8">
         <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>467</v>
+        <v>269</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="E10" s="9">
         <v>1348.1949999999999</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.9375</v>
       </c>
       <c r="H10" s="9">
@@ -6712,270 +7059,308 @@
         <v>16.271578999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>456</v>
+        <v>431</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>581</v>
+        <v>545</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>546</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>499</v>
+        <v>467</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>499</v>
+        <v>482</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="4"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="8">
+    </row>
+    <row r="17" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="K17" s="120" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="121" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="5">
+        <v>256</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E18" s="6">
+        <v>24067.455000000002</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>613</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.4420000000000002E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>496.15234400000003</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.97198300000000004</v>
+      </c>
+      <c r="K18" s="7">
+        <v>42.559880999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="119"/>
+      <c r="B19" s="11">
         <v>512</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E19" s="12">
         <v>25532.294000000002</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="12">
         <v>0.96679999999999999</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="12">
         <v>2.9420000000000002E-3</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="12">
         <v>361.05078099999997</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="12">
         <v>0.99988200000000005</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="13">
         <v>35.977034000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="22" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -6985,95 +7370,95 @@
       <c r="C22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G22" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="93" t="s">
-        <v>140</v>
+      <c r="D23" s="83" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>26</v>
+        <v>480</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="94" t="s">
-        <v>141</v>
+      <c r="D24" s="84" t="s">
+        <v>110</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="95" t="s">
-        <v>106</v>
+      <c r="D25" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="G25" s="9">
         <v>0.54490000000000005</v>
@@ -7085,74 +7470,84 @@
         <v>3063.6552729999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="96" t="s">
-        <v>114</v>
+      <c r="D26" s="86" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D27" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="97" t="s">
-        <v>133</v>
+      <c r="D28" s="87" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="33" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -7169,366 +7564,392 @@
         <v>5</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="H34">
+        <v>22</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>586</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112">
         <f>1729.72685/256</f>
         <v>6.7567455078125001</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="112">
         <f>23532644</f>
         <v>23532644</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="112">
         <v>70174.678220000002</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="68">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113">
+        <f>5217.34207/512</f>
+        <v>10.190121230468749</v>
+      </c>
+      <c r="I35" s="113">
+        <v>47873377</v>
+      </c>
+      <c r="J35" s="113">
+        <v>70174.678220000002</v>
+      </c>
+      <c r="K35" s="70">
+        <v>94158.456999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113">
+        <f>16866.06394/1024</f>
+        <v>16.47076556640625</v>
+      </c>
+      <c r="I36" s="113">
+        <v>95524137</v>
+      </c>
+      <c r="J36" s="113">
+        <v>70174.678220000002</v>
+      </c>
+      <c r="K36" s="70">
+        <v>94158.456999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="H35">
+      <c r="D37" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113">
         <f>774.651865/256</f>
         <v>3.0259838476562502</v>
       </c>
-      <c r="I35">
+      <c r="I37" s="113">
         <v>10522905</v>
       </c>
-      <c r="J35">
+      <c r="J37" s="113">
         <v>31484.821538</v>
       </c>
-      <c r="K35">
+      <c r="K37" s="70">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="H36">
+    <row r="38" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113">
+        <f>2327.193619/512</f>
+        <v>4.5453000371093752</v>
+      </c>
+      <c r="I38" s="113">
+        <v>21364436</v>
+      </c>
+      <c r="J38" s="113">
+        <v>31484.821538</v>
+      </c>
+      <c r="K38" s="70">
+        <v>42242.044000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8">
+        <v>1024</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113">
+        <f>7465.023822/1024</f>
+        <v>7.2900623261718751</v>
+      </c>
+      <c r="I39" s="113">
+        <v>42388561</v>
+      </c>
+      <c r="J39" s="113">
+        <v>31484.821538</v>
+      </c>
+      <c r="K39" s="70">
+        <v>42242.044000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113">
         <f>337.049103/256</f>
         <v>1.31659805859375</v>
       </c>
-      <c r="I36">
+      <c r="I40" s="113">
         <v>4542546</v>
       </c>
-      <c r="J36">
+      <c r="J40" s="113">
         <v>13528.102902000001</v>
       </c>
-      <c r="K36">
+      <c r="K40" s="70">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="H37">
-        <f>5217.34207/512</f>
-        <v>10.190121230468749</v>
-      </c>
-      <c r="I37">
-        <v>47873377</v>
-      </c>
-      <c r="J37">
-        <v>70174.678220000002</v>
-      </c>
-      <c r="K37">
-        <v>94158.456999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="H38">
-        <f>2327.193619/512</f>
-        <v>4.5453000371093752</v>
-      </c>
-      <c r="I38">
-        <v>21364436</v>
-      </c>
-      <c r="J38">
-        <v>31484.821538</v>
-      </c>
-      <c r="K38">
-        <v>42242.044000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="H39">
+    <row r="41" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113">
         <f>979.899104/512</f>
         <v>1.9138654374999999</v>
       </c>
-      <c r="I39">
+      <c r="I41" s="113">
         <v>9042389</v>
       </c>
-      <c r="J39">
+      <c r="J41" s="113">
         <v>13528.102902000001</v>
       </c>
-      <c r="K39">
+      <c r="K41" s="70">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="H40">
-        <f>16866.06394/1024</f>
-        <v>16.47076556640625</v>
-      </c>
-      <c r="I40">
-        <v>95524137</v>
-      </c>
-      <c r="J40">
-        <v>70174.678220000002</v>
-      </c>
-      <c r="K40">
-        <v>94158.456999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="H41">
-        <f>7465.023822/1024</f>
-        <v>7.2900623261718751</v>
-      </c>
-      <c r="I41">
-        <v>42388561</v>
-      </c>
-      <c r="J41">
-        <v>31484.821538</v>
-      </c>
-      <c r="K41">
-        <v>42242.044000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="H42">
+      <c r="B42" s="8">
+        <v>1024</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113">
         <f>3144.197842/1024</f>
         <v>3.070505705078125</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="113">
         <v>17908989</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="113">
         <v>13528.102902000001</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="70">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="H43">
+      <c r="B43" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113">
         <f>281.212133/256</f>
         <v>1.09848489453125</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="113">
         <v>3800925</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="113">
         <v>11038.054274</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="70">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="H44">
+    <row r="44" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113">
         <f>825.961829/512</f>
         <v>1.6132066972656249</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="113">
         <v>7614904</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="113">
         <v>11038.054274</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="70">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
       <c r="B45" s="11">
         <v>1024</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="H45">
+      <c r="C45" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114">
         <f>2637.727072/1024</f>
         <v>2.5759053437500001</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="114">
         <v>15047827</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="114">
         <v>11038.054274</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="72">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="621">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1935,6 +1935,20 @@
   </si>
   <si>
     <t>256*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>524352</t>
+  </si>
+  <si>
+    <t>11.964948</t>
+  </si>
+  <si>
+    <t>128*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>262208 bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1946,7 +1960,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2011,7 +2025,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2700,11 +2714,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2860,17 +2883,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3143,7 +3167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3153,9 +3177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5282,15 +5306,33 @@
       <c r="F78" s="53">
         <v>4514.32</v>
       </c>
+      <c r="H78" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="I78" s="49">
+        <v>676836</v>
+      </c>
+      <c r="J78" s="49">
+        <v>2540.9789719999999</v>
+      </c>
+      <c r="K78" s="49">
+        <v>2643.085</v>
+      </c>
     </row>
     <row r="79" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C79" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="E79" s="32" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="80" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="11">
         <v>1024</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="81" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5303,12 +5345,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L60"/>
+  <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6686,7 +6728,48 @@
       <c r="J59" s="12"/>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>256</v>
+      </c>
+      <c r="D60" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="E60" t="s">
+        <v>620</v>
+      </c>
+      <c r="F60">
+        <v>6421.3505999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C61" s="124">
+        <v>512</v>
+      </c>
+      <c r="D61" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="E61" t="s">
+        <v>620</v>
+      </c>
+      <c r="F61">
+        <v>6421.3505999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C62" s="124">
+        <v>1024</v>
+      </c>
+      <c r="D62" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="E62" t="s">
+        <v>620</v>
+      </c>
+      <c r="F62">
+        <v>6421.3505999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4563E52-CC44-4820-B1DA-E2D8AFC4B74E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId2"/>
     <sheet name="webdocs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="663">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +148,6 @@
     <t>301.264</t>
   </si>
   <si>
-    <t>estimate after count all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>540.7576</t>
   </si>
   <si>
@@ -1950,12 +1952,142 @@
   <si>
     <t>262208 bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.4994</t>
+  </si>
+  <si>
+    <t>4.385094</t>
+  </si>
+  <si>
+    <t>1854697</t>
+  </si>
+  <si>
+    <t>3565.237658</t>
+  </si>
+  <si>
+    <t>7307.157</t>
+  </si>
+  <si>
+    <t>7.068561</t>
+  </si>
+  <si>
+    <t>3706812</t>
+  </si>
+  <si>
+    <t>12.503989</t>
+  </si>
+  <si>
+    <t>7424019</t>
+  </si>
+  <si>
+    <t>117.920</t>
+  </si>
+  <si>
+    <t>9.436521</t>
+  </si>
+  <si>
+    <t>4002099</t>
+  </si>
+  <si>
+    <t>7654.682936</t>
+  </si>
+  <si>
+    <t>15.245688</t>
+  </si>
+  <si>
+    <t>8004384</t>
+  </si>
+  <si>
+    <t>26.933827</t>
+  </si>
+  <si>
+    <t>16010887</t>
+  </si>
+  <si>
+    <t>116.760</t>
+  </si>
+  <si>
+    <t>1.976122</t>
+  </si>
+  <si>
+    <t>840198</t>
+  </si>
+  <si>
+    <t>1612.810983</t>
+  </si>
+  <si>
+    <t>3.208751</t>
+  </si>
+  <si>
+    <t>1682802</t>
+  </si>
+  <si>
+    <t>5.625538</t>
+  </si>
+  <si>
+    <t>3352995</t>
+  </si>
+  <si>
+    <t>224.410</t>
+  </si>
+  <si>
+    <t>1.752560</t>
+  </si>
+  <si>
+    <t>743516</t>
+  </si>
+  <si>
+    <t>1437.782395</t>
+  </si>
+  <si>
+    <t>5.036782</t>
+  </si>
+  <si>
+    <t>2997735</t>
+  </si>
+  <si>
+    <t>2.884468</t>
+  </si>
+  <si>
+    <t>1505642</t>
+  </si>
+  <si>
+    <t>116.760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2931.044</t>
+  </si>
+  <si>
+    <t>3.250072</t>
+  </si>
+  <si>
+    <t>1372240</t>
+  </si>
+  <si>
+    <t>2620.265336</t>
+  </si>
+  <si>
+    <t>5371.083</t>
+  </si>
+  <si>
+    <t>5.203944</t>
+  </si>
+  <si>
+    <t>2733194</t>
+  </si>
+  <si>
+    <t>9.222526</t>
+  </si>
+  <si>
+    <t>5477711</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
@@ -2025,7 +2157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2318,19 +2450,6 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -2714,20 +2833,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2757,28 +2867,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2791,7 +2893,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2820,66 +2922,66 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -2887,14 +2989,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3167,969 +3269,969 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.625" style="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.35546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.78515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.640625" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.640625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="92" t="s">
+      <c r="F1" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="97" t="s">
-        <v>50</v>
+      <c r="L1" s="88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="54">
+      <c r="F2" s="46">
         <v>68.988</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="72">
+        <v>5.0998000000000002E-2</v>
+      </c>
+      <c r="J2" s="72">
+        <v>6.3066409999999999</v>
+      </c>
+      <c r="K2" s="72">
+        <v>0.99877400000000005</v>
+      </c>
+      <c r="L2" s="90">
+        <v>1.2280059999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="51">
+        <v>67.989000000000004</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="I2" s="80">
-        <v>5.0998000000000002E-2</v>
-      </c>
-      <c r="J2" s="80">
-        <v>6.3066409999999999</v>
-      </c>
-      <c r="K2" s="80">
-        <v>0.99877400000000005</v>
-      </c>
-      <c r="L2" s="98">
-        <v>1.2280059999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="99" t="s">
+      <c r="H3" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="72">
+        <v>4.4520999999999998E-2</v>
+      </c>
+      <c r="J3" s="72">
+        <v>5.5839840000000001</v>
+      </c>
+      <c r="K3" s="72">
+        <v>0.98032600000000003</v>
+      </c>
+      <c r="L3" s="90">
+        <v>1.207481</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="59">
-        <v>67.989000000000004</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="C4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="46">
+        <v>65.625</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="80">
-        <v>4.4520999999999998E-2</v>
-      </c>
-      <c r="J3" s="80">
-        <v>5.5839840000000001</v>
-      </c>
-      <c r="K3" s="80">
-        <v>0.98032600000000003</v>
-      </c>
-      <c r="L3" s="98">
-        <v>1.207481</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="100" t="s">
+      <c r="H4" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="72">
+        <v>4.9383999999999997E-2</v>
+      </c>
+      <c r="J4" s="72">
+        <v>5.9570309999999997</v>
+      </c>
+      <c r="K4" s="72">
+        <v>0.94410099999999997</v>
+      </c>
+      <c r="L4" s="90">
+        <v>1.167611</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="54">
-        <v>65.625</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="46">
+        <v>70.436999999999998</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="I4" s="80">
-        <v>4.9383999999999997E-2</v>
-      </c>
-      <c r="J4" s="80">
-        <v>5.9570309999999997</v>
-      </c>
-      <c r="K4" s="80">
-        <v>0.94410099999999997</v>
-      </c>
-      <c r="L4" s="98">
-        <v>1.167611</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="H5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="72">
+        <v>4.5152999999999999E-2</v>
+      </c>
+      <c r="J5" s="72">
+        <v>5.6582030000000003</v>
+      </c>
+      <c r="K5" s="72">
+        <v>0.88041400000000003</v>
+      </c>
+      <c r="L5" s="90">
+        <v>1.100814</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="92"/>
+      <c r="C6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="46">
+        <v>75.284999999999997</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="72">
+        <v>3.5633999999999999E-2</v>
+      </c>
+      <c r="J6" s="72">
+        <v>4.0664059999999997</v>
+      </c>
+      <c r="K6" s="72">
+        <v>0.74018600000000001</v>
+      </c>
+      <c r="L6" s="90">
+        <v>0.95307200000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="92"/>
+      <c r="C7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="51">
+        <v>78.198999999999998</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" s="72">
+        <v>2.7397999999999999E-2</v>
+      </c>
+      <c r="J7" s="72">
+        <v>3.0058590000000001</v>
+      </c>
+      <c r="K7" s="72">
+        <v>0.46144299999999999</v>
+      </c>
+      <c r="L7" s="90">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="92"/>
+      <c r="C8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="L8" s="90" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="92"/>
+      <c r="C9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="92"/>
+      <c r="C10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="54">
-        <v>70.436999999999998</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="80">
-        <v>4.5152999999999999E-2</v>
-      </c>
-      <c r="J5" s="80">
-        <v>5.6582030000000003</v>
-      </c>
-      <c r="K5" s="80">
-        <v>0.88041400000000003</v>
-      </c>
-      <c r="L5" s="98">
-        <v>1.100814</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="100"/>
-      <c r="C6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="54">
-        <v>75.284999999999997</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="I6" s="80">
-        <v>3.5633999999999999E-2</v>
-      </c>
-      <c r="J6" s="80">
-        <v>4.0664059999999997</v>
-      </c>
-      <c r="K6" s="80">
-        <v>0.74018600000000001</v>
-      </c>
-      <c r="L6" s="98">
-        <v>0.95307200000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="100"/>
-      <c r="C7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F7" s="59">
-        <v>78.198999999999998</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="I7" s="80">
-        <v>2.7397999999999999E-2</v>
-      </c>
-      <c r="J7" s="80">
-        <v>3.0058590000000001</v>
-      </c>
-      <c r="K7" s="80">
-        <v>0.46144299999999999</v>
-      </c>
-      <c r="L7" s="98">
-        <v>0.65849999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="100"/>
-      <c r="C8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>328</v>
-      </c>
-      <c r="J8" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="K8" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="L8" s="98" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="100"/>
-      <c r="C9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="K9" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="L9" s="102" t="s">
+      <c r="E10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="100"/>
-      <c r="C10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="81" t="s">
+      <c r="J10" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="K10" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="L10" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="L10" s="102" t="s">
+    </row>
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="92"/>
+      <c r="C11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="100"/>
-      <c r="C11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I11" s="81" t="s">
+      <c r="J11" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="K11" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="L11" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="L11" s="102" t="s">
+    </row>
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="92"/>
+      <c r="C12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="100"/>
-      <c r="C12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="J12" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="K12" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="L12" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="102" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="92"/>
+      <c r="C13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="100"/>
-      <c r="C13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="73" t="s">
         <v>363</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="J13" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="K13" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="81" t="s">
+      <c r="L13" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="L13" s="102" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="100"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="92"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="73" t="s">
         <v>370</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="J14" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="K14" s="73" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="L14" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="L14" s="102" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="100"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="92"/>
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="73" t="s">
         <v>377</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="J15" s="73" t="s">
         <v>378</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="K15" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="L15" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="L15" s="102" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="100"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="92"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="F16" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="J16" s="73" t="s">
         <v>385</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="K16" s="73" t="s">
         <v>386</v>
       </c>
-      <c r="K16" s="81" t="s">
+      <c r="L16" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="L16" s="102" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="100"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="92"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="J17" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="J17" s="81" t="s">
+      <c r="K17" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="L17" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="L17" s="102" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="100"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="92"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="46">
+        <v>116.396</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="F18" s="54">
-        <v>116.396</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>405</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="80">
+        <v>134</v>
+      </c>
+      <c r="I18" s="72">
         <v>2.8590999999999998E-2</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="72">
         <v>1.770508</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="72">
         <v>0.35457300000000003</v>
       </c>
-      <c r="L18" s="98">
+      <c r="L18" s="90">
         <v>0.51488</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="100"/>
+    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="92"/>
       <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="54">
+        <v>234</v>
+      </c>
+      <c r="F19" s="46">
         <v>115.672</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="I19" s="80">
+      <c r="I19" s="72">
         <v>5.7685E-2</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="72">
         <v>4.1826169999999996</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="72">
         <v>1.006526</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="90">
         <v>1.2097070000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="100"/>
+    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="92"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="54">
+        <v>126</v>
+      </c>
+      <c r="F20" s="46">
         <v>115.748</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I20" s="80">
+        <v>369</v>
+      </c>
+      <c r="I20" s="72">
         <v>5.2843000000000001E-2</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="72">
         <v>3.9707029999999999</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="72">
         <v>0.98486099999999999</v>
       </c>
-      <c r="L20" s="98">
+      <c r="L20" s="90">
         <v>1.187506</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="100"/>
+    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="92"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="54">
+        <v>244</v>
+      </c>
+      <c r="F21" s="46">
         <v>106.14100000000001</v>
       </c>
       <c r="G21" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="I21" s="80">
+      <c r="I21" s="72">
         <v>5.6877999999999998E-2</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="72">
         <v>3.7998050000000001</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="72">
         <v>0.937585</v>
       </c>
-      <c r="L21" s="98">
+      <c r="L21" s="90">
         <v>1.1354690000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="100"/>
+    <row r="22" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="92"/>
       <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="54">
+        <v>247</v>
+      </c>
+      <c r="F22" s="46">
         <v>121.124</v>
       </c>
       <c r="G22" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="I22" s="80">
+      <c r="I22" s="72">
         <v>5.3012999999999998E-2</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="72">
         <v>3.3876949999999999</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="72">
         <v>0.85234799999999999</v>
       </c>
-      <c r="L22" s="98">
+      <c r="L22" s="90">
         <v>1.0446569999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="100"/>
+    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="92"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="54">
+      <c r="F23" s="46">
         <v>119.292</v>
       </c>
       <c r="G23" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I23" s="80">
+      <c r="I23" s="72">
         <v>3.9681000000000001E-2</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="72">
         <v>2.4667970000000001</v>
       </c>
-      <c r="K23" s="80">
+      <c r="K23" s="72">
         <v>0.68201999999999996</v>
       </c>
-      <c r="L23" s="98">
+      <c r="L23" s="90">
         <v>0.86349600000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="100"/>
+    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="92"/>
       <c r="C24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="46">
+        <v>105.289</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="F24" s="54">
-        <v>105.289</v>
-      </c>
-      <c r="G24" s="34" t="s">
+      <c r="H24" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="I24" s="80">
+      <c r="I24" s="72">
         <v>2.9992000000000001E-2</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="72">
         <v>1.8515619999999999</v>
       </c>
-      <c r="K24" s="80">
+      <c r="K24" s="72">
         <v>0.35638399999999998</v>
       </c>
-      <c r="L24" s="98">
+      <c r="L24" s="90">
         <v>0.51713799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="100"/>
+    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="92"/>
       <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="54">
+      <c r="F25" s="46">
         <v>112.73099999999999</v>
       </c>
       <c r="G25" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="I25" s="80">
+      <c r="I25" s="72">
         <v>2.6869000000000001E-2</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="72">
         <v>1.438477</v>
       </c>
-      <c r="K25" s="80">
+      <c r="K25" s="72">
         <v>0.26193</v>
       </c>
-      <c r="L25" s="98">
+      <c r="L25" s="90">
         <v>0.39257399999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="100"/>
+    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="92"/>
       <c r="C26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F26" s="54">
+      <c r="F26" s="46">
         <v>112.18600000000001</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="I26" s="80">
+      <c r="I26" s="72">
         <v>1.7996000000000002E-2</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="72">
         <v>0.89160200000000001</v>
       </c>
-      <c r="K26" s="80">
+      <c r="K26" s="72">
         <v>0.37113600000000002</v>
       </c>
-      <c r="L26" s="98">
+      <c r="L26" s="90">
         <v>0.48376200000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="100"/>
+    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="92"/>
       <c r="C27" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="F27" s="55">
+      <c r="F27" s="47">
         <v>435.99</v>
       </c>
       <c r="G27" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="H27" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="I27" s="80">
+      <c r="I27" s="72">
         <v>5.9480999999999999E-2</v>
       </c>
-      <c r="J27" s="80">
+      <c r="J27" s="72">
         <v>0.84179700000000002</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="72">
         <v>0.32552700000000001</v>
       </c>
-      <c r="L27" s="98">
+      <c r="L27" s="90">
         <v>0.42815399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="100"/>
+    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="92"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="103"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
-    </row>
-    <row r="30" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="103"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="26">
         <v>512</v>
@@ -4138,199 +4240,199 @@
         <v>21</v>
       </c>
       <c r="E30" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="49">
+        <v>87.600999999999999</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="57">
-        <v>87.600999999999999</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="H30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="48">
+        <v>88</v>
+      </c>
+      <c r="I30" s="72">
         <v>4.3451999999999998E-2</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="72">
         <v>5.3554690000000003</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="72">
         <v>38.514884000000002</v>
       </c>
-      <c r="L30" s="50">
+      <c r="L30" s="90">
         <v>39.927731999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="46">
+        <v>100.911</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="54">
-        <v>100.911</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="42">
+      <c r="I31" s="72">
         <v>4.6648000000000002E-2</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="72">
         <v>5.8554690000000003</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="72">
         <v>38.810318000000002</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="90">
         <v>40.237515000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="23"/>
       <c r="D32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="54">
+        <v>34</v>
+      </c>
+      <c r="F32" s="46">
         <v>97.301000000000002</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="42">
+        <v>57</v>
+      </c>
+      <c r="I32" s="72">
         <v>4.8258000000000002E-2</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="72">
         <v>5.9511719999999997</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="72">
         <v>41.467312999999997</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="90">
         <v>42.983353999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="46">
+        <v>97.653000000000006</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="54">
-        <v>97.653000000000006</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="42">
+      <c r="I33" s="72">
         <v>4.8815999999999998E-2</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="72">
         <v>6.046875</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="72">
         <v>38.334111</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="90">
         <v>39.737543000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="46">
+        <v>96.74</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="54">
-        <v>96.74</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="42">
+      <c r="I34" s="72">
         <v>4.3317000000000001E-2</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="72">
         <v>5.7050780000000003</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="72">
         <v>39.329030000000003</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="90">
         <v>40.766568999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="46">
+        <v>130.62799999999999</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="54">
-        <v>130.62799999999999</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>100</v>
-      </c>
       <c r="H35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="42">
+        <v>93</v>
+      </c>
+      <c r="I35" s="72">
         <v>3.7630999999999998E-2</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="72">
         <v>4.34375</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="72">
         <v>39.770735999999999</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="90">
         <v>41.224938999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="54"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="34"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="90"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>20</v>
@@ -4339,199 +4441,199 @@
         <v>21</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="46">
+        <v>176.667</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="54">
-        <v>176.667</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>44</v>
-      </c>
       <c r="H37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="42">
+        <v>100</v>
+      </c>
+      <c r="I37" s="72">
         <v>5.9753000000000001E-2</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="72">
         <v>4.2197269999999998</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="72">
         <v>23.500529</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="90">
         <v>24.330231999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="46">
+        <v>184.636</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="54">
-        <v>184.636</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="42">
+      <c r="I38" s="72">
         <v>6.3125000000000001E-2</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="72">
         <v>4.4443359999999998</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="72">
         <v>23.485074999999998</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="90">
         <v>24.325042</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="46">
+        <v>191.24600000000001</v>
+      </c>
+      <c r="G39" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="54">
-        <v>191.24600000000001</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>49</v>
-      </c>
       <c r="H39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="42">
+        <v>104</v>
+      </c>
+      <c r="I39" s="72">
         <v>5.4815999999999997E-2</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="72">
         <v>3.9296880000000001</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="72">
         <v>24.379484999999999</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="90">
         <v>25.240195</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="46">
+        <v>175.65700000000001</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="54">
-        <v>175.65700000000001</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="42">
+      <c r="I40" s="72">
         <v>5.9631999999999998E-2</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="72">
         <v>4.3730469999999997</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="72">
         <v>23.324776</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="90">
         <v>24.156462999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="54" t="s">
-        <v>128</v>
-      </c>
       <c r="G41" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="42">
+        <v>111</v>
+      </c>
+      <c r="I41" s="72">
         <v>4.6205999999999997E-2</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="72">
         <v>3.4033199999999999</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="72">
         <v>24.527149000000001</v>
       </c>
-      <c r="L41" s="43">
+      <c r="L41" s="90">
         <v>25.401681</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="53">
+        <v>110</v>
+      </c>
+      <c r="F42" s="45">
         <v>229.69399999999999</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="42">
+        <v>113</v>
+      </c>
+      <c r="I42" s="72">
         <v>5.3649000000000002E-2</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="72">
         <v>3.598633</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="72">
         <v>25.165087</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="90">
         <v>26.055175999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="54"/>
+      <c r="F43" s="46"/>
       <c r="G43" s="34"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="43"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="90"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
         <v>22</v>
@@ -4540,64 +4642,64 @@
         <v>2</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>125</v>
+        <v>35</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="42">
+        <v>73</v>
+      </c>
+      <c r="I44" s="72">
         <v>3.2597000000000001E-2</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="72">
         <v>7.0898440000000003</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="72">
         <v>64.166327999999993</v>
       </c>
-      <c r="L44" s="43">
+      <c r="L44" s="90">
         <v>66.594944999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="72">
+        <v>3.0567E-2</v>
+      </c>
+      <c r="J45" s="72">
+        <v>6.5117190000000003</v>
+      </c>
+      <c r="K45" s="72">
+        <v>63.108451000000002</v>
+      </c>
+      <c r="L45" s="90">
+        <v>65.475786999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F45" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="46">
-        <v>3.0567E-2</v>
-      </c>
-      <c r="J45" s="46">
-        <v>6.5117190000000003</v>
-      </c>
-      <c r="K45" s="46">
-        <v>63.108451000000002</v>
-      </c>
-      <c r="L45" s="47">
-        <v>65.475786999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="C46" s="26">
         <v>512</v>
@@ -4606,46 +4708,46 @@
         <v>21</v>
       </c>
       <c r="E46" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="90"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="H47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="43"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="90"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
         <v>22</v>
@@ -4654,71 +4756,71 @@
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="48">
+        <v>276.767</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F48" s="56">
-        <v>276.767</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="H48" s="12">
         <v>0.74219999999999997</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-    </row>
-    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="90"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="H49" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
-    </row>
-    <row r="50" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="90"/>
+    </row>
+    <row r="50" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="59"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="59"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="33"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="59"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="54" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
@@ -4731,201 +4833,201 @@
       <c r="E55" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="52" t="s">
+      <c r="F55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="41" t="s">
         <v>55</v>
-      </c>
-      <c r="J55" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="L55"/>
       <c r="N55" s="40"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="44">
+      <c r="I56" s="72">
         <v>0.92674636718750003</v>
       </c>
-      <c r="J56" s="45">
+      <c r="J56" s="72">
         <v>1552.2148380078127</v>
       </c>
       <c r="L56" s="32"/>
-      <c r="M56" s="51"/>
+      <c r="M56" s="43"/>
       <c r="N56" s="40"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="H57" s="72">
         <v>0.1366</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="72">
         <v>0.93383382926829284</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="72">
         <v>959.35738732926814</v>
       </c>
       <c r="L57" s="32"/>
       <c r="N57" s="40"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="H58" s="72">
         <v>0.15429999999999999</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="72">
         <v>0.93089420898437492</v>
       </c>
-      <c r="J58" s="43">
+      <c r="J58" s="72">
         <v>759.41117067382811</v>
       </c>
       <c r="L58" s="32"/>
       <c r="N58" s="40"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="H59" s="72">
         <v>0.15759999999999999</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="72">
         <v>0.92753643229166649</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J59" s="72">
         <v>496.55552293619786</v>
       </c>
       <c r="L59" s="32"/>
       <c r="N59" s="40"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="9">
+      <c r="H60" s="72">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="72">
         <v>0.923783623046875</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J60" s="72">
         <v>366.92786240722654</v>
       </c>
       <c r="L60" s="32"/>
       <c r="N60" s="40"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="H61" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" s="46">
+      <c r="I61" s="72">
         <v>0.92156156494140629</v>
       </c>
-      <c r="J61" s="47">
+      <c r="J61" s="72">
         <v>178.14654615722654</v>
       </c>
       <c r="L61" s="32"/>
       <c r="N61" s="40"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
       <c r="L62"/>
       <c r="N62" s="40"/>
       <c r="R62"/>
     </row>
-    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="65" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="17" t="s">
         <v>14</v>
       </c>
@@ -4938,54 +5040,54 @@
       <c r="E65" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H65" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="I65" s="115" t="s">
-        <v>56</v>
-      </c>
       <c r="J65" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="73" t="s">
-        <v>519</v>
-      </c>
-      <c r="F66" s="116">
+      <c r="E66" s="65" t="s">
+        <v>518</v>
+      </c>
+      <c r="F66" s="108">
         <v>89.147000000000006</v>
       </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I66" s="112">
+      <c r="G66" s="65"/>
+      <c r="H66" s="72" t="s">
+        <v>598</v>
+      </c>
+      <c r="I66" s="114">
         <v>1525232</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="72">
         <v>5738.8126160000002</v>
       </c>
-      <c r="K66" s="45">
+      <c r="K66" s="72">
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -4994,26 +5096,26 @@
         <v>2</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F67" s="58">
+        <v>599</v>
+      </c>
+      <c r="F67" s="50">
         <v>89.147000000000006</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="I67" s="113">
+      <c r="H67" s="72" t="s">
+        <v>601</v>
+      </c>
+      <c r="I67" s="114">
         <v>3048689</v>
       </c>
-      <c r="J67" s="42">
+      <c r="J67" s="72">
         <v>5738.8126160000002</v>
       </c>
-      <c r="K67" s="43">
+      <c r="K67" s="72">
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="8" t="s">
         <v>11</v>
@@ -5022,26 +5124,26 @@
         <v>2</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="F68" s="58">
+        <v>600</v>
+      </c>
+      <c r="F68" s="50">
         <v>89.147000000000006</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="I68" s="113">
+      <c r="H68" s="72" t="s">
+        <v>602</v>
+      </c>
+      <c r="I68" s="114">
         <v>6112923</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="72">
         <v>5738.8126160000002</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K68" s="72">
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="8" t="s">
         <v>22</v>
@@ -5050,26 +5152,26 @@
         <v>3</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F69" s="54">
+        <v>517</v>
+      </c>
+      <c r="F69" s="46">
         <v>86</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="I69" s="113">
+      <c r="H69" s="72" t="s">
+        <v>605</v>
+      </c>
+      <c r="I69" s="114">
         <v>742793</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="72">
         <v>2780.2995059999998</v>
       </c>
-      <c r="K69" s="43">
+      <c r="K69" s="72">
         <v>2892.056</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -5078,26 +5180,26 @@
         <v>3</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F70" s="54">
+        <v>517</v>
+      </c>
+      <c r="F70" s="46">
         <v>86</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="I70" s="117">
+      <c r="H70" s="72" t="s">
+        <v>604</v>
+      </c>
+      <c r="I70" s="114">
         <v>1483192</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="72">
         <v>2780.2995059999998</v>
       </c>
-      <c r="K70" s="43">
+      <c r="K70" s="72">
         <v>2892.056</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="3"/>
       <c r="C71" s="8">
         <v>1024</v>
@@ -5106,26 +5208,26 @@
         <v>3</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F71" s="54">
+        <v>517</v>
+      </c>
+      <c r="F71" s="46">
         <v>86</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="I71" s="117">
+      <c r="H71" s="72" t="s">
+        <v>603</v>
+      </c>
+      <c r="I71" s="114">
         <v>2965049</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="72">
         <v>2780.2995059999998</v>
       </c>
-      <c r="K71" s="43">
+      <c r="K71" s="72">
         <v>2892.056</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="3"/>
       <c r="C72" s="8" t="s">
         <v>22</v>
@@ -5134,26 +5236,26 @@
         <v>15</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F72" s="54">
+        <v>516</v>
+      </c>
+      <c r="F72" s="46">
         <v>94.135999999999996</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="I72" s="117">
+      <c r="H72" s="72" t="s">
+        <v>606</v>
+      </c>
+      <c r="I72" s="114">
         <v>358966</v>
       </c>
-      <c r="J72" s="42">
+      <c r="J72" s="72">
         <v>1351.4608720000001</v>
       </c>
-      <c r="K72" s="43">
+      <c r="K72" s="72">
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="3"/>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -5162,26 +5264,26 @@
         <v>15</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F73" s="54">
+        <v>516</v>
+      </c>
+      <c r="F73" s="46">
         <v>94.135999999999996</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="I73" s="117">
+      <c r="H73" s="72" t="s">
+        <v>607</v>
+      </c>
+      <c r="I73" s="114">
         <v>718931</v>
       </c>
-      <c r="J73" s="42">
+      <c r="J73" s="72">
         <v>1351.4608720000001</v>
       </c>
-      <c r="K73" s="43">
+      <c r="K73" s="72">
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="3"/>
       <c r="C74" s="8">
         <v>1024</v>
@@ -5190,152 +5292,156 @@
         <v>15</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F74" s="54">
+        <v>516</v>
+      </c>
+      <c r="F74" s="46">
         <v>94.135999999999996</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="I74" s="117">
+      <c r="H74" s="72" t="s">
+        <v>608</v>
+      </c>
+      <c r="I74" s="114">
         <v>1438068</v>
       </c>
-      <c r="J74" s="42">
+      <c r="J74" s="72">
         <v>1351.4608720000001</v>
       </c>
-      <c r="K74" s="43">
+      <c r="K74" s="72">
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="3"/>
       <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F75" s="54">
+        <v>586</v>
+      </c>
+      <c r="F75" s="46">
         <v>162.25399999999999</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="I75" s="117">
+      <c r="H75" s="72" t="s">
+        <v>609</v>
+      </c>
+      <c r="I75" s="114">
         <v>348567</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="72">
         <v>1311.6556230000001</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="72">
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="3"/>
       <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F76" s="58">
+        <v>586</v>
+      </c>
+      <c r="F76" s="50">
         <v>162.25399999999999</v>
       </c>
       <c r="G76" s="24"/>
-      <c r="H76" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="I76" s="117">
+      <c r="H76" s="72" t="s">
+        <v>610</v>
+      </c>
+      <c r="I76" s="114">
         <v>698169</v>
       </c>
-      <c r="J76" s="42">
+      <c r="J76" s="72">
         <v>1311.6556230000001</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K76" s="72">
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="4"/>
       <c r="C77" s="11">
         <v>1024</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="F77" s="56">
+        <v>586</v>
+      </c>
+      <c r="F77" s="48">
         <v>162.25399999999999</v>
       </c>
       <c r="G77" s="12"/>
-      <c r="H77" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="I77" s="118">
+      <c r="H77" s="72" t="s">
+        <v>613</v>
+      </c>
+      <c r="I77" s="114">
         <v>1394683</v>
       </c>
-      <c r="J77" s="46">
+      <c r="J77" s="72">
         <v>1311.6556230000001</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="72">
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="123" t="s">
-        <v>616</v>
+      <c r="D78" s="113" t="s">
+        <v>615</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="F78" s="53">
+        <v>614</v>
+      </c>
+      <c r="F78" s="45">
         <v>4514.32</v>
       </c>
-      <c r="H78" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="I78" s="49">
+      <c r="H78" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="I78" s="114">
         <v>676836</v>
       </c>
-      <c r="J78" s="49">
+      <c r="J78" s="72">
         <v>2540.9789719999999</v>
       </c>
-      <c r="K78" s="49">
+      <c r="K78" s="72">
         <v>2643.085</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C80" s="11">
         <v>1024</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="81" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="81" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5344,31 +5450,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.2109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.2109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.35546875" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5382,936 +5488,936 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="L3" s="60">
+        <v>11.252262999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="75" t="s">
-        <v>552</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="E4" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="L3" s="68">
-        <v>11.252262999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="69" t="s">
+      <c r="F4" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="L4" s="70">
+      <c r="L4" s="62">
         <v>11.140643000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="3"/>
       <c r="C5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="F5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="70">
+      <c r="L5" s="62">
         <v>9.8515969999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="F6" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="70">
+      <c r="L6" s="62">
         <v>9.4808599999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="F7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="70">
+      <c r="L7" s="62">
         <v>9.1406500000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L8" s="70">
+      <c r="L8" s="62">
         <v>9.3080250000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="F9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="70">
+      <c r="L9" s="62">
         <v>9.5086440000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="F10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="70">
+      <c r="L10" s="62">
         <v>9.2173940000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="F11" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="70">
+      <c r="L11" s="62">
         <v>9.3302200000000006</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" s="70">
+      <c r="L12" s="62">
         <v>10.249644999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="70"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="70">
+      <c r="L14" s="62">
         <v>8.8521920000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="I15" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L15" s="70">
+      <c r="L15" s="62">
         <v>8.6582709999999992</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="70">
+      <c r="L16" s="62">
         <v>8.2937639999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="70">
+      <c r="L17" s="62">
         <v>7.9015250000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="F18" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="I18" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="L18" s="70">
+      <c r="L18" s="62">
         <v>8.0570470000000007</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="70">
+      <c r="L19" s="62">
         <v>8.6475899999999992</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>127</v>
+        <v>193</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="70">
+      <c r="L20" s="62">
         <v>8.2714970000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="H21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="70">
+      <c r="L21" s="62">
         <v>7.9651800000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="G22" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="I22" s="31" t="s">
+      <c r="J22" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="K22" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="79">
+      <c r="L22" s="71">
         <v>8.1066570000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="F23" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="G23" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="H23" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="78" t="s">
+      <c r="I23" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="J23" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="L23" s="79">
+      <c r="L23" s="71">
         <v>8.6240129999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="F24" s="31" t="s">
+      <c r="G24" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="H24" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="H24" s="78" t="s">
+      <c r="I24" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="J24" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="K24" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="L24" s="79">
+      <c r="L24" s="71">
         <v>9.1514419999999994</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="F25" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="H25" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="78" t="s">
+      <c r="I25" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="J25" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="K25" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="K25" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="L25" s="79">
+      <c r="L25" s="71">
         <v>9.4035360000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="F26" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="G26" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="H26" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="I26" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="J26" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="K26" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="K26" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="L26" s="79">
+      <c r="L26" s="71">
         <v>9.3266139999999993</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="G27" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="H27" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="I27" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="J27" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="L27" s="79">
+      <c r="L27" s="71">
         <v>9.3325370000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="4"/>
       <c r="C28" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="F28" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="I28" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="L28" s="72">
+      <c r="L28" s="64">
         <v>11.762981</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B29" s="33"/>
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="I29" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="J29" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="K29" s="32" t="s">
         <v>306</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>307</v>
       </c>
       <c r="L29">
         <v>8.6618650000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="H30" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="I30" s="32" t="s">
+      <c r="J30" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="K30" s="32" t="s">
         <v>394</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>395</v>
       </c>
       <c r="L30">
         <v>5.5183460000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6319,8 +6425,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="35" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="36" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="14" t="s">
         <v>9</v>
       </c>
@@ -6340,16 +6446,16 @@
         <v>6</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="18" t="s">
         <v>7</v>
@@ -6362,19 +6468,19 @@
         <v>28</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="J37" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="25" t="s">
         <v>19</v>
@@ -6387,19 +6493,19 @@
         <v>27</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="21" t="s">
         <v>11</v>
@@ -6409,22 +6515,22 @@
         <v>12</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="J39" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="19" t="s">
         <v>16</v>
@@ -6434,85 +6540,81 @@
         <v>17</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H40" s="9">
         <v>0.3639</v>
       </c>
       <c r="I40" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4"/>
       <c r="C41" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="89" t="s">
+      <c r="G47" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="89" t="s">
+      <c r="H47" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="J47" s="89" t="s">
+      <c r="J47" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
         <v>22</v>
@@ -6521,16 +6623,26 @@
         <v>2</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>518</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>629</v>
+      </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="K48" s="10">
+        <v>15692.637000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="3"/>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -6539,16 +6651,26 @@
         <v>2</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>599</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>629</v>
+      </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="K49" s="10">
+        <v>15692.637000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
         <v>11</v>
@@ -6557,16 +6679,26 @@
         <v>2</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>600</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>629</v>
+      </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="K50" s="10">
+        <v>15692.637000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
         <v>22</v>
@@ -6575,16 +6707,26 @@
         <v>3</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F51" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>620</v>
+      </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="8" t="s">
         <v>7</v>
@@ -6593,16 +6735,26 @@
         <v>3</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F52" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>620</v>
+      </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="8">
         <v>1024</v>
@@ -6611,16 +6763,26 @@
         <v>3</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F53" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>620</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="8" t="s">
         <v>22</v>
@@ -6629,16 +6791,26 @@
         <v>15</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>516</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>653</v>
+      </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H54" s="105" t="s">
+        <v>638</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="K54" s="10">
+        <v>3306.3649999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="8" t="s">
         <v>7</v>
@@ -6647,16 +6819,26 @@
         <v>15</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>516</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="K55" s="10">
+        <v>3306.3649999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="8">
         <v>1024</v>
@@ -6665,111 +6847,198 @@
         <v>15</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>516</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>637</v>
+      </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="K56" s="10">
+        <v>3306.3649999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F57" s="9"/>
+        <v>586</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>645</v>
+      </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K57" s="10">
+        <v>2948.6529999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F58" s="9"/>
+        <v>586</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>645</v>
+      </c>
       <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="11">
+      <c r="H58" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K58" s="10">
+        <v>2948.6529999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B59" s="3"/>
+      <c r="C59" s="8">
         <v>1024</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="13"/>
-    </row>
-    <row r="60" spans="2:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C60">
+      <c r="D59" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K59" s="10">
+        <v>2948.6529999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="3"/>
+      <c r="C60" s="8">
         <v>256</v>
       </c>
-      <c r="D60" s="123" t="s">
+      <c r="D60" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="E60" t="s">
-        <v>620</v>
-      </c>
-      <c r="F60">
-        <v>6421.3505999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C61" s="124">
+      <c r="F60" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="3"/>
+      <c r="C61" s="8">
         <v>512</v>
       </c>
-      <c r="D61" s="123" t="s">
+      <c r="D61" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="E61" t="s">
-        <v>620</v>
-      </c>
-      <c r="F61">
-        <v>6421.3505999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C62" s="124">
+      <c r="F61" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G61" s="105">
+        <v>224.14500000000001</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11">
         <v>1024</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="E62" t="s">
-        <v>620</v>
-      </c>
-      <c r="F62">
-        <v>6421.3505999999998</v>
-      </c>
-    </row>
+      <c r="F62" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G62" s="106">
+        <v>196.89</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6778,29 +7047,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.2109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -6814,251 +7083,251 @@
         <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>526</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="K4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="E7" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>512</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="105" t="s">
         <v>323</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>324</v>
       </c>
       <c r="E8" s="9">
         <v>2565.31</v>
       </c>
-      <c r="F8" s="113" t="s">
-        <v>425</v>
+      <c r="F8" s="105" t="s">
+        <v>424</v>
       </c>
       <c r="G8" s="9">
         <v>0.9375</v>
@@ -7076,55 +7345,55 @@
         <v>16.291819</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="8">
         <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" s="9">
         <v>1348.1949999999999</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G10" s="9">
         <v>0.9375</v>
@@ -7142,255 +7411,255 @@
         <v>16.271578999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="G15" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="E16" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3"/>
       <c r="B17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>278</v>
-      </c>
       <c r="E17" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="G17" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="H17" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="I17" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="110" t="s">
         <v>442</v>
       </c>
-      <c r="K17" s="120" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="121" t="s">
-        <v>578</v>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="111" t="s">
+        <v>577</v>
       </c>
       <c r="B18" s="5">
         <v>256</v>
       </c>
-      <c r="C18" s="73" t="s">
-        <v>194</v>
+      <c r="C18" s="65" t="s">
+        <v>193</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E18" s="6">
         <v>24067.455000000002</v>
       </c>
-      <c r="F18" s="122" t="s">
-        <v>613</v>
+      <c r="F18" s="112" t="s">
+        <v>612</v>
       </c>
       <c r="G18" s="6">
         <v>0.88280000000000003</v>
@@ -7408,22 +7677,22 @@
         <v>42.559880999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="119"/>
+    <row r="19" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="109"/>
       <c r="B19" s="11">
         <v>512</v>
       </c>
-      <c r="C19" s="74" t="s">
-        <v>269</v>
+      <c r="C19" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" s="12">
         <v>25532.294000000002</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G19" s="12">
         <v>0.96679999999999999</v>
@@ -7441,9 +7710,9 @@
         <v>35.977034000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -7453,95 +7722,95 @@
       <c r="C22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="89" t="s">
+      <c r="G22" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="83" t="s">
-        <v>109</v>
+      <c r="D23" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="84" t="s">
-        <v>110</v>
+      <c r="D24" s="76" t="s">
+        <v>109</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="85" t="s">
-        <v>75</v>
+      <c r="D25" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="E25" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>465</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>466</v>
       </c>
       <c r="G25" s="9">
         <v>0.54490000000000005</v>
@@ -7553,84 +7822,84 @@
         <v>3063.6552729999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="86" t="s">
-        <v>83</v>
+      <c r="D26" s="78" t="s">
+        <v>82</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="86" t="s">
-        <v>90</v>
+      <c r="D27" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="87" t="s">
-        <v>102</v>
+      <c r="D28" s="79" t="s">
+        <v>101</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -7647,60 +7916,60 @@
         <v>5</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="J33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>522</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112">
+      <c r="D34" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>521</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104">
         <f>1729.72685/256</f>
         <v>6.7567455078125001</v>
       </c>
-      <c r="I34" s="112">
+      <c r="I34" s="104">
         <f>23532644</f>
         <v>23532644</v>
       </c>
-      <c r="J34" s="112">
+      <c r="J34" s="104">
         <v>70174.678220000002</v>
       </c>
-      <c r="K34" s="68">
+      <c r="K34" s="60">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>7</v>
@@ -7709,30 +7978,30 @@
         <v>2</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113">
+      <c r="G35" s="105"/>
+      <c r="H35" s="105">
         <f>5217.34207/512</f>
         <v>10.190121230468749</v>
       </c>
-      <c r="I35" s="113">
+      <c r="I35" s="105">
         <v>47873377</v>
       </c>
-      <c r="J35" s="113">
+      <c r="J35" s="105">
         <v>70174.678220000002</v>
       </c>
-      <c r="K35" s="70">
+      <c r="K35" s="62">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>11</v>
@@ -7741,28 +8010,28 @@
         <v>2</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113">
+      <c r="G36" s="105"/>
+      <c r="H36" s="105">
         <f>16866.06394/1024</f>
         <v>16.47076556640625</v>
       </c>
-      <c r="I36" s="113">
+      <c r="I36" s="105">
         <v>95524137</v>
       </c>
-      <c r="J36" s="113">
+      <c r="J36" s="105">
         <v>70174.678220000002</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="62">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
         <v>22</v>
@@ -7771,28 +8040,28 @@
         <v>3</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113">
+      <c r="G37" s="105"/>
+      <c r="H37" s="105">
         <f>774.651865/256</f>
         <v>3.0259838476562502</v>
       </c>
-      <c r="I37" s="113">
+      <c r="I37" s="105">
         <v>10522905</v>
       </c>
-      <c r="J37" s="113">
+      <c r="J37" s="105">
         <v>31484.821538</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="62">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
@@ -7801,28 +8070,28 @@
         <v>3</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113">
+      <c r="G38" s="105"/>
+      <c r="H38" s="105">
         <f>2327.193619/512</f>
         <v>4.5453000371093752</v>
       </c>
-      <c r="I38" s="113">
+      <c r="I38" s="105">
         <v>21364436</v>
       </c>
-      <c r="J38" s="113">
+      <c r="J38" s="105">
         <v>31484.821538</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="62">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3"/>
       <c r="B39" s="8">
         <v>1024</v>
@@ -7831,28 +8100,28 @@
         <v>3</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113">
+      <c r="G39" s="105"/>
+      <c r="H39" s="105">
         <f>7465.023822/1024</f>
         <v>7.2900623261718751</v>
       </c>
-      <c r="I39" s="113">
+      <c r="I39" s="105">
         <v>42388561</v>
       </c>
-      <c r="J39" s="113">
+      <c r="J39" s="105">
         <v>31484.821538</v>
       </c>
-      <c r="K39" s="70">
+      <c r="K39" s="62">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
         <v>22</v>
@@ -7861,28 +8130,28 @@
         <v>15</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113">
+      <c r="G40" s="105"/>
+      <c r="H40" s="105">
         <f>337.049103/256</f>
         <v>1.31659805859375</v>
       </c>
-      <c r="I40" s="113">
+      <c r="I40" s="105">
         <v>4542546</v>
       </c>
-      <c r="J40" s="113">
+      <c r="J40" s="105">
         <v>13528.102902000001</v>
       </c>
-      <c r="K40" s="70">
+      <c r="K40" s="62">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3"/>
       <c r="B41" s="8" t="s">
         <v>7</v>
@@ -7891,28 +8160,28 @@
         <v>15</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113">
+      <c r="G41" s="105"/>
+      <c r="H41" s="105">
         <f>979.899104/512</f>
         <v>1.9138654374999999</v>
       </c>
-      <c r="I41" s="113">
+      <c r="I41" s="105">
         <v>9042389</v>
       </c>
-      <c r="J41" s="113">
+      <c r="J41" s="105">
         <v>13528.102902000001</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="62">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3"/>
       <c r="B42" s="8">
         <v>1024</v>
@@ -7921,118 +8190,118 @@
         <v>15</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113">
+      <c r="G42" s="105"/>
+      <c r="H42" s="105">
         <f>3144.197842/1024</f>
         <v>3.070505705078125</v>
       </c>
-      <c r="I42" s="113">
+      <c r="I42" s="105">
         <v>17908989</v>
       </c>
-      <c r="J42" s="113">
+      <c r="J42" s="105">
         <v>13528.102902000001</v>
       </c>
-      <c r="K42" s="70">
+      <c r="K42" s="62">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3"/>
       <c r="B43" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113">
+      <c r="G43" s="105"/>
+      <c r="H43" s="105">
         <f>281.212133/256</f>
         <v>1.09848489453125</v>
       </c>
-      <c r="I43" s="113">
+      <c r="I43" s="105">
         <v>3800925</v>
       </c>
-      <c r="J43" s="113">
+      <c r="J43" s="105">
         <v>11038.054274</v>
       </c>
-      <c r="K43" s="70">
+      <c r="K43" s="62">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3"/>
       <c r="B44" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113">
+      <c r="G44" s="105"/>
+      <c r="H44" s="105">
         <f>825.961829/512</f>
         <v>1.6132066972656249</v>
       </c>
-      <c r="I44" s="113">
+      <c r="I44" s="105">
         <v>7614904</v>
       </c>
-      <c r="J44" s="113">
+      <c r="J44" s="105">
         <v>11038.054274</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="62">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="B45" s="11">
         <v>1024</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114">
+        <v>543</v>
+      </c>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106">
         <f>2637.727072/1024</f>
         <v>2.5759053437500001</v>
       </c>
-      <c r="I45" s="114">
+      <c r="I45" s="106">
         <v>15047827</v>
       </c>
-      <c r="J45" s="114">
+      <c r="J45" s="106">
         <v>11038.054274</v>
       </c>
-      <c r="K45" s="72">
+      <c r="K45" s="64">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4563E52-CC44-4820-B1DA-E2D8AFC4B74E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId2"/>
     <sheet name="webdocs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="682">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1646,10 +1640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>901.680</t>
   </si>
   <si>
@@ -1888,12 +1878,6 @@
     <t>26.978669</t>
   </si>
   <si>
-    <t>4161 bytes</t>
-  </si>
-  <si>
-    <t>4162 bytes</t>
-  </si>
-  <si>
     <t>49.596223</t>
   </si>
   <si>
@@ -2082,19 +2066,93 @@
   </si>
   <si>
     <t>5477711</t>
+  </si>
+  <si>
+    <t>262208 bytes</t>
+  </si>
+  <si>
+    <t>128*256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>567.8287</t>
+  </si>
+  <si>
+    <t>Find:188, TP:188, FP:462</t>
+  </si>
+  <si>
+    <t>0.2892</t>
+  </si>
+  <si>
+    <t>0.596169</t>
+  </si>
+  <si>
+    <t>599.296923</t>
+  </si>
+  <si>
+    <t>5496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.530991</t>
+  </si>
+  <si>
+    <t>219.493</t>
+  </si>
+  <si>
+    <t>Find:214, TP:214, FP:42</t>
+  </si>
+  <si>
+    <t>0.8359</t>
+  </si>
+  <si>
+    <t>0.04866</t>
+  </si>
+  <si>
+    <t>88.191406</t>
+  </si>
+  <si>
+    <t>0.845525</t>
+  </si>
+  <si>
+    <t>Estimate all element:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.182 seconds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102.680</t>
+  </si>
+  <si>
+    <t>16.880</t>
+  </si>
+  <si>
+    <t>221.2558</t>
+  </si>
+  <si>
+    <t>2734.636 s for count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,6 +2206,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2826,18 +2899,23 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2993,13 +3071,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3269,39 +3360,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="22.35546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.78515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="83" t="s">
         <v>8</v>
       </c>
@@ -3336,7 +3427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="89" t="s">
         <v>49</v>
       </c>
@@ -3371,7 +3462,7 @@
         <v>1.2280059999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
         <v>129</v>
       </c>
@@ -3406,7 +3497,7 @@
         <v>1.207481</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="92" t="s">
         <v>130</v>
       </c>
@@ -3441,7 +3532,7 @@
         <v>1.167611</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="93" t="s">
         <v>131</v>
       </c>
@@ -3476,7 +3567,7 @@
         <v>1.100814</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="92"/>
       <c r="C6" s="8" t="s">
         <v>139</v>
@@ -3509,7 +3600,7 @@
         <v>0.95307200000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="92"/>
       <c r="C7" s="8" t="s">
         <v>139</v>
@@ -3542,7 +3633,7 @@
         <v>0.65849999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="92"/>
       <c r="C8" s="8" t="s">
         <v>139</v>
@@ -3575,7 +3666,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="92"/>
       <c r="C9" s="8" t="s">
         <v>139</v>
@@ -3608,7 +3699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="92"/>
       <c r="C10" s="8" t="s">
         <v>139</v>
@@ -3641,7 +3732,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="92"/>
       <c r="C11" s="8" t="s">
         <v>139</v>
@@ -3674,7 +3765,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="92"/>
       <c r="C12" s="8" t="s">
         <v>139</v>
@@ -3707,7 +3798,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="92"/>
       <c r="C13" s="8" t="s">
         <v>139</v>
@@ -3740,7 +3831,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="92"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -3773,7 +3864,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="92"/>
       <c r="C15" s="8" t="s">
         <v>20</v>
@@ -3806,7 +3897,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="92"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
@@ -3839,7 +3930,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="92"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
@@ -3872,7 +3963,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="92"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
@@ -3905,7 +3996,7 @@
         <v>0.51488</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="92"/>
       <c r="C19" s="8" t="s">
         <v>20</v>
@@ -3938,7 +4029,7 @@
         <v>1.2097070000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -3971,7 +4062,7 @@
         <v>1.187506</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="92"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
@@ -4004,7 +4095,7 @@
         <v>1.1354690000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="92"/>
       <c r="C22" s="8" t="s">
         <v>20</v>
@@ -4037,7 +4128,7 @@
         <v>1.0446569999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="92"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
@@ -4070,7 +4161,7 @@
         <v>0.86349600000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="92"/>
       <c r="C24" s="8" t="s">
         <v>20</v>
@@ -4103,7 +4194,7 @@
         <v>0.51713799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="92"/>
       <c r="C25" s="8" t="s">
         <v>20</v>
@@ -4136,7 +4227,7 @@
         <v>0.39257399999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="92"/>
       <c r="C26" s="8" t="s">
         <v>20</v>
@@ -4169,7 +4260,7 @@
         <v>0.48376200000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="92"/>
       <c r="C27" s="30" t="s">
         <v>388</v>
@@ -4202,7 +4293,7 @@
         <v>0.42815399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="92"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4216,7 +4307,7 @@
       <c r="L28" s="95"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
       <c r="D29" s="98"/>
@@ -4229,7 +4320,7 @@
       <c r="K29" s="102"/>
       <c r="L29" s="103"/>
     </row>
-    <row r="30" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="37" t="s">
         <v>71</v>
       </c>
@@ -4264,7 +4355,7 @@
         <v>39.927731999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
@@ -4295,7 +4386,7 @@
         <v>40.237515000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="23"/>
       <c r="D32" s="9" t="s">
@@ -4326,7 +4417,7 @@
         <v>42.983353999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
@@ -4357,7 +4448,7 @@
         <v>39.737543000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="24" t="s">
@@ -4388,7 +4479,7 @@
         <v>40.766568999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
@@ -4419,7 +4510,7 @@
         <v>41.224938999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -4432,7 +4523,7 @@
       <c r="K36" s="72"/>
       <c r="L36" s="90"/>
     </row>
-    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>20</v>
@@ -4465,7 +4556,7 @@
         <v>24.330231999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
@@ -4496,7 +4587,7 @@
         <v>24.325042</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
@@ -4527,7 +4618,7 @@
         <v>25.240195</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
@@ -4558,7 +4649,7 @@
         <v>24.156462999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="24" t="s">
@@ -4589,7 +4680,7 @@
         <v>25.401681</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
@@ -4620,7 +4711,7 @@
         <v>26.055175999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -4633,7 +4724,7 @@
       <c r="K43" s="72"/>
       <c r="L43" s="90"/>
     </row>
-    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
         <v>22</v>
@@ -4666,7 +4757,7 @@
         <v>66.594944999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
@@ -4697,7 +4788,7 @@
         <v>65.475786999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="28" t="s">
         <v>37</v>
       </c>
@@ -4724,7 +4815,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="90"/>
     </row>
-    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="24" t="s">
@@ -4747,7 +4838,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="90"/>
     </row>
-    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
         <v>22</v>
@@ -4772,7 +4863,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="90"/>
     </row>
-    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12" t="s">
@@ -4795,7 +4886,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="90"/>
     </row>
-    <row r="50" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4803,7 +4894,7 @@
       <c r="F50" s="51"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4811,7 +4902,7 @@
       <c r="F51" s="51"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="33"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4819,8 +4910,8 @@
       <c r="F52" s="51"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="54" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="55" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4943,7 @@
       <c r="N55" s="40"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -4881,7 +4972,7 @@
       <c r="N56" s="40"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
         <v>19</v>
@@ -4909,7 +5000,7 @@
       <c r="N57" s="40"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
       <c r="C58" s="23" t="s">
         <v>11</v>
@@ -4937,7 +5028,7 @@
       <c r="N58" s="40"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>16</v>
@@ -4965,7 +5056,7 @@
       <c r="N59" s="40"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
         <v>13</v>
@@ -4993,7 +5084,7 @@
       <c r="N60" s="40"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
         <v>91</v>
@@ -5021,13 +5112,13 @@
       <c r="N61" s="40"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L62"/>
       <c r="N62" s="40"/>
       <c r="R62"/>
     </row>
-    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="65" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="17" t="s">
         <v>14</v>
       </c>
@@ -5059,7 +5150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
         <v>22</v>
@@ -5075,9 +5166,9 @@
       </c>
       <c r="G66" s="65"/>
       <c r="H66" s="72" t="s">
-        <v>598</v>
-      </c>
-      <c r="I66" s="114">
+        <v>597</v>
+      </c>
+      <c r="I66" s="113">
         <v>1525232</v>
       </c>
       <c r="J66" s="72">
@@ -5087,7 +5178,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -5095,17 +5186,17 @@
       <c r="D67" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>599</v>
+      <c r="E67" s="65" t="s">
+        <v>518</v>
       </c>
       <c r="F67" s="50">
         <v>89.147000000000006</v>
       </c>
       <c r="G67" s="24"/>
       <c r="H67" s="72" t="s">
-        <v>601</v>
-      </c>
-      <c r="I67" s="114">
+        <v>598</v>
+      </c>
+      <c r="I67" s="113">
         <v>3048689</v>
       </c>
       <c r="J67" s="72">
@@ -5115,7 +5206,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
       <c r="C68" s="8" t="s">
         <v>11</v>
@@ -5123,17 +5214,17 @@
       <c r="D68" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="24" t="s">
-        <v>600</v>
+      <c r="E68" s="65" t="s">
+        <v>518</v>
       </c>
       <c r="F68" s="50">
         <v>89.147000000000006</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="I68" s="114">
+        <v>599</v>
+      </c>
+      <c r="I68" s="113">
         <v>6112923</v>
       </c>
       <c r="J68" s="72">
@@ -5143,7 +5234,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3"/>
       <c r="C69" s="8" t="s">
         <v>22</v>
@@ -5159,9 +5250,9 @@
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="72" t="s">
-        <v>605</v>
-      </c>
-      <c r="I69" s="114">
+        <v>602</v>
+      </c>
+      <c r="I69" s="113">
         <v>742793</v>
       </c>
       <c r="J69" s="72">
@@ -5171,7 +5262,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -5187,9 +5278,9 @@
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="72" t="s">
-        <v>604</v>
-      </c>
-      <c r="I70" s="114">
+        <v>601</v>
+      </c>
+      <c r="I70" s="113">
         <v>1483192</v>
       </c>
       <c r="J70" s="72">
@@ -5199,7 +5290,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="C71" s="8">
         <v>1024</v>
@@ -5215,9 +5306,9 @@
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="72" t="s">
-        <v>603</v>
-      </c>
-      <c r="I71" s="114">
+        <v>600</v>
+      </c>
+      <c r="I71" s="113">
         <v>2965049</v>
       </c>
       <c r="J71" s="72">
@@ -5227,7 +5318,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="C72" s="8" t="s">
         <v>22</v>
@@ -5243,9 +5334,9 @@
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="72" t="s">
-        <v>606</v>
-      </c>
-      <c r="I72" s="114">
+        <v>603</v>
+      </c>
+      <c r="I72" s="113">
         <v>358966</v>
       </c>
       <c r="J72" s="72">
@@ -5255,7 +5346,7 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -5271,9 +5362,9 @@
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="72" t="s">
-        <v>607</v>
-      </c>
-      <c r="I73" s="114">
+        <v>604</v>
+      </c>
+      <c r="I73" s="113">
         <v>718931</v>
       </c>
       <c r="J73" s="72">
@@ -5283,7 +5374,7 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
       <c r="C74" s="8">
         <v>1024</v>
@@ -5299,9 +5390,9 @@
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="72" t="s">
-        <v>608</v>
-      </c>
-      <c r="I74" s="114">
+        <v>605</v>
+      </c>
+      <c r="I74" s="113">
         <v>1438068</v>
       </c>
       <c r="J74" s="72">
@@ -5311,25 +5402,25 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
       <c r="C75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F75" s="46">
         <v>162.25399999999999</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="72" t="s">
-        <v>609</v>
-      </c>
-      <c r="I75" s="114">
+        <v>606</v>
+      </c>
+      <c r="I75" s="113">
         <v>348567</v>
       </c>
       <c r="J75" s="72">
@@ -5339,25 +5430,25 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
       <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F76" s="50">
         <v>162.25399999999999</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="72" t="s">
-        <v>610</v>
-      </c>
-      <c r="I76" s="114">
+        <v>607</v>
+      </c>
+      <c r="I76" s="113">
         <v>698169</v>
       </c>
       <c r="J76" s="72">
@@ -5367,25 +5458,25 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4"/>
       <c r="C77" s="11">
         <v>1024</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F77" s="48">
         <v>162.25399999999999</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="72" t="s">
-        <v>613</v>
-      </c>
-      <c r="I77" s="114">
+        <v>610</v>
+      </c>
+      <c r="I77" s="113">
         <v>1394683</v>
       </c>
       <c r="J77" s="72">
@@ -5395,23 +5486,24 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C78" s="8" t="s">
+    <row r="78" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="113" t="s">
-        <v>615</v>
-      </c>
-      <c r="E78" s="32" t="s">
+      <c r="D78" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="F78" s="48">
+        <v>4514.32</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="72" t="s">
         <v>614</v>
       </c>
-      <c r="F78" s="45">
-        <v>4514.32</v>
-      </c>
-      <c r="H78" s="72" t="s">
-        <v>617</v>
-      </c>
-      <c r="I78" s="114">
+      <c r="I78" s="113">
         <v>676836</v>
       </c>
       <c r="J78" s="72">
@@ -5421,27 +5513,65 @@
         <v>2643.085</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C79" s="8" t="s">
+    <row r="79" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72"/>
-    </row>
-    <row r="80" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D79" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F79" s="48">
+        <v>4514.32</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="H79" s="72">
+        <v>22.006138</v>
+      </c>
+      <c r="I79" s="113">
+        <v>1352655</v>
+      </c>
+      <c r="J79" s="72">
+        <v>2540.9789719999999</v>
+      </c>
+      <c r="K79" s="72">
+        <v>2643.085</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80" s="11">
         <v>1024</v>
       </c>
-      <c r="E80" s="32" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="81" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="D80" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F80" s="48">
+        <v>4514.32</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="H80" s="72" t="s">
+        <v>669</v>
+      </c>
+      <c r="I80" s="113">
+        <v>2706370</v>
+      </c>
+      <c r="J80" s="72">
+        <v>2540.9789719999999</v>
+      </c>
+      <c r="K80" s="72">
+        <v>2643.085</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5450,31 +5580,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:L63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N65"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.2109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.2109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.35546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5508,8 +5639,11 @@
       <c r="L2" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N2" s="115" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
@@ -5520,31 +5654,31 @@
         <v>147</v>
       </c>
       <c r="E3" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="H3" s="65" t="s">
         <v>181</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="L3" s="60">
         <v>11.252262999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="59" t="s">
         <v>72</v>
       </c>
@@ -5555,1209 +5689,1216 @@
         <v>148</v>
       </c>
       <c r="E4" s="61" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="L4" s="62">
         <v>11.140643000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="3"/>
+    <row r="5" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="59"/>
       <c r="C5" s="19" t="s">
-        <v>139</v>
+        <v>491</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>141</v>
+        <v>522</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>142</v>
+        <v>670</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>143</v>
+        <v>671</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>128</v>
+        <v>672</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>144</v>
+        <v>673</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>145</v>
+        <v>674</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>146</v>
+        <v>675</v>
       </c>
       <c r="L5" s="62">
-        <v>9.8515969999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>10.996081</v>
+      </c>
+      <c r="N5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="62">
+        <v>9.8515969999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E7" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L7" s="62">
         <v>9.4808599999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="3"/>
-      <c r="C7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="62">
-        <v>9.1406500000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="62">
+        <v>9.1406500000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E9" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L9" s="62">
         <v>9.3080250000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="3"/>
-      <c r="C9" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="62">
-        <v>9.5086440000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>194</v>
+      <c r="D10" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>186</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>168</v>
+        <v>187</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="62">
-        <v>9.2173940000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>9.5086440000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L11" s="62">
-        <v>9.3302200000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>9.2173940000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="62">
+        <v>9.3302200000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E13" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L13" s="62">
         <v>10.249644999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="62"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L14" s="62">
-        <v>8.8521920000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L15" s="62">
-        <v>8.6582709999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.8521920000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L16" s="62">
-        <v>8.2937639999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.6582709999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L17" s="62">
-        <v>7.9015250000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.2937639999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L18" s="62">
-        <v>8.0570470000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>7.9015250000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L19" s="62">
-        <v>8.6475899999999992</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.0570470000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>193</v>
+      <c r="D20" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L20" s="62">
-        <v>8.2714970000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.6475899999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="62">
+        <v>8.2714970000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E22" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L22" s="62">
         <v>7.9651800000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="L22" s="71">
-        <v>8.1066570000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H23" s="70" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L23" s="71">
-        <v>8.6240129999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.1066570000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H24" s="70" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L24" s="71">
-        <v>9.1514419999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>8.6240129999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H25" s="70" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L25" s="71">
-        <v>9.4035360000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>9.1514419999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H26" s="70" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L26" s="71">
-        <v>9.3266139999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>9.4035360000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L27" s="71">
+        <v>9.3266139999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E28" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F28" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G28" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H28" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J28" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K28" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L28" s="71">
         <v>9.3325370000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="4"/>
-      <c r="C28" s="20" t="s">
+    <row r="29" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E29" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H29" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I29" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L29" s="64">
         <v>11.762981</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="33"/>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="L29">
-        <v>8.6618650000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30">
+        <v>8.6618650000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H31" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I31" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J31" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K31" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>5.5183460000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="33"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="35" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="14" t="s">
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:10" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J37" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="3"/>
-      <c r="C37" s="18" t="s">
+    <row r="38" spans="2:10" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="5" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="J38" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="3"/>
-      <c r="C38" s="25" t="s">
+    </row>
+    <row r="39" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="J39" s="114" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="C40" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="3"/>
-      <c r="C39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="3"/>
-      <c r="C40" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G42" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.3639</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="H40" s="9">
-        <v>0.3639</v>
-      </c>
-      <c r="I40" s="9" t="s">
+      <c r="J42" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="20" t="s">
+    </row>
+    <row r="43" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="11" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F43" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="I41" s="12" t="s">
+      <c r="J43" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="17" t="s">
+    </row>
+    <row r="44" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C49" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D49" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E49" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="81" t="s">
+      <c r="F49" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G49" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="81" t="s">
+      <c r="H49" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="81" t="s">
+      <c r="I49" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="81" t="s">
+      <c r="J49" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="82" t="s">
+      <c r="K49" s="82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="3"/>
-      <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="K48" s="10">
-        <v>15692.637000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="3"/>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="K49" s="10">
-        <v>15692.637000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="F50" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>632</v>
       </c>
       <c r="K50" s="10">
         <v>15692.637000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>517</v>
+        <v>2</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>629</v>
+      </c>
+      <c r="K51" s="10">
+        <v>15692.637000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
       <c r="C52" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>517</v>
+        <v>2</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>629</v>
+      </c>
+      <c r="K52" s="10">
+        <v>15692.637000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
-      <c r="C53" s="8">
-        <v>1024</v>
+      <c r="C53" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>3</v>
@@ -6766,82 +6907,82 @@
         <v>517</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
       <c r="C54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="105" t="s">
-        <v>638</v>
+      <c r="H54" s="9" t="s">
+        <v>622</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="K54" s="10">
-        <v>3306.3649999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>620</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
-      <c r="C55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>15</v>
+      <c r="C55" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="K55" s="10">
-        <v>3306.3649999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>620</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
-      <c r="C56" s="8">
-        <v>1024</v>
+      <c r="C56" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>15</v>
@@ -6850,195 +6991,251 @@
         <v>516</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="105" t="s">
+        <v>635</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="J56" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>640</v>
       </c>
       <c r="K56" s="10">
         <v>3306.3649999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>536</v>
+        <v>15</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K57" s="10">
-        <v>2948.6529999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>3306.3649999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
-      <c r="C58" s="8" t="s">
-        <v>7</v>
+      <c r="C58" s="8">
+        <v>1024</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>536</v>
+        <v>15</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K58" s="10">
-        <v>2948.6529999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>3306.3649999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
-      <c r="C59" s="8">
-        <v>1024</v>
+      <c r="C59" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F59" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="J59" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="G59" s="105"/>
-      <c r="H59" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="K59" s="10">
         <v>2948.6529999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
-      <c r="C60" s="8">
-        <v>256</v>
+      <c r="C60" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="G60" s="105"/>
+        <v>642</v>
+      </c>
+      <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>645</v>
+      </c>
+      <c r="K60" s="10">
+        <v>2948.6529999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
       <c r="C61" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G61" s="105"/>
+      <c r="H61" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="K61" s="10">
+        <v>2948.6529999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="8">
+        <v>256</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G62" s="105"/>
+      <c r="H62" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="8">
         <v>512</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="D63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G63" s="105">
+        <v>224.14500000000001</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="J63" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="G61" s="105">
-        <v>224.14500000000001</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="K63" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="11">
+        <v>1024</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G64" s="106">
+        <v>196.89</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="4"/>
-      <c r="C62" s="11">
-        <v>1024</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="J64" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="G62" s="106">
-        <v>196.89</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="K64" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7047,29 +7244,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -7104,7 +7301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
@@ -7115,31 +7312,31 @@
         <v>149</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="34" t="s">
         <v>524</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>525</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>287</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
@@ -7174,7 +7371,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>491</v>
@@ -7207,7 +7404,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>478</v>
       </c>
@@ -7242,7 +7439,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>479</v>
       </c>
@@ -7256,28 +7453,28 @@
         <v>150</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>537</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>538</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>511</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>480</v>
       </c>
@@ -7312,7 +7509,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>512</v>
@@ -7345,7 +7542,7 @@
         <v>16.291819</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
         <v>139</v>
@@ -7378,7 +7575,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="8">
         <v>512</v>
@@ -7411,7 +7608,7 @@
         <v>16.271578999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>139</v>
@@ -7444,7 +7641,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>20</v>
@@ -7456,28 +7653,28 @@
         <v>205</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -7510,7 +7707,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
         <v>20</v>
@@ -7543,7 +7740,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
         <v>20</v>
@@ -7576,7 +7773,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
@@ -7609,7 +7806,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="30" t="s">
         <v>20</v>
@@ -7642,9 +7839,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="111" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="5">
         <v>256</v>
@@ -7653,13 +7850,13 @@
         <v>193</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E18" s="6">
         <v>24067.455000000002</v>
       </c>
       <c r="F18" s="112" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G18" s="6">
         <v>0.88280000000000003</v>
@@ -7677,7 +7874,7 @@
         <v>42.559880999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="109"/>
       <c r="B19" s="11">
         <v>512</v>
@@ -7692,7 +7889,7 @@
         <v>25532.294000000002</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G19" s="12">
         <v>0.96679999999999999</v>
@@ -7710,9 +7907,9 @@
         <v>35.977034000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="22" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -7741,7 +7938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>478</v>
       </c>
@@ -7768,7 +7965,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>479</v>
       </c>
@@ -7795,7 +7992,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>480</v>
       </c>
@@ -7822,7 +8019,7 @@
         <v>3063.6552729999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -7832,22 +8029,22 @@
         <v>82</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="19" t="s">
         <v>13</v>
@@ -7857,22 +8054,22 @@
         <v>89</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>18</v>
@@ -7882,24 +8079,24 @@
         <v>101</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="33" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="29" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -7924,7 +8121,7 @@
       <c r="H33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="120" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="15" t="s">
@@ -7934,7 +8131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>478</v>
       </c>
@@ -7945,10 +8142,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F34" s="65"/>
       <c r="G34" s="104"/>
@@ -7956,18 +8153,18 @@
         <f>1729.72685/256</f>
         <v>6.7567455078125001</v>
       </c>
-      <c r="I34" s="104">
+      <c r="I34" s="121">
         <f>23532644</f>
         <v>23532644</v>
       </c>
-      <c r="J34" s="104">
+      <c r="J34" s="117">
         <v>70174.678220000002</v>
       </c>
-      <c r="K34" s="60">
+      <c r="K34" s="124">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>479</v>
       </c>
@@ -7981,7 +8178,7 @@
         <v>518</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="105"/>
@@ -7989,17 +8186,17 @@
         <f>5217.34207/512</f>
         <v>10.190121230468749</v>
       </c>
-      <c r="I35" s="105">
+      <c r="I35" s="122">
         <v>47873377</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="118">
         <v>70174.678220000002</v>
       </c>
-      <c r="K35" s="62">
+      <c r="K35" s="125">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>480</v>
       </c>
@@ -8013,7 +8210,7 @@
         <v>518</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="105"/>
@@ -8021,17 +8218,17 @@
         <f>16866.06394/1024</f>
         <v>16.47076556640625</v>
       </c>
-      <c r="I36" s="105">
+      <c r="I36" s="122">
         <v>95524137</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="118">
         <v>70174.678220000002</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="125">
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
         <v>22</v>
@@ -8043,7 +8240,7 @@
         <v>517</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="105"/>
@@ -8051,17 +8248,17 @@
         <f>774.651865/256</f>
         <v>3.0259838476562502</v>
       </c>
-      <c r="I37" s="105">
+      <c r="I37" s="122">
         <v>10522905</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="118">
         <v>31484.821538</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="125">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
@@ -8073,7 +8270,7 @@
         <v>517</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="105"/>
@@ -8081,17 +8278,17 @@
         <f>2327.193619/512</f>
         <v>4.5453000371093752</v>
       </c>
-      <c r="I38" s="105">
+      <c r="I38" s="122">
         <v>21364436</v>
       </c>
-      <c r="J38" s="105">
+      <c r="J38" s="118">
         <v>31484.821538</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="125">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="8">
         <v>1024</v>
@@ -8103,7 +8300,7 @@
         <v>517</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="105"/>
@@ -8111,17 +8308,17 @@
         <f>7465.023822/1024</f>
         <v>7.2900623261718751</v>
       </c>
-      <c r="I39" s="105">
+      <c r="I39" s="122">
         <v>42388561</v>
       </c>
-      <c r="J39" s="105">
+      <c r="J39" s="118">
         <v>31484.821538</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="125">
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
         <v>22</v>
@@ -8133,7 +8330,7 @@
         <v>516</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="105"/>
@@ -8141,17 +8338,17 @@
         <f>337.049103/256</f>
         <v>1.31659805859375</v>
       </c>
-      <c r="I40" s="105">
+      <c r="I40" s="122">
         <v>4542546</v>
       </c>
-      <c r="J40" s="105">
+      <c r="J40" s="118">
         <v>13528.102902000001</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="125">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="8" t="s">
         <v>7</v>
@@ -8163,7 +8360,7 @@
         <v>516</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="105"/>
@@ -8171,17 +8368,17 @@
         <f>979.899104/512</f>
         <v>1.9138654374999999</v>
       </c>
-      <c r="I41" s="105">
+      <c r="I41" s="122">
         <v>9042389</v>
       </c>
-      <c r="J41" s="105">
+      <c r="J41" s="118">
         <v>13528.102902000001</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="125">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="8">
         <v>1024</v>
@@ -8193,7 +8390,7 @@
         <v>516</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="105"/>
@@ -8201,29 +8398,29 @@
         <f>3144.197842/1024</f>
         <v>3.070505705078125</v>
       </c>
-      <c r="I42" s="105">
+      <c r="I42" s="122">
         <v>17908989</v>
       </c>
-      <c r="J42" s="105">
+      <c r="J42" s="118">
         <v>13528.102902000001</v>
       </c>
-      <c r="K42" s="62">
+      <c r="K42" s="125">
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="8" t="s">
         <v>519</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="105"/>
@@ -8231,29 +8428,29 @@
         <f>281.212133/256</f>
         <v>1.09848489453125</v>
       </c>
-      <c r="I43" s="105">
+      <c r="I43" s="122">
         <v>3800925</v>
       </c>
-      <c r="J43" s="105">
+      <c r="J43" s="118">
         <v>11038.054274</v>
       </c>
-      <c r="K43" s="62">
+      <c r="K43" s="125">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="8" t="s">
-        <v>520</v>
+        <v>7</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="105"/>
@@ -8261,47 +8458,138 @@
         <f>825.961829/512</f>
         <v>1.6132066972656249</v>
       </c>
-      <c r="I44" s="105">
+      <c r="I44" s="122">
         <v>7614904</v>
       </c>
-      <c r="J44" s="105">
+      <c r="J44" s="118">
         <v>11038.054274</v>
       </c>
-      <c r="K44" s="62">
+      <c r="K44" s="125">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="4"/>
-      <c r="B45" s="11">
+    <row r="45" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="8">
         <v>1024</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>536</v>
+      <c r="C45" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106">
+        <v>586</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105">
         <f>2637.727072/1024</f>
         <v>2.5759053437500001</v>
       </c>
-      <c r="I45" s="106">
+      <c r="I45" s="122">
         <v>15047827</v>
       </c>
-      <c r="J45" s="106">
+      <c r="J45" s="118">
         <v>11038.054274</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="125">
         <v>14807.462</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8">
+        <v>256</v>
+      </c>
+      <c r="C46" s="116" t="s">
+        <v>615</v>
+      </c>
+      <c r="D46" s="105" t="s">
+        <v>660</v>
+      </c>
+      <c r="E46" s="9">
+        <v>28097.11</v>
+      </c>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105">
+        <v>1.82334</v>
+      </c>
+      <c r="I46" s="122">
+        <v>6361216</v>
+      </c>
+      <c r="J46" s="118">
+        <v>18365.730458999999</v>
+      </c>
+      <c r="K46" s="125">
+        <v>24642.705999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D47" s="105" t="s">
+        <v>660</v>
+      </c>
+      <c r="E47" s="9">
+        <v>28097.11</v>
+      </c>
+      <c r="F47" s="105">
+        <v>879.57399999999996</v>
+      </c>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105">
+        <v>2.7059899999999999</v>
+      </c>
+      <c r="I47" s="122">
+        <v>12760986</v>
+      </c>
+      <c r="J47" s="118">
+        <v>18365.730458999999</v>
+      </c>
+      <c r="K47" s="125">
+        <v>24642.705999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="11">
+        <v>1024</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>661</v>
+      </c>
+      <c r="D48" s="106" t="s">
+        <v>660</v>
+      </c>
+      <c r="E48" s="12">
+        <v>28097.11</v>
+      </c>
+      <c r="F48" s="106">
+        <v>932.03599999999994</v>
+      </c>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106">
+        <v>4.3686020000000001</v>
+      </c>
+      <c r="I48" s="123">
+        <v>25432604</v>
+      </c>
+      <c r="J48" s="119">
+        <v>18365.730458999999</v>
+      </c>
+      <c r="K48" s="126">
+        <v>24642.705999999998</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -2149,8 +2149,8 @@
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -3080,13 +3080,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3360,7 +3360,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7248,7 +7248,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8512,7 +8512,9 @@
       <c r="E46" s="9">
         <v>28097.11</v>
       </c>
-      <c r="F46" s="105"/>
+      <c r="F46" s="105">
+        <v>883.74800000000005</v>
+      </c>
       <c r="G46" s="105"/>
       <c r="H46" s="105">
         <v>1.82334</v>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90448A-AC99-41EA-9748-295DDB76905B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16488" windowHeight="5868" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
     <sheet name="Caida_0" sheetId="4" r:id="rId2"/>
     <sheet name="webdocs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="689">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2136,13 +2142,36 @@
   </si>
   <si>
     <t>2734.636 s for count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep Topk during process arriving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3203125</t>
+  </si>
+  <si>
+    <t>4.036141</t>
+  </si>
+  <si>
+    <t>1706615</t>
+  </si>
+  <si>
+    <t>3262.165956</t>
+  </si>
+  <si>
+    <t>6689.585</t>
+  </si>
+  <si>
+    <t>18968 bytes=Top-256: 2416 bytes+ CMS:16448 bytes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -2915,7 +2944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3087,6 +3116,15 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3360,14 +3398,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R81"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
@@ -3375,24 +3413,24 @@
       <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="22.35546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.35546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.640625" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.640625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="83" t="s">
         <v>8</v>
       </c>
@@ -3427,7 +3465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="89" t="s">
         <v>49</v>
       </c>
@@ -3462,7 +3500,7 @@
         <v>1.2280059999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="91" t="s">
         <v>129</v>
       </c>
@@ -3497,7 +3535,7 @@
         <v>1.207481</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="92" t="s">
         <v>130</v>
       </c>
@@ -3532,7 +3570,7 @@
         <v>1.167611</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="93" t="s">
         <v>131</v>
       </c>
@@ -3567,7 +3605,7 @@
         <v>1.100814</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="92"/>
       <c r="C6" s="8" t="s">
         <v>139</v>
@@ -3600,7 +3638,7 @@
         <v>0.95307200000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="92"/>
       <c r="C7" s="8" t="s">
         <v>139</v>
@@ -3633,7 +3671,7 @@
         <v>0.65849999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="92"/>
       <c r="C8" s="8" t="s">
         <v>139</v>
@@ -3666,7 +3704,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="92"/>
       <c r="C9" s="8" t="s">
         <v>139</v>
@@ -3699,7 +3737,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="92"/>
       <c r="C10" s="8" t="s">
         <v>139</v>
@@ -3732,7 +3770,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="92"/>
       <c r="C11" s="8" t="s">
         <v>139</v>
@@ -3765,7 +3803,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="92"/>
       <c r="C12" s="8" t="s">
         <v>139</v>
@@ -3798,7 +3836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="92"/>
       <c r="C13" s="8" t="s">
         <v>139</v>
@@ -3831,7 +3869,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="92"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -3864,7 +3902,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="92"/>
       <c r="C15" s="8" t="s">
         <v>20</v>
@@ -3897,7 +3935,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="92"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
@@ -3930,7 +3968,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="92"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
@@ -3963,7 +4001,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="92"/>
       <c r="C18" s="8" t="s">
         <v>20</v>
@@ -3996,7 +4034,7 @@
         <v>0.51488</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="92"/>
       <c r="C19" s="8" t="s">
         <v>20</v>
@@ -4029,7 +4067,7 @@
         <v>1.2097070000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="92"/>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -4062,7 +4100,7 @@
         <v>1.187506</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="92"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
@@ -4095,7 +4133,7 @@
         <v>1.1354690000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="92"/>
       <c r="C22" s="8" t="s">
         <v>20</v>
@@ -4128,7 +4166,7 @@
         <v>1.0446569999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="92"/>
       <c r="C23" s="8" t="s">
         <v>20</v>
@@ -4161,7 +4199,7 @@
         <v>0.86349600000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="92"/>
       <c r="C24" s="8" t="s">
         <v>20</v>
@@ -4194,7 +4232,7 @@
         <v>0.51713799999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="92"/>
       <c r="C25" s="8" t="s">
         <v>20</v>
@@ -4227,7 +4265,7 @@
         <v>0.39257399999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="92"/>
       <c r="C26" s="8" t="s">
         <v>20</v>
@@ -4260,7 +4298,7 @@
         <v>0.48376200000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="92"/>
       <c r="C27" s="30" t="s">
         <v>388</v>
@@ -4293,7 +4331,7 @@
         <v>0.42815399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="92"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4307,7 +4345,7 @@
       <c r="L28" s="95"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
       <c r="D29" s="98"/>
@@ -4320,7 +4358,7 @@
       <c r="K29" s="102"/>
       <c r="L29" s="103"/>
     </row>
-    <row r="30" spans="2:13" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="37" t="s">
         <v>71</v>
       </c>
@@ -4355,7 +4393,7 @@
         <v>39.927731999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
@@ -4386,7 +4424,7 @@
         <v>40.237515000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="3"/>
       <c r="C32" s="23"/>
       <c r="D32" s="9" t="s">
@@ -4417,7 +4455,7 @@
         <v>42.983353999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
@@ -4448,7 +4486,7 @@
         <v>39.737543000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="24" t="s">
@@ -4479,7 +4517,7 @@
         <v>40.766568999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
@@ -4510,7 +4548,7 @@
         <v>41.224938999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
@@ -4523,7 +4561,7 @@
       <c r="K36" s="72"/>
       <c r="L36" s="90"/>
     </row>
-    <row r="37" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="3"/>
       <c r="C37" s="8" t="s">
         <v>20</v>
@@ -4556,7 +4594,7 @@
         <v>24.330231999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
@@ -4587,7 +4625,7 @@
         <v>24.325042</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
@@ -4618,7 +4656,7 @@
         <v>25.240195</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
@@ -4649,7 +4687,7 @@
         <v>24.156462999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="24" t="s">
@@ -4680,7 +4718,7 @@
         <v>25.401681</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
@@ -4711,7 +4749,7 @@
         <v>26.055175999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -4724,7 +4762,7 @@
       <c r="K43" s="72"/>
       <c r="L43" s="90"/>
     </row>
-    <row r="44" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
         <v>22</v>
@@ -4757,7 +4795,7 @@
         <v>66.594944999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
@@ -4788,7 +4826,7 @@
         <v>65.475786999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B46" s="28" t="s">
         <v>37</v>
       </c>
@@ -4815,7 +4853,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="90"/>
     </row>
-    <row r="47" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
       <c r="D47" s="24" t="s">
@@ -4838,7 +4876,7 @@
       <c r="K47" s="72"/>
       <c r="L47" s="90"/>
     </row>
-    <row r="48" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
         <v>22</v>
@@ -4863,7 +4901,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="90"/>
     </row>
-    <row r="49" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12" t="s">
@@ -4886,7 +4924,7 @@
       <c r="K49" s="72"/>
       <c r="L49" s="90"/>
     </row>
-    <row r="50" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B50" s="33"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4894,7 +4932,7 @@
       <c r="F50" s="51"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B51" s="33"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4902,7 +4940,7 @@
       <c r="F51" s="51"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B52" s="33"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4910,8 +4948,8 @@
       <c r="F52" s="51"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="54" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
@@ -4943,7 +4981,7 @@
       <c r="N55" s="40"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="2:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -4972,7 +5010,7 @@
       <c r="N56" s="40"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
         <v>19</v>
@@ -5000,7 +5038,7 @@
       <c r="N57" s="40"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="23" t="s">
         <v>11</v>
@@ -5028,7 +5066,7 @@
       <c r="N58" s="40"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>16</v>
@@ -5056,7 +5094,7 @@
       <c r="N59" s="40"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
         <v>13</v>
@@ -5084,7 +5122,7 @@
       <c r="N60" s="40"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
         <v>91</v>
@@ -5112,13 +5150,13 @@
       <c r="N61" s="40"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="2:18" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" ht="15.4" thickTop="1" x14ac:dyDescent="0.45">
       <c r="L62"/>
       <c r="N62" s="40"/>
       <c r="R62"/>
     </row>
-    <row r="64" spans="2:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="65" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="17" t="s">
         <v>14</v>
       </c>
@@ -5150,7 +5188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B66" s="3"/>
       <c r="C66" s="5" t="s">
         <v>22</v>
@@ -5178,7 +5216,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="3"/>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -5206,7 +5244,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="3"/>
       <c r="C68" s="8" t="s">
         <v>11</v>
@@ -5234,7 +5272,7 @@
         <v>5969.4889999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B69" s="3"/>
       <c r="C69" s="8" t="s">
         <v>22</v>
@@ -5262,7 +5300,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="3"/>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -5290,7 +5328,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="3"/>
       <c r="C71" s="8">
         <v>1024</v>
@@ -5318,7 +5356,7 @@
         <v>2892.056</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B72" s="3"/>
       <c r="C72" s="8" t="s">
         <v>22</v>
@@ -5346,7 +5384,7 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B73" s="3"/>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -5374,7 +5412,7 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="3"/>
       <c r="C74" s="8">
         <v>1024</v>
@@ -5402,7 +5440,7 @@
         <v>1405.7739999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="3"/>
       <c r="C75" s="8" t="s">
         <v>22</v>
@@ -5430,7 +5468,7 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B76" s="3"/>
       <c r="C76" s="8" t="s">
         <v>7</v>
@@ -5458,7 +5496,7 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="4"/>
       <c r="C77" s="11">
         <v>1024</v>
@@ -5486,7 +5524,7 @@
         <v>1364.3679999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C78" s="11" t="s">
         <v>22</v>
       </c>
@@ -5513,7 +5551,7 @@
         <v>2643.085</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C79" s="11" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5580,7 @@
         <v>2643.085</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C80" s="11">
         <v>1024</v>
       </c>
@@ -5571,7 +5609,7 @@
         <v>2643.085</v>
       </c>
     </row>
-    <row r="81" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5580,32 +5618,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.2109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.2109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.2109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.35546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
@@ -5643,7 +5681,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
@@ -5678,7 +5716,7 @@
         <v>11.252262999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="59" t="s">
         <v>72</v>
       </c>
@@ -5713,7 +5751,7 @@
         <v>11.140643000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="59"/>
       <c r="C5" s="19" t="s">
         <v>491</v>
@@ -5749,7 +5787,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
         <v>139</v>
@@ -5782,7 +5820,7 @@
         <v>9.8515969999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
         <v>139</v>
@@ -5815,7 +5853,7 @@
         <v>9.4808599999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
         <v>139</v>
@@ -5848,7 +5886,7 @@
         <v>9.1406500000000008</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="3"/>
       <c r="C9" s="21" t="s">
         <v>139</v>
@@ -5881,7 +5919,7 @@
         <v>9.3080250000000007</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3"/>
       <c r="C10" s="19" t="s">
         <v>139</v>
@@ -5914,7 +5952,7 @@
         <v>9.5086440000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="19" t="s">
         <v>139</v>
@@ -5947,7 +5985,7 @@
         <v>9.2173940000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="3"/>
       <c r="C12" s="19" t="s">
         <v>139</v>
@@ -5980,7 +6018,7 @@
         <v>9.3302200000000006</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="19" t="s">
         <v>139</v>
@@ -6013,7 +6051,7 @@
         <v>10.249644999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -6026,7 +6064,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="19" t="s">
         <v>20</v>
@@ -6059,7 +6097,7 @@
         <v>8.8521920000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="3"/>
       <c r="C16" s="19" t="s">
         <v>20</v>
@@ -6092,7 +6130,7 @@
         <v>8.6582709999999992</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="3"/>
       <c r="C17" s="19" t="s">
         <v>20</v>
@@ -6125,7 +6163,7 @@
         <v>8.2937639999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="3"/>
       <c r="C18" s="19" t="s">
         <v>20</v>
@@ -6158,7 +6196,7 @@
         <v>7.9015250000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="3"/>
       <c r="C19" s="19" t="s">
         <v>20</v>
@@ -6191,7 +6229,7 @@
         <v>8.0570470000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
         <v>20</v>
@@ -6224,7 +6262,7 @@
         <v>8.6475899999999992</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
         <v>20</v>
@@ -6257,7 +6295,7 @@
         <v>8.2714970000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3"/>
       <c r="C22" s="19" t="s">
         <v>20</v>
@@ -6290,7 +6328,7 @@
         <v>7.9651800000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="3"/>
       <c r="C23" s="29" t="s">
         <v>20</v>
@@ -6323,7 +6361,7 @@
         <v>8.1066570000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="3"/>
       <c r="C24" s="29" t="s">
         <v>20</v>
@@ -6356,7 +6394,7 @@
         <v>8.6240129999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="3"/>
       <c r="C25" s="29" t="s">
         <v>20</v>
@@ -6389,7 +6427,7 @@
         <v>9.1514419999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="29" t="s">
         <v>20</v>
@@ -6422,7 +6460,7 @@
         <v>9.4035360000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="3"/>
       <c r="C27" s="29" t="s">
         <v>20</v>
@@ -6455,7 +6493,7 @@
         <v>9.3266139999999993</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="3"/>
       <c r="C28" s="29" t="s">
         <v>20</v>
@@ -6488,7 +6526,7 @@
         <v>9.3325370000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="4"/>
       <c r="C29" s="20" t="s">
         <v>20</v>
@@ -6521,7 +6559,7 @@
         <v>11.762981</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B30" s="33"/>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -6554,7 +6592,7 @@
         <v>8.6618650000000006</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="33"/>
       <c r="C31" s="1" t="s">
         <v>388</v>
@@ -6587,7 +6625,7 @@
         <v>5.5183460000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="33"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6595,8 +6633,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="36" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:10" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
@@ -6625,7 +6663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="3"/>
       <c r="C38" s="18" t="s">
         <v>7</v>
@@ -6650,7 +6688,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="3"/>
       <c r="C39" s="25" t="s">
         <v>662</v>
@@ -6675,7 +6713,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="3"/>
       <c r="C40" s="25" t="s">
         <v>19</v>
@@ -6700,7 +6738,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="3"/>
       <c r="C41" s="21" t="s">
         <v>11</v>
@@ -6725,7 +6763,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="3"/>
       <c r="C42" s="19" t="s">
         <v>16</v>
@@ -6750,7 +6788,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="4"/>
       <c r="C43" s="20" t="s">
         <v>13</v>
@@ -6775,9 +6813,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="2:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="49" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="17" t="s">
         <v>14</v>
       </c>
@@ -6793,23 +6831,23 @@
       <c r="F49" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="H49" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="81" t="s">
+      <c r="I49" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="81" t="s">
+      <c r="J49" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="K49" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="82" t="s">
+      <c r="L49" s="82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
         <v>22</v>
@@ -6823,23 +6861,23 @@
       <c r="F50" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="K50" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>15692.637000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
         <v>7</v>
@@ -6853,21 +6891,21 @@
       <c r="F51" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="J51" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="10">
         <v>15692.637000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B52" s="3"/>
       <c r="C52" s="8" t="s">
         <v>11</v>
@@ -6881,21 +6919,21 @@
       <c r="F52" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="K52" s="10">
+      <c r="L52" s="10">
         <v>15692.637000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="3"/>
       <c r="C53" s="8" t="s">
         <v>22</v>
@@ -6909,21 +6947,21 @@
       <c r="F53" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="J53" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="K53" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="L53" s="10" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="3"/>
       <c r="C54" s="8" t="s">
         <v>7</v>
@@ -6937,21 +6975,21 @@
       <c r="F54" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="L54" s="10" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="3"/>
       <c r="C55" s="8">
         <v>1024</v>
@@ -6965,21 +7003,21 @@
       <c r="F55" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="J55" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="K55" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="L55" s="10" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="3"/>
       <c r="C56" s="8" t="s">
         <v>22</v>
@@ -6993,21 +7031,21 @@
       <c r="F56" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="105" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="105" t="s">
         <v>635</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="K56" s="10">
+      <c r="L56" s="10">
         <v>3306.3649999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B57" s="3"/>
       <c r="C57" s="8" t="s">
         <v>7</v>
@@ -7021,21 +7059,21 @@
       <c r="F57" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="J57" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="K57" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="K57" s="10">
+      <c r="L57" s="10">
         <v>3306.3649999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B58" s="3"/>
       <c r="C58" s="8">
         <v>1024</v>
@@ -7049,21 +7087,21 @@
       <c r="F58" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="J58" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="K58" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="K58" s="10">
+      <c r="L58" s="10">
         <v>3306.3649999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="3"/>
       <c r="C59" s="8" t="s">
         <v>22</v>
@@ -7077,21 +7115,21 @@
       <c r="F59" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="J59" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="K59" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>2948.6529999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="3"/>
       <c r="C60" s="8" t="s">
         <v>7</v>
@@ -7105,21 +7143,21 @@
       <c r="F60" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="K60" s="10">
+      <c r="L60" s="10">
         <v>2948.6529999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B61" s="3"/>
       <c r="C61" s="8">
         <v>1024</v>
@@ -7133,21 +7171,21 @@
       <c r="F61" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="G61" s="105"/>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="105"/>
+      <c r="I61" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="K61" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="K61" s="10">
+      <c r="L61" s="10">
         <v>2948.6529999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="3"/>
       <c r="C62" s="8">
         <v>256</v>
@@ -7161,21 +7199,21 @@
       <c r="F62" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G62" s="105"/>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="105"/>
+      <c r="I62" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="J62" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="K62" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="3"/>
       <c r="C63" s="8">
         <v>512</v>
@@ -7189,23 +7227,23 @@
       <c r="F63" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G63" s="105">
+      <c r="H63" s="127">
         <v>224.14500000000001</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B64" s="4"/>
       <c r="C64" s="11">
         <v>1024</v>
@@ -7219,23 +7257,58 @@
       <c r="F64" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G64" s="106">
+      <c r="H64" s="128">
         <v>196.89</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="I64" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="J64" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="K64" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="65" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" t="s">
+        <v>682</v>
+      </c>
+      <c r="C65" s="8">
+        <v>256</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="F65" s="9">
+        <v>923.85500000000002</v>
+      </c>
+      <c r="G65" s="129">
+        <f>256*H65</f>
+        <v>82</v>
+      </c>
+      <c r="H65" s="127" t="s">
+        <v>683</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7244,29 +7317,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.35546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.35546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -7301,7 +7374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
@@ -7336,7 +7409,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>72</v>
       </c>
@@ -7371,7 +7444,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>491</v>
@@ -7404,7 +7477,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>478</v>
       </c>
@@ -7439,7 +7512,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>479</v>
       </c>
@@ -7474,7 +7547,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>480</v>
       </c>
@@ -7509,7 +7582,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="8">
         <v>512</v>
@@ -7542,7 +7615,7 @@
         <v>16.291819</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="8" t="s">
         <v>139</v>
@@ -7575,7 +7648,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="8">
         <v>512</v>
@@ -7608,7 +7681,7 @@
         <v>16.271578999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
         <v>139</v>
@@ -7641,7 +7714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3"/>
       <c r="B12" s="8" t="s">
         <v>20</v>
@@ -7674,7 +7747,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -7707,7 +7780,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
         <v>20</v>
@@ -7740,7 +7813,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
         <v>20</v>
@@ -7773,7 +7846,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
@@ -7806,7 +7879,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3"/>
       <c r="B17" s="30" t="s">
         <v>20</v>
@@ -7839,7 +7912,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="111" t="s">
         <v>576</v>
       </c>
@@ -7874,7 +7947,7 @@
         <v>42.559880999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="109"/>
       <c r="B19" s="11">
         <v>512</v>
@@ -7907,9 +7980,9 @@
         <v>35.977034000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -7938,7 +8011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>478</v>
       </c>
@@ -7965,7 +8038,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>479</v>
       </c>
@@ -7992,7 +8065,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>480</v>
       </c>
@@ -8019,7 +8092,7 @@
         <v>3063.6552729999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -8044,7 +8117,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="19" t="s">
         <v>13</v>
@@ -8069,7 +8142,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>18</v>
@@ -8094,9 +8167,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="17" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>478</v>
       </c>
@@ -8164,7 +8237,7 @@
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>479</v>
       </c>
@@ -8196,7 +8269,7 @@
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>480</v>
       </c>
@@ -8228,7 +8301,7 @@
         <v>94158.456999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3"/>
       <c r="B37" s="8" t="s">
         <v>22</v>
@@ -8258,7 +8331,7 @@
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
@@ -8288,7 +8361,7 @@
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3"/>
       <c r="B39" s="8">
         <v>1024</v>
@@ -8318,7 +8391,7 @@
         <v>42242.044000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3"/>
       <c r="B40" s="8" t="s">
         <v>22</v>
@@ -8348,7 +8421,7 @@
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3"/>
       <c r="B41" s="8" t="s">
         <v>7</v>
@@ -8378,7 +8451,7 @@
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3"/>
       <c r="B42" s="8">
         <v>1024</v>
@@ -8408,7 +8481,7 @@
         <v>18147.476999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3"/>
       <c r="B43" s="8" t="s">
         <v>519</v>
@@ -8438,7 +8511,7 @@
         <v>14807.462</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3"/>
       <c r="B44" s="8" t="s">
         <v>7</v>
@@ -8468,7 +8541,7 @@
         <v>14807.462</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3"/>
       <c r="B45" s="8">
         <v>1024</v>
@@ -8498,7 +8571,7 @@
         <v>14807.462</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3"/>
       <c r="B46" s="8">
         <v>256</v>
@@ -8529,7 +8602,7 @@
         <v>24642.705999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3"/>
       <c r="B47" s="8" t="s">
         <v>7</v>
@@ -8560,7 +8633,7 @@
         <v>24642.705999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="B48" s="11">
         <v>1024</v>
@@ -8591,7 +8664,7 @@
         <v>24642.705999999998</v>
       </c>
     </row>
-    <row r="49" ht="15.6" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.4" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/All_result.xlsx
+++ b/result/All_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERO\Python\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90448A-AC99-41EA-9748-295DDB76905B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE34EF-46A1-4771-A309-F6AA4AFEC374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosarak" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="690">
   <si>
     <t>TOP-k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2165,6 +2165,10 @@
   </si>
   <si>
     <t>18968 bytes=Top-256: 2416 bytes+ CMS:16448 bytes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3410,7 +3414,7 @@
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5621,10 +5625,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -7320,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -7849,7 +7853,7 @@
     <row r="16" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>689</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>268</v>
